--- a/Experiment/实验结果.xlsx
+++ b/Experiment/实验结果.xlsx
@@ -8,14 +8,16 @@
   <sheets>
     <sheet name="实验结果" sheetId="1" r:id="rId4"/>
     <sheet name="1108" sheetId="2" r:id="rId5"/>
-    <sheet name="人工check" sheetId="3" r:id="rId6"/>
-    <sheet name="别管" sheetId="4" r:id="rId7"/>
+    <sheet name="topK" sheetId="3" r:id="rId6"/>
+    <sheet name="迭代次数" sheetId="4" r:id="rId7"/>
+    <sheet name="人工check" sheetId="5" r:id="rId8"/>
+    <sheet name="别管" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>表格 1</t>
   </si>
@@ -105,6 +107,90 @@
   </si>
   <si>
     <t>WithoutLocation</t>
+  </si>
+  <si>
+    <t>Adaboost-迭代30次</t>
+  </si>
+  <si>
+    <t>Adaboost-迭代50次</t>
+  </si>
+  <si>
+    <t>FeatureSet</t>
+  </si>
+  <si>
+    <t>Adaboost-5</t>
+  </si>
+  <si>
+    <t>Adaboost-10</t>
+  </si>
+  <si>
+    <t>Adaboost-15</t>
+  </si>
+  <si>
+    <t>Adaboost-20</t>
+  </si>
+  <si>
+    <t>Adaboost-50</t>
+  </si>
+  <si>
+    <t>&lt;-0.3      -&gt;0.5</t>
+  </si>
+  <si>
+    <t>All Features</t>
+  </si>
+  <si>
+    <t>ant+eclipse+emf+es+guava</t>
+  </si>
+  <si>
+    <t>lucene</t>
+  </si>
+  <si>
+    <t>ant+eclipse+emf+es+lucene</t>
+  </si>
+  <si>
+    <t>guava</t>
+  </si>
+  <si>
+    <t>ant+eclipse+emf+guava+lucene</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>ant+eclipse+es+guava+lucene</t>
+  </si>
+  <si>
+    <t>emf</t>
+  </si>
+  <si>
+    <t>ant+emf+es+guava+lucene</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>eclipse+emf+es+guava+lucene</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>WangWei</t>
+  </si>
+  <si>
+    <t>Adaboost-30</t>
+  </si>
+  <si>
+    <t>Adaboost-40</t>
+  </si>
+  <si>
+    <t>Adaboost-60</t>
+  </si>
+  <si>
+    <t>Adaboost-70</t>
+  </si>
+  <si>
+    <t>WithoutConChange</t>
   </si>
   <si>
     <t>Projects</t>
@@ -216,10 +302,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0.0"/>
+    <numFmt numFmtId="60" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="61" formatCode="0.00000000000000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -247,8 +336,43 @@
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="21"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="21"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +397,20 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -484,13 +620,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -599,6 +915,159 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -651,6 +1120,11 @@
       <rgbColor rgb="ffed220b"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffff2c21"/>
+      <rgbColor rgb="ffff2600"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -5568,327 +6042,2243 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="35" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16.6953" style="35" customWidth="1"/>
+    <col min="2" max="2" width="28.5703" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.40625" style="35" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="35" customWidth="1"/>
-    <col min="5" max="5" width="12.3516" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="35" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.4062" style="35" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="35" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="35" customWidth="1"/>
-    <col min="9" max="9" width="12.1719" style="35" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="35" customWidth="1"/>
+    <col min="9" max="9" width="12.5781" style="35" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="35" customWidth="1"/>
     <col min="11" max="11" width="16.3516" style="35" customWidth="1"/>
     <col min="12" max="12" width="16.3516" style="35" customWidth="1"/>
     <col min="13" max="13" width="16.3516" style="35" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="35" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="35" customWidth="1"/>
+    <col min="15" max="256" width="16.3516" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" ht="32.05" customHeight="1">
-      <c r="A2" t="s" s="11">
+    <row r="1" ht="19.35" customHeight="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" t="s" s="37">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="36">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="36"/>
+      <c r="J1" t="s" s="37">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="37">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" t="s" s="39">
         <v>32</v>
       </c>
-      <c r="D2" t="s" s="37">
+      <c r="B2" t="s" s="39">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="39">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="39">
         <v>33</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="E2" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="39">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s" s="39">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="39">
         <v>38</v>
       </c>
-      <c r="C3" s="13">
-        <v>20</v>
-      </c>
-      <c r="D3" s="13">
-        <v>8</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B4" s="39">
-        <v>83</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="J2" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s" s="39">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s" s="39">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s" s="39">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s" s="39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" t="s" s="40">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s" s="41">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s" s="42">
+        <v>41</v>
+      </c>
+      <c r="D3" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.65</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43">
+        <v>1</v>
+      </c>
+      <c r="K3" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="43">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" ht="16.8" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49">
+        <v>1</v>
+      </c>
+      <c r="K4" s="49">
+        <v>1</v>
+      </c>
+      <c r="L4" s="49">
+        <v>1</v>
+      </c>
+      <c r="M4" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="N4" s="49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" ht="16.8" customHeight="1">
+      <c r="A5" s="50"/>
+      <c r="B5" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D5" s="47">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49">
+        <v>1</v>
+      </c>
+      <c r="K5" s="49">
+        <v>1</v>
+      </c>
+      <c r="L5" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N5" s="49">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" ht="16.8" customHeight="1">
+      <c r="A6" s="50"/>
+      <c r="B6" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G6" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49">
+        <v>1</v>
+      </c>
+      <c r="K6" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="49">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" customHeight="1">
+      <c r="A7" s="50"/>
+      <c r="B7" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K7" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M7" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="49">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" customHeight="1">
+      <c r="A8" s="44"/>
+      <c r="B8" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="N8" s="49">
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="9" ht="16.8" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54">
+        <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E9" s="54">
+        <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
+        <v>0.8000000000000002</v>
+      </c>
+      <c r="F9" s="54">
+        <f>AVERAGE(F3,F4,F5,F6,F7,F8)</f>
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G9" s="54">
+        <f>AVERAGE(G3,G4,G5,G6,G7,G8)</f>
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="H9" s="54">
+        <f>AVERAGE(H3,H4,H5,H6,H7,H8)</f>
+        <v>0.7445351473922902</v>
+      </c>
+      <c r="I9" s="55"/>
+      <c r="J9" s="54">
+        <f>AVERAGE(J3,J4,J5,J6,J7,J8)</f>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="K9" s="54">
+        <f>AVERAGE(K3,K4,K5,K6,K7,K8)</f>
+        <v>0.85</v>
+      </c>
+      <c r="L9" s="54">
+        <f>AVERAGE(L3,L4,L5,L6,L7,L8)</f>
+        <v>0.8111111111111112</v>
+      </c>
+      <c r="M9" s="54">
+        <f>AVERAGE(M3,M4,M5,M6,M7,M8)</f>
+        <v>0.8083333333333332</v>
+      </c>
+      <c r="N9" s="54">
+        <f>AVERAGE(N3,N4,N5,N6,N7,N8)</f>
+        <v>0.7925044091710758</v>
+      </c>
+    </row>
+    <row r="10" ht="16.8" customHeight="1">
+      <c r="A10" t="s" s="56">
         <v>25</v>
       </c>
-      <c r="D4" s="13">
-        <v>17</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B5" s="39">
-        <v>31</v>
-      </c>
-      <c r="C5" s="13">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13">
-        <v>7</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="B6" s="39">
-        <v>109</v>
-      </c>
-      <c r="C6" s="13">
-        <v>36</v>
-      </c>
-      <c r="D6" s="13">
-        <v>15</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B7" s="39">
-        <v>72</v>
-      </c>
-      <c r="C7" s="13">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13">
-        <v>11</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B8" s="39">
-        <v>59</v>
-      </c>
-      <c r="C8" s="13">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13">
-        <v>13</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="B9" s="39">
-        <f>SUM(B3,B4,B5,B6,B7,B8)</f>
-        <v>392</v>
-      </c>
-      <c r="C9" s="13">
-        <f>SUM(C3,C4,C5,C6,C7,C8)</f>
-        <v>149</v>
-      </c>
-      <c r="D9" s="13">
-        <f>SUM(D3,D4,D5,D6,D7,D8)</f>
-        <v>71</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="B10" s="39">
-        <v>21</v>
-      </c>
-      <c r="C10" s="13">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="B11" s="39">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="B12" s="39">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="39">
-        <f>B11/(B12+B11)</f>
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="C13" s="13">
-        <f>C11/(C11+C12)</f>
+      <c r="B10" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0.6829268292682927</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K10" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="N10" s="49">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="11" ht="16.8" customHeight="1">
+      <c r="A11" s="44"/>
+      <c r="B11" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1</v>
+      </c>
+      <c r="F11" s="48">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0.88</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49">
+        <v>1</v>
+      </c>
+      <c r="K11" s="49">
+        <v>1</v>
+      </c>
+      <c r="L11" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M11" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N11" s="49">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="12" ht="16.8" customHeight="1">
+      <c r="A12" s="44"/>
+      <c r="B12" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D12" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="47">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="G12" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="L12" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M12" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="49">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="13" ht="16.8" customHeight="1">
+      <c r="A13" s="50"/>
+      <c r="B13" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1</v>
+      </c>
+      <c r="E13" s="47">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="49">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49">
+        <v>1</v>
+      </c>
+      <c r="K13" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L13" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M13" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="N13" s="49">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="14" ht="16.8" customHeight="1">
+      <c r="A14" s="50"/>
+      <c r="B14" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="49">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="49">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G14" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0.66</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L14" s="49">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="M14" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="N14" s="49">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="15" ht="16.8" customHeight="1">
+      <c r="A15" s="50"/>
+      <c r="B15" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G15" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="49">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M15" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="N15" s="49">
         <v>0.8125</v>
       </c>
-      <c r="D13" s="13">
+    </row>
+    <row r="16" ht="16.8" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54">
+        <f>AVERAGE(D10,D11,D12,D13,D14,D15)</f>
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="E16" s="54">
+        <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="F16" s="54">
+        <f>AVERAGE(F10,F11,F12,F13,F14,F15)</f>
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="G16" s="54">
+        <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="H16" s="54">
+        <f>AVERAGE(H10,H11,H12,H13,H14,H15)</f>
+        <v>0.7741354475579496</v>
+      </c>
+      <c r="I16" s="55"/>
+      <c r="J16" s="54">
+        <f>AVERAGE(J10,J11,J12,J13,J14,J15)</f>
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="K16" s="54">
+        <f>AVERAGE(K10,K11,K12,K13,K14,K15)</f>
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L16" s="54">
+        <f>AVERAGE(L10,L11,L12,L13,L14,L15)</f>
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="M16" s="54">
+        <f>AVERAGE(M10,M11,M12,M13,M14,M15)</f>
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="N16" s="54">
+        <f>AVERAGE(N10,N11,N12,N13,N14,N15)</f>
+        <v>0.7720134032634034</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" customHeight="1">
+      <c r="A17" t="s" s="56">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H17" s="49">
+        <v>0.66</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K17" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M17" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="N17" s="49">
+        <v>0.7083333333333334</v>
+      </c>
+    </row>
+    <row r="18" ht="16.8" customHeight="1">
+      <c r="A18" s="44"/>
+      <c r="B18" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D18" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="48">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G18" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="49">
+        <v>0.88</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="L18" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M18" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N18" s="49">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" customHeight="1">
+      <c r="A19" s="44"/>
+      <c r="B19" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="49">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="49">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" customHeight="1">
+      <c r="A20" s="50"/>
+      <c r="B20" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H20" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K20" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L20" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="N20" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" customHeight="1">
+      <c r="A21" s="50"/>
+      <c r="B21" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D21" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="49">
+        <v>0.76</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L21" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N21" s="49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" ht="16.8" customHeight="1">
+      <c r="A22" s="50"/>
+      <c r="B22" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D22" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H22" s="49">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K22" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L22" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N22" s="49">
+        <v>0.7352941176470589</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54">
+        <f>AVERAGE(D17,D18,D19,D20,D21,D22)</f>
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="E23" s="54">
+        <f>AVERAGE(E17,E18,E19,E20,E21,E22)</f>
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="F23" s="54">
+        <f>AVERAGE(F17,F18,F19,F20,F21,F22)</f>
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="G23" s="54">
+        <f>AVERAGE(G17,G18,G19,G20,G21,G22)</f>
+        <v>0.6916666666666665</v>
+      </c>
+      <c r="H23" s="54">
+        <f>AVERAGE(H17,H18,H19,H20,H21,H22)</f>
+        <v>0.7077777777777777</v>
+      </c>
+      <c r="I23" s="55"/>
+      <c r="J23" s="54">
+        <f>AVERAGE(J17,J18,J19,J20,J21,J22)</f>
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="K23" s="54">
+        <f>AVERAGE(K17,K18,K19,K20,K21,K22)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L23" s="54">
+        <f>AVERAGE(L17,L18,L19,L20,L21,L22)</f>
+        <v>0.7444444444444445</v>
+      </c>
+      <c r="M23" s="54">
+        <f>AVERAGE(M17,M18,M19,M20,M21,M22)</f>
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="N23" s="54">
+        <f>AVERAGE(N17,N18,N19,N20,N21,N22)</f>
+        <v>0.7036204481792717</v>
+      </c>
+    </row>
+    <row r="24" ht="16.8" customHeight="1">
+      <c r="A24" t="s" s="56">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="D24" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H24" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49">
         <v>1</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="K24" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L24" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M24" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N24" s="49">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D25" s="47">
+        <v>1</v>
+      </c>
+      <c r="E25" s="47">
+        <v>1</v>
+      </c>
+      <c r="F25" s="48">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G25" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="H25" s="49">
+        <v>0.92</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49">
+        <v>1</v>
+      </c>
+      <c r="K25" s="49">
+        <v>1</v>
+      </c>
+      <c r="L25" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M25" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="49">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D26" s="47">
+        <v>1</v>
+      </c>
+      <c r="E26" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="47">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G26" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49">
+        <v>1</v>
+      </c>
+      <c r="K26" s="49">
+        <v>1</v>
+      </c>
+      <c r="L26" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M26" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="N26" s="49">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" customHeight="1">
+      <c r="A27" s="50"/>
+      <c r="B27" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D27" s="47">
+        <v>1</v>
+      </c>
+      <c r="E27" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="H27" s="49">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49">
+        <v>1</v>
+      </c>
+      <c r="K27" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L27" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N27" s="49">
+        <v>0.6521739130434783</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D28" s="47">
+        <v>1</v>
+      </c>
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="G28" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="H28" s="49">
+        <v>0.72</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49">
+        <v>1</v>
+      </c>
+      <c r="K28" s="49">
+        <v>1</v>
+      </c>
+      <c r="L28" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M28" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="N28" s="49">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="48">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G29" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K29" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="N29" s="49">
+        <v>0.6818181818181818</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54">
+        <f>AVERAGE(D24,D25,D26,D27,D28,D29)</f>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="E30" s="54">
+        <f>AVERAGE(E24,E25,E26,E27,E28,E29)</f>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="F30" s="54">
+        <f>AVERAGE(F24,F25,F26,F27,F28,F29)</f>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G30" s="54">
+        <f>AVERAGE(G24,G25,G26,G27,G28,G29)</f>
+        <v>0.8250000000000001</v>
+      </c>
+      <c r="H30" s="54">
+        <f>AVERAGE(H24,H25,H26,H27,H28,H29)</f>
+        <v>0.7653030303030303</v>
+      </c>
+      <c r="I30" s="55"/>
+      <c r="J30" s="54">
+        <f>AVERAGE(J24,J25,J26,J27,J28,J29)</f>
+        <v>0.9333333333333332</v>
+      </c>
+      <c r="K30" s="54">
+        <f>AVERAGE(K24,K25,K26,K27,K28,K29)</f>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="L30" s="54">
+        <f>AVERAGE(L24,L25,L26,L27,L28,L29)</f>
+        <v>0.8444444444444446</v>
+      </c>
+      <c r="M30" s="54">
+        <f>AVERAGE(M24,M25,M26,M27,M28,M29)</f>
+        <v>0.8250000000000001</v>
+      </c>
+      <c r="N30" s="54">
+        <f>AVERAGE(N24,N25,N26,N27,N28,N29)</f>
+        <v>0.7489986824769433</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" customHeight="1">
+      <c r="A31" t="s" s="56">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="D31" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G31" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H31" s="49">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K31" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="L31" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M31" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="N31" s="49">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" ht="16.8" customHeight="1">
+      <c r="A32" s="44"/>
+      <c r="B32" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D32" s="47">
+        <v>1</v>
+      </c>
+      <c r="E32" s="47">
+        <v>1</v>
+      </c>
+      <c r="F32" s="48">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="G32" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="H32" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49">
+        <v>1</v>
+      </c>
+      <c r="K32" s="49">
+        <v>1</v>
+      </c>
+      <c r="L32" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M32" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="N32" s="49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" customHeight="1">
+      <c r="A33" s="44"/>
+      <c r="B33" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D33" s="47">
+        <v>1</v>
+      </c>
+      <c r="E33" s="47">
+        <v>1</v>
+      </c>
+      <c r="F33" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49">
+        <v>1</v>
+      </c>
+      <c r="K33" s="49">
+        <v>1</v>
+      </c>
+      <c r="L33" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M33" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" customHeight="1">
+      <c r="A34" s="50"/>
+      <c r="B34" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D34" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E34" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="48">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H34" s="49">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K34" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L34" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M34" s="49">
+        <v>0.55</v>
+      </c>
+      <c r="N34" s="49">
+        <v>0.5217391304347826</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" customHeight="1">
+      <c r="A35" s="50"/>
+      <c r="B35" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D35" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F35" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G35" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H35" s="49">
+        <v>0.72</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K35" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="L35" s="49">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M35" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N35" s="49">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" customHeight="1">
+      <c r="A36" s="50"/>
+      <c r="B36" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D36" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F36" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H36" s="49">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K36" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L36" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M36" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="N36" s="49">
+        <v>0.7241379310344828</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54">
+        <f>AVERAGE(D31,D32,D33,D34,D35,D36)</f>
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="E37" s="54">
+        <f>AVERAGE(E31,E32,E33,E34,E35,E36)</f>
+        <v>0.85</v>
+      </c>
+      <c r="F37" s="54">
+        <f>AVERAGE(F31,F32,F33,F34,F35,F36)</f>
+        <v>0.7888888888888889</v>
+      </c>
+      <c r="G37" s="54">
+        <f>AVERAGE(G31,G32,G33,G34,G35,G36)</f>
+        <v>0.775</v>
+      </c>
+      <c r="H37" s="54">
+        <f>AVERAGE(H31,H32,H33,H34,H35,H36)</f>
+        <v>0.7284000928828517</v>
+      </c>
+      <c r="I37" s="55"/>
+      <c r="J37" s="54">
+        <f>AVERAGE(J31,J32,J33,J34,J35,J36)</f>
+        <v>0.8666666666666666</v>
+      </c>
+      <c r="K37" s="54">
+        <f>AVERAGE(K31,K32,K33,K34,K35,K36)</f>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="L37" s="54">
+        <f>AVERAGE(L31,L32,L33,L34,L35,L36)</f>
+        <v>0.8444444444444446</v>
+      </c>
+      <c r="M37" s="54">
+        <f>AVERAGE(M31,M32,M33,M34,M35,M36)</f>
+        <v>0.775</v>
+      </c>
+      <c r="N37" s="54">
+        <f>AVERAGE(N31,N32,N33,N34,N35,N36)</f>
+        <v>0.7393128435782109</v>
+      </c>
+    </row>
+    <row r="38" ht="16.8" customHeight="1">
+      <c r="A38" t="s" s="56">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="D38" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F38" s="48">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G38" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H38" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K38" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L38" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M38" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="N38" s="49">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="39" ht="16.8" customHeight="1">
+      <c r="A39" s="44"/>
+      <c r="B39" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D39" s="47">
+        <v>1</v>
+      </c>
+      <c r="E39" s="47">
+        <v>1</v>
+      </c>
+      <c r="F39" s="48">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="G39" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="H39" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49">
+        <v>1</v>
+      </c>
+      <c r="K39" s="49">
+        <v>1</v>
+      </c>
+      <c r="L39" s="49">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M39" s="49">
+        <v>0.95</v>
+      </c>
+      <c r="N39" s="49">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="40" ht="16.8" customHeight="1">
+      <c r="A40" s="44"/>
+      <c r="B40" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D40" s="47">
+        <v>1</v>
+      </c>
+      <c r="E40" s="47">
+        <v>1</v>
+      </c>
+      <c r="F40" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H40" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49">
+        <v>1</v>
+      </c>
+      <c r="K40" s="49">
+        <v>1</v>
+      </c>
+      <c r="L40" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M40" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="N40" s="49">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="41" ht="16.8" customHeight="1">
+      <c r="A41" s="50"/>
+      <c r="B41" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E41" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F41" s="49">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H41" s="49">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L41" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="N41" s="49">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="42" ht="16.8" customHeight="1">
+      <c r="A42" s="50"/>
+      <c r="B42" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D42" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E42" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="F42" s="48">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G42" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="H42" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K42" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="L42" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M42" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N42" s="49">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="43" ht="16.8" customHeight="1">
+      <c r="A43" s="50"/>
+      <c r="B43" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D43" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E43" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F43" s="48">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G43" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="H43" s="49">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="L43" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M43" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N43" s="49">
+        <v>0.6521739130434783</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" customHeight="1">
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54">
+        <f>AVERAGE(D38,D39,D40,D41,D42,D43)</f>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E44" s="54">
+        <f>AVERAGE(E38,E39,E40,E41,E42,E43)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F44" s="54">
+        <f>AVERAGE(F38,F39,F40,F41,F42,F43)</f>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="G44" s="54">
+        <f>AVERAGE(G38,G39,G40,G41,G42,G43)</f>
+        <v>0.8249999999999998</v>
+      </c>
+      <c r="H44" s="54">
+        <f>AVERAGE(H38,H39,H40,H41,H42,H43)</f>
+        <v>0.7899300699300701</v>
+      </c>
+      <c r="I44" s="55"/>
+      <c r="J44" s="54">
+        <f>AVERAGE(J38,J39,J40,J41,J42,J43)</f>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K44" s="54">
+        <f>AVERAGE(K38,K39,K40,K41,K42,K43)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L44" s="54">
+        <f>AVERAGE(L38,L39,L40,L41,L42,L43)</f>
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="M44" s="54">
+        <f>AVERAGE(M38,M39,M40,M41,M42,M43)</f>
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="N44" s="54">
+        <f>AVERAGE(N38,N39,N40,N41,N42,N43)</f>
+        <v>0.7653623188405797</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" customHeight="1">
+      <c r="A45" t="s" s="56">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s" s="46">
+        <v>41</v>
+      </c>
+      <c r="D45" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E45" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="48">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G45" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H45" s="49">
+        <v>0.84</v>
+      </c>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="K45" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="49">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="M45" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="N45" s="49">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" customHeight="1">
+      <c r="A46" s="44"/>
+      <c r="B46" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s" s="46">
+        <v>43</v>
+      </c>
+      <c r="D46" s="47">
+        <v>1</v>
+      </c>
+      <c r="E46" s="47">
+        <v>1</v>
+      </c>
+      <c r="F46" s="47">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G46" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="H46" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49">
+        <v>1</v>
+      </c>
+      <c r="K46" s="49">
+        <v>1</v>
+      </c>
+      <c r="L46" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="M46" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="N46" s="49">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" t="s" s="45">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s" s="46">
+        <v>45</v>
+      </c>
+      <c r="D47" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="F47" s="48">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G47" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="H47" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="K47" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L47" s="49">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M47" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N47" s="49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="D48" s="47">
+        <v>1</v>
+      </c>
+      <c r="E48" s="47">
+        <v>0.7</v>
+      </c>
+      <c r="F48" s="47">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="G48" s="49">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="H48" s="49">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="K48" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="L48" s="49">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="M48" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="N48" s="49">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" customHeight="1">
+      <c r="A49" s="50"/>
+      <c r="B49" t="s" s="45">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s" s="46">
+        <v>49</v>
+      </c>
+      <c r="D49" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="F49" s="58">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G49" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="H49" s="49">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="K49" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L49" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="M49" s="49">
+        <v>0.7</v>
+      </c>
+      <c r="N49" s="49">
+        <v>0.7368421052631579</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" customHeight="1">
+      <c r="A50" s="50"/>
+      <c r="B50" t="s" s="45">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s" s="46">
+        <v>51</v>
+      </c>
+      <c r="D50" s="47">
+        <v>1</v>
+      </c>
+      <c r="E50" s="47">
+        <v>1</v>
+      </c>
+      <c r="F50" s="47">
+        <v>1</v>
+      </c>
+      <c r="G50" s="49">
+        <v>1</v>
+      </c>
+      <c r="H50" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49">
+        <v>1</v>
+      </c>
+      <c r="K50" s="49">
+        <v>1</v>
+      </c>
+      <c r="L50" s="49">
+        <v>1</v>
+      </c>
+      <c r="M50" s="49">
+        <v>1</v>
+      </c>
+      <c r="N50" s="49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" customHeight="1">
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54">
+        <f>AVERAGE(D45,D46,D47,D48,D49,D50)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E51" s="54">
+        <f>AVERAGE(E45,E46,E47,E48,E49,E50)</f>
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="F51" s="54">
+        <f>AVERAGE(F45,F46,F47,F48,F49,F50)</f>
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="G51" s="54">
+        <f>AVERAGE(G45,G46,G47,G48,G49,G50)</f>
+        <v>0.7277777777777779</v>
+      </c>
+      <c r="H51" s="54">
+        <f>AVERAGE(H45,H46,H47,H48,H49,H50)</f>
+        <v>0.6507692307692308</v>
+      </c>
+      <c r="I51" s="55"/>
+      <c r="J51" s="54">
+        <f>AVERAGE(J45,J46,J47,J48,J49,J50)</f>
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="K51" s="54">
+        <f>AVERAGE(K45,K46,K47,K48,K49,K50)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L51" s="54">
+        <f>AVERAGE(L45,L46,L47,L48,L49,L50)</f>
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="M51" s="54">
+        <f>AVERAGE(M45,M46,M47,M48,M49,M50)</f>
+        <v>0.625</v>
+      </c>
+      <c r="N51" s="54">
+        <f>AVERAGE(N45,N46,N47,N48,N49,N50)</f>
+        <v>0.5916959064327486</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" customHeight="1">
+      <c r="A52" s="44"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+    </row>
+    <row r="53" ht="16.8" customHeight="1">
+      <c r="A53" s="44"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+    </row>
+    <row r="54" ht="16.8" customHeight="1">
+      <c r="A54" s="44"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+    </row>
+    <row r="55" ht="16.8" customHeight="1">
+      <c r="A55" s="50"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+    </row>
+    <row r="56" ht="16.8" customHeight="1">
+      <c r="A56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+    </row>
+    <row r="57" ht="16.8" customHeight="1">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+    </row>
+    <row r="58" ht="16.8" customHeight="1">
+      <c r="A58" s="57"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+    </row>
+    <row r="59" ht="16.8" customHeight="1">
+      <c r="A59" s="61"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -5903,33 +8293,3474 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AC69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30.9688" style="64" customWidth="1"/>
+    <col min="2" max="2" width="13.6719" style="64" customWidth="1"/>
+    <col min="3" max="3" width="14.8828" style="64" customWidth="1"/>
+    <col min="4" max="4" width="14.8828" style="64" customWidth="1"/>
+    <col min="5" max="5" width="14.8828" style="64" customWidth="1"/>
+    <col min="6" max="6" width="11.0781" style="64" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="64" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="64" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="64" customWidth="1"/>
+    <col min="10" max="10" width="14.8828" style="64" customWidth="1"/>
+    <col min="11" max="11" width="14.8828" style="64" customWidth="1"/>
+    <col min="12" max="12" width="14.8828" style="64" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" style="64" customWidth="1"/>
+    <col min="14" max="14" width="14.8828" style="64" customWidth="1"/>
+    <col min="15" max="15" width="14.8828" style="64" customWidth="1"/>
+    <col min="16" max="16" width="14.8828" style="64" customWidth="1"/>
+    <col min="17" max="17" width="5.07812" style="64" customWidth="1"/>
+    <col min="18" max="18" width="14.8828" style="64" customWidth="1"/>
+    <col min="19" max="19" width="14.8828" style="64" customWidth="1"/>
+    <col min="20" max="20" width="5.07812" style="64" customWidth="1"/>
+    <col min="21" max="21" width="14.8828" style="64" customWidth="1"/>
+    <col min="22" max="22" width="14.8828" style="64" customWidth="1"/>
+    <col min="23" max="23" width="14.8828" style="64" customWidth="1"/>
+    <col min="24" max="24" width="5.07812" style="64" customWidth="1"/>
+    <col min="25" max="25" width="14.8828" style="64" customWidth="1"/>
+    <col min="26" max="26" width="14.8828" style="64" customWidth="1"/>
+    <col min="27" max="27" width="14.8828" style="64" customWidth="1"/>
+    <col min="28" max="28" width="14.8828" style="64" customWidth="1"/>
+    <col min="29" max="29" width="14.8828" style="64" customWidth="1"/>
+    <col min="30" max="256" width="16.3516" style="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.2" customHeight="1">
+      <c r="A1" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s" s="65">
+        <v>34</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" t="s" s="67">
+        <v>36</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" t="s" s="67">
+        <v>53</v>
+      </c>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" t="s" s="67">
+        <v>54</v>
+      </c>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" t="s" s="67">
+        <v>37</v>
+      </c>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" t="s" s="67">
+        <v>55</v>
+      </c>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" t="s" s="67">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+    </row>
+    <row r="2" ht="31.2" customHeight="1">
+      <c r="A2" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="C2" s="68">
+        <v>0.677</v>
+      </c>
+      <c r="D2" s="43">
+        <v>0.356</v>
+      </c>
+      <c r="E2" s="43">
+        <v>0.467</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="43">
+        <v>0.674</v>
+      </c>
+      <c r="H2" s="43">
+        <v>0.525</v>
+      </c>
+      <c r="I2" s="43">
+        <v>0.59</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="43">
+        <v>0.694</v>
+      </c>
+      <c r="L2" s="43">
+        <v>0.576</v>
+      </c>
+      <c r="M2" s="43">
+        <v>0.63</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="43">
+        <v>0.702</v>
+      </c>
+      <c r="P2" s="43">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>0.623</v>
+      </c>
+      <c r="R2" s="69"/>
+      <c r="S2" s="43">
+        <v>0.768</v>
+      </c>
+      <c r="T2" s="43">
+        <v>0.729</v>
+      </c>
+      <c r="U2" s="43">
+        <v>0.748</v>
+      </c>
+      <c r="V2" s="69"/>
+      <c r="W2" s="43">
+        <v>0.764</v>
+      </c>
+      <c r="X2" s="43">
+        <v>0.712</v>
+      </c>
+      <c r="Y2" s="43">
+        <v>0.737</v>
+      </c>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="43">
+        <v>0.759</v>
+      </c>
+      <c r="AB2" s="43">
+        <v>0.695</v>
+      </c>
+      <c r="AC2" s="43">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="3" ht="30.75" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="24">
+        <v>15</v>
+      </c>
+      <c r="C3" s="70">
+        <v>0.833</v>
+      </c>
+      <c r="D3" s="49">
+        <v>0.764</v>
+      </c>
+      <c r="E3" s="49">
+        <v>0.797</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="49">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="H3" s="49">
+        <v>0.833</v>
+      </c>
+      <c r="I3" s="49">
+        <v>0.822</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="49">
+        <v>0.833</v>
+      </c>
+      <c r="L3" s="49">
+        <v>0.764</v>
+      </c>
+      <c r="M3" s="49">
+        <v>0.797</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="49">
+        <v>0.855</v>
+      </c>
+      <c r="P3" s="49">
+        <v>0.736</v>
+      </c>
+      <c r="Q3" s="49">
+        <v>0.791</v>
+      </c>
+      <c r="R3" s="34"/>
+      <c r="S3" s="49">
+        <v>0.866</v>
+      </c>
+      <c r="T3" s="49">
+        <v>0.806</v>
+      </c>
+      <c r="U3" s="49">
+        <v>0.835</v>
+      </c>
+      <c r="V3" s="34"/>
+      <c r="W3" s="49">
+        <v>0.836</v>
+      </c>
+      <c r="X3" s="49">
+        <v>0.847</v>
+      </c>
+      <c r="Y3" s="49">
+        <v>0.841</v>
+      </c>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="49">
+        <v>0.843</v>
+      </c>
+      <c r="AB3" s="49">
+        <v>0.819</v>
+      </c>
+      <c r="AC3" s="49">
+        <v>0.831</v>
+      </c>
+    </row>
+    <row r="4" ht="30.75" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="C4" s="70">
+        <v>0.614</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0.789</v>
+      </c>
+      <c r="E4" s="49">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="49">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0.642</v>
+      </c>
+      <c r="I4" s="49">
+        <v>0.651</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="49">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="L4" s="49">
+        <v>0.596</v>
+      </c>
+      <c r="M4" s="49">
+        <v>0.637</v>
+      </c>
+      <c r="N4" s="34"/>
+      <c r="O4" s="49">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="P4" s="49">
+        <v>0.651</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="R4" s="34"/>
+      <c r="S4" s="49">
+        <v>0.756</v>
+      </c>
+      <c r="T4" s="49">
+        <v>0.596</v>
+      </c>
+      <c r="U4" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="V4" s="34"/>
+      <c r="W4" s="49">
+        <v>0.769</v>
+      </c>
+      <c r="X4" s="49">
+        <v>0.55</v>
+      </c>
+      <c r="Y4" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="49">
+        <v>0.765</v>
+      </c>
+      <c r="AB4" s="49">
+        <v>0.596</v>
+      </c>
+      <c r="AC4" s="49">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5" ht="30.75" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="C5" s="70">
+        <v>0.696</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0.516</v>
+      </c>
+      <c r="E5" s="49">
+        <v>0.593</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="49">
+        <v>0.579</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0.71</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0.638</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="49">
+        <v>0.633</v>
+      </c>
+      <c r="L5" s="49">
+        <v>0.613</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0.623</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="P5" s="49">
+        <v>0.548</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>0.607</v>
+      </c>
+      <c r="R5" s="34"/>
+      <c r="S5" s="49">
+        <v>0.714</v>
+      </c>
+      <c r="T5" s="49">
+        <v>0.484</v>
+      </c>
+      <c r="U5" s="49">
+        <v>0.577</v>
+      </c>
+      <c r="V5" s="34"/>
+      <c r="W5" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="X5" s="49">
+        <v>0.548</v>
+      </c>
+      <c r="Y5" s="49">
+        <v>0.607</v>
+      </c>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="AB5" s="49">
+        <v>0.387</v>
+      </c>
+      <c r="AC5" s="49">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6" ht="30.75" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="24">
+        <v>21</v>
+      </c>
+      <c r="C6" s="70">
+        <v>0.658</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0.602</v>
+      </c>
+      <c r="E6" s="49">
+        <v>0.629</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="49">
+        <v>0.641</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0.711</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0.674</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="49">
+        <v>0.652</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0.699</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0.674</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="49">
+        <v>0.648</v>
+      </c>
+      <c r="P6" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="Q6" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="49">
+        <v>0.626</v>
+      </c>
+      <c r="T6" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="U6" s="49">
+        <v>0.655</v>
+      </c>
+      <c r="V6" s="34"/>
+      <c r="W6" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="X6" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="Y6" s="49">
+        <v>0.663</v>
+      </c>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="49">
+        <v>0.63</v>
+      </c>
+      <c r="AB6" s="49">
+        <v>0.699</v>
+      </c>
+      <c r="AC6" s="49">
+        <v>0.663</v>
+      </c>
+    </row>
+    <row r="7" ht="30.75" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="24">
+        <v>23</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0.184</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0.292</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="49">
+        <v>0.556</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0.263</v>
+      </c>
+      <c r="I7" s="49">
+        <v>0.357</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0.395</v>
+      </c>
+      <c r="M7" s="49">
+        <v>0.476</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="49">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="P7" s="49">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>0.743</v>
+      </c>
+      <c r="R7" s="34"/>
+      <c r="S7" s="49">
+        <v>0.741</v>
+      </c>
+      <c r="T7" s="49">
+        <v>0.526</v>
+      </c>
+      <c r="U7" s="49">
+        <v>0.615</v>
+      </c>
+      <c r="V7" s="34"/>
+      <c r="W7" s="49">
+        <v>0.741</v>
+      </c>
+      <c r="X7" s="49">
+        <v>0.526</v>
+      </c>
+      <c r="Y7" s="49">
+        <v>0.615</v>
+      </c>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="49">
+        <v>0.741</v>
+      </c>
+      <c r="AB7" s="49">
+        <v>0.526</v>
+      </c>
+      <c r="AC7" s="49">
+        <v>0.615</v>
+      </c>
+    </row>
+    <row r="8" ht="30.75" customHeight="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="54">
+        <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
+        <v>0.6963333333333334</v>
+      </c>
+      <c r="D8" s="54">
+        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <v>0.5351666666666667</v>
+      </c>
+      <c r="E8" s="54">
+        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <v>0.5781666666666666</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="54">
+        <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
+        <v>0.6535000000000001</v>
+      </c>
+      <c r="H8" s="54">
+        <f>AVERAGE(H2,H3,H4,H5,H6,H7)</f>
+        <v>0.614</v>
+      </c>
+      <c r="I8" s="54">
+        <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
+        <v>0.6219999999999999</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="54">
+        <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
+        <v>0.6826666666666666</v>
+      </c>
+      <c r="L8" s="54">
+        <f>AVERAGE(L2,L3,L4,L5,L6,L7)</f>
+        <v>0.6071666666666666</v>
+      </c>
+      <c r="M8" s="54">
+        <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
+        <v>0.6395000000000001</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="54">
+        <f>AVERAGE(O2,O3,O4,O5,O6,O7)</f>
+        <v>0.7301666666666667</v>
+      </c>
+      <c r="P8" s="54">
+        <f>AVERAGE(P2,P3,P4,P5,P6,P7)</f>
+        <v>0.6441666666666667</v>
+      </c>
+      <c r="Q8" s="54">
+        <f>AVERAGE(Q2,Q3,Q4,Q5,Q6,Q7)</f>
+        <v>0.6830000000000002</v>
+      </c>
+      <c r="R8" s="55"/>
+      <c r="S8" s="54">
+        <f>AVERAGE(S2,S3,S4,S5,S6,S7)</f>
+        <v>0.7451666666666665</v>
+      </c>
+      <c r="T8" s="54">
+        <f>AVERAGE(T2,T3,T4,T5,T6,T7)</f>
+        <v>0.638</v>
+      </c>
+      <c r="U8" s="54">
+        <f>AVERAGE(U2,U3,U4,U5,U6,U7)</f>
+        <v>0.6828333333333334</v>
+      </c>
+      <c r="V8" s="55"/>
+      <c r="W8" s="54">
+        <f>AVERAGE(W2,W3,W4,W5,W6,W7)</f>
+        <v>0.7383333333333334</v>
+      </c>
+      <c r="X8" s="54">
+        <f>AVERAGE(X2,X3,X4,X5,X6,X7)</f>
+        <v>0.645</v>
+      </c>
+      <c r="Y8" s="54">
+        <f>AVERAGE(Y2,Y3,Y4,Y5,Y6,Y7)</f>
+        <v>0.6838333333333334</v>
+      </c>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="54">
+        <f>AVERAGE(AA2,AA3,AA4,AA5,AA6,AA7)</f>
+        <v>0.7341666666666665</v>
+      </c>
+      <c r="AB8" s="54">
+        <f>AVERAGE(AB2,AB3,AB4,AB5,AB6,AB7)</f>
+        <v>0.6203333333333333</v>
+      </c>
+      <c r="AC8" s="54">
+        <f>AVERAGE(AC2,AC3,AC4,AC5,AC6,AC7)</f>
+        <v>0.6658333333333334</v>
+      </c>
+    </row>
+    <row r="9" ht="30.75" customHeight="1">
+      <c r="A9" t="s" s="73">
+        <v>25</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" t="s" s="75">
+        <v>37</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" t="s" s="77">
+        <v>53</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+    </row>
+    <row r="10" ht="30.75" customHeight="1">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="49">
+        <v>0.727</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0.542</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0.621</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="25">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0.475</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+    </row>
+    <row r="11" ht="30.75" customHeight="1">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="49">
+        <v>0.806</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0.806</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0.806</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="25">
+        <v>0.736</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.931</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0.822</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+    </row>
+    <row r="12" ht="30.75" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0.55</v>
+      </c>
+      <c r="E12" s="49">
+        <v>0.603</v>
+      </c>
+      <c r="F12" s="81"/>
+      <c r="G12" s="25">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.661</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0.676</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+    </row>
+    <row r="13" ht="30.75" customHeight="1">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="49">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="D13" s="49">
+        <v>0.581</v>
+      </c>
+      <c r="E13" s="49">
+        <v>0.632</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="25">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.677</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.737</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+    </row>
+    <row r="14" ht="30.75" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="49">
+        <v>0.582</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E14" s="49">
+        <v>0.63</v>
+      </c>
+      <c r="F14" s="81"/>
+      <c r="G14" s="25">
+        <v>0.632</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0.663</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0.647</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+    </row>
+    <row r="15" ht="30.75" customHeight="1">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="49">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E15" s="49">
+        <v>0.743</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="25">
+        <v>0.774</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0.632</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0.696</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+    </row>
+    <row r="16" ht="30.75" customHeight="1">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="54">
+        <f>AVERAGE(C10,C11,C12,C13,C14,C15)</f>
+        <v>0.7145</v>
+      </c>
+      <c r="D16" s="54">
+        <f>AVERAGE(D10,D11,D12,D13,D14,D15)</f>
+        <v>0.6416666666666667</v>
+      </c>
+      <c r="E16" s="54">
+        <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
+        <v>0.6725</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="27">
+        <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
+        <v>0.7208333333333332</v>
+      </c>
+      <c r="H16" s="27">
+        <f>AVERAGE(H10,H11,H12,H13,H14,H15)</f>
+        <v>0.6731666666666666</v>
+      </c>
+      <c r="I16" s="27">
+        <f>AVERAGE(I10,I11,I12,I13,I14,I15)</f>
+        <v>0.6896666666666667</v>
+      </c>
+      <c r="J16" s="85"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+    </row>
+    <row r="17" ht="30.75" customHeight="1">
+      <c r="A17" t="s" s="73">
+        <v>57</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="49">
+        <v>0.708</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0.576</v>
+      </c>
+      <c r="E17" s="49">
+        <v>0.636</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="25">
+        <v>0.654</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0.576</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0.613</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+    </row>
+    <row r="18" ht="30.75" customHeight="1">
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="D18" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="49">
+        <v>0.745</v>
+      </c>
+      <c r="F18" s="81"/>
+      <c r="G18" s="25">
+        <v>0.733</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0.917</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+    </row>
+    <row r="19" ht="30.75" customHeight="1">
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="49">
+        <v>0.571</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0.147</v>
+      </c>
+      <c r="E19" s="49">
+        <v>0.234</v>
+      </c>
+      <c r="F19" s="81"/>
+      <c r="G19" s="25">
+        <v>0.433</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0.119</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0.187</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+    </row>
+    <row r="20" ht="30.75" customHeight="1">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.452</v>
+      </c>
+      <c r="E20" s="49">
+        <v>0.538</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.548</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0.607</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+    </row>
+    <row r="21" ht="30.75" customHeight="1">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="49">
+        <v>0.67</v>
+      </c>
+      <c r="D21" s="49">
+        <v>0.831</v>
+      </c>
+      <c r="E21" s="49">
+        <v>0.742</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="25">
+        <v>0.722</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0.627</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0.671</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+    </row>
+    <row r="22" ht="30.75" customHeight="1">
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="49">
+        <v>0.735</v>
+      </c>
+      <c r="D22" s="49">
+        <v>0.658</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0.694</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="25">
+        <v>0.833</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.526</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0.645</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+    </row>
+    <row r="23" ht="30.75" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="54">
+        <f>AVERAGE(C17,C18,C19,C20,C21,C22)</f>
+        <v>0.6818333333333334</v>
+      </c>
+      <c r="D23" s="54">
+        <f>AVERAGE(D17,D18,D19,D20,D21,D22)</f>
+        <v>0.5690000000000001</v>
+      </c>
+      <c r="E23" s="54">
+        <f>AVERAGE(E17,E18,E19,E20,E21,E22)</f>
+        <v>0.5981666666666666</v>
+      </c>
+      <c r="F23" s="84"/>
+      <c r="G23" s="27">
+        <f>AVERAGE(G17,G18,G19,G20,G21,G22)</f>
+        <v>0.6758333333333333</v>
+      </c>
+      <c r="H23" s="27">
+        <f>AVERAGE(H17,H18,H19,H20,H21,H22)</f>
+        <v>0.5521666666666666</v>
+      </c>
+      <c r="I23" s="27">
+        <f>AVERAGE(I17,I18,I19,I20,I21,I22)</f>
+        <v>0.5896666666666667</v>
+      </c>
+      <c r="J23" s="85"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+    </row>
+    <row r="24" ht="30.75" customHeight="1">
+      <c r="A24" t="s" s="73">
+        <v>27</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="C24" s="49">
+        <v>0.782</v>
+      </c>
+      <c r="D24" s="49">
+        <v>0.729</v>
+      </c>
+      <c r="E24" s="49">
+        <v>0.754</v>
+      </c>
+      <c r="F24" s="81"/>
+      <c r="G24" s="25">
+        <v>0.745</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0.644</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+    </row>
+    <row r="25" ht="30.75" customHeight="1">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="49">
+        <v>0.738</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0.861</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0.795</v>
+      </c>
+      <c r="F25" s="81"/>
+      <c r="G25" s="25">
+        <v>0.747</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0.861</v>
+      </c>
+      <c r="I25" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+    </row>
+    <row r="26" ht="30.75" customHeight="1">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="49">
+        <v>0.742</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0.606</v>
+      </c>
+      <c r="E26" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="F26" s="81"/>
+      <c r="G26" s="25">
+        <v>0.727</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0.587</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+    </row>
+    <row r="27" ht="30.75" customHeight="1">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="49">
+        <v>0.652</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0.484</v>
+      </c>
+      <c r="E27" s="49">
+        <v>0.556</v>
+      </c>
+      <c r="F27" s="81"/>
+      <c r="G27" s="25">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0.484</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+    </row>
+    <row r="28" ht="30.75" customHeight="1">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="49">
+        <v>0.621</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0.711</v>
+      </c>
+      <c r="E28" s="49">
+        <v>0.663</v>
+      </c>
+      <c r="F28" s="81"/>
+      <c r="G28" s="25">
+        <v>0.654</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0.639</v>
+      </c>
+      <c r="I28" s="25">
+        <v>0.646</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+    </row>
+    <row r="29" ht="30.75" customHeight="1">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="49">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0.395</v>
+      </c>
+      <c r="E29" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="81"/>
+      <c r="G29" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.632</v>
+      </c>
+      <c r="I29" s="25">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+    </row>
+    <row r="30" ht="30.75" customHeight="1">
+      <c r="A30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="54">
+        <f>AVERAGE(C24,C25,C26,C27,C28,C29)</f>
+        <v>0.7028333333333334</v>
+      </c>
+      <c r="D30" s="54">
+        <f>AVERAGE(D24,D25,D26,D27,D28,D29)</f>
+        <v>0.6309999999999999</v>
+      </c>
+      <c r="E30" s="54">
+        <f>AVERAGE(E24,E25,E26,E27,E28,E29)</f>
+        <v>0.6558333333333334</v>
+      </c>
+      <c r="F30" s="84"/>
+      <c r="G30" s="27">
+        <f>AVERAGE(G24,G25,G26,G27,G28,G29)</f>
+        <v>0.7174999999999999</v>
+      </c>
+      <c r="H30" s="27">
+        <f>AVERAGE(H24,H25,H26,H27,H28,H29)</f>
+        <v>0.6411666666666667</v>
+      </c>
+      <c r="I30" s="27">
+        <f>AVERAGE(I24,I25,I26,I27,I28,I29)</f>
+        <v>0.6731666666666666</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+    </row>
+    <row r="31" ht="30.75" customHeight="1">
+      <c r="A31" t="s" s="73">
+        <v>28</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="49">
+        <v>0.508</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0.606</v>
+      </c>
+      <c r="F31" s="81"/>
+      <c r="G31" s="25">
+        <v>0.711</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0.542</v>
+      </c>
+      <c r="I31" s="25">
+        <v>0.615</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+    </row>
+    <row r="32" ht="30.75" customHeight="1">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="49">
+        <v>0.695</v>
+      </c>
+      <c r="D32" s="49">
+        <v>0.792</v>
+      </c>
+      <c r="E32" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="F32" s="81"/>
+      <c r="G32" s="25">
+        <v>0.716</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0.806</v>
+      </c>
+      <c r="I32" s="25">
+        <v>0.758</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+    </row>
+    <row r="33" ht="30.75" customHeight="1">
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="49">
+        <v>0.619</v>
+      </c>
+      <c r="D33" s="49">
+        <v>0.67</v>
+      </c>
+      <c r="E33" s="49">
+        <v>0.643</v>
+      </c>
+      <c r="F33" s="81"/>
+      <c r="G33" s="25">
+        <v>0.635</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0.798</v>
+      </c>
+      <c r="I33" s="25">
+        <v>0.707</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+    </row>
+    <row r="34" ht="30.75" customHeight="1">
+      <c r="A34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="49">
+        <v>0.522</v>
+      </c>
+      <c r="D34" s="49">
+        <v>0.387</v>
+      </c>
+      <c r="E34" s="49">
+        <v>0.444</v>
+      </c>
+      <c r="F34" s="81"/>
+      <c r="G34" s="25">
+        <v>0.515</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0.548</v>
+      </c>
+      <c r="I34" s="25">
+        <v>0.531</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+    </row>
+    <row r="35" ht="30.75" customHeight="1">
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="D35" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="F35" s="81"/>
+      <c r="G35" s="25">
+        <v>0.747</v>
+      </c>
+      <c r="H35" s="25">
+        <v>0.675</v>
+      </c>
+      <c r="I35" s="25">
+        <v>0.709</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+    </row>
+    <row r="36" ht="30.75" customHeight="1">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="49">
+        <v>0.724</v>
+      </c>
+      <c r="D36" s="49">
+        <v>0.553</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0.627</v>
+      </c>
+      <c r="F36" s="81"/>
+      <c r="G36" s="25">
+        <v>0.724</v>
+      </c>
+      <c r="H36" s="25">
+        <v>0.553</v>
+      </c>
+      <c r="I36" s="25">
+        <v>0.627</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+    </row>
+    <row r="37" ht="30.75" customHeight="1">
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="54">
+        <f>AVERAGE(C31,C32,C33,C34,C35,C36)</f>
+        <v>0.6661666666666668</v>
+      </c>
+      <c r="D37" s="54">
+        <f>AVERAGE(D31,D32,D33,D34,D35,D36)</f>
+        <v>0.5995</v>
+      </c>
+      <c r="E37" s="54">
+        <f>AVERAGE(E31,E32,E33,E34,E35,E36)</f>
+        <v>0.6244999999999999</v>
+      </c>
+      <c r="F37" s="84"/>
+      <c r="G37" s="27">
+        <f>AVERAGE(G31,G32,G33,G34,G35,G36)</f>
+        <v>0.6746666666666666</v>
+      </c>
+      <c r="H37" s="27">
+        <f>AVERAGE(H31,H32,H33,H34,H35,H36)</f>
+        <v>0.6536666666666666</v>
+      </c>
+      <c r="I37" s="27">
+        <f>AVERAGE(I31,I32,I33,I34,I35,I36)</f>
+        <v>0.6578333333333334</v>
+      </c>
+      <c r="J37" s="85"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+    </row>
+    <row r="38" ht="30.75" customHeight="1">
+      <c r="A38" t="s" s="73">
+        <v>29</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="49">
+        <v>0.726</v>
+      </c>
+      <c r="D38" s="49">
+        <v>0.763</v>
+      </c>
+      <c r="E38" s="49">
+        <v>0.744</v>
+      </c>
+      <c r="F38" s="81"/>
+      <c r="G38" s="25">
+        <v>0.833</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0.763</v>
+      </c>
+      <c r="I38" s="25">
+        <v>0.796</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+    </row>
+    <row r="39" ht="30.75" customHeight="1">
+      <c r="A39" s="79"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="49">
+        <v>0.767</v>
+      </c>
+      <c r="D39" s="49">
+        <v>0.778</v>
+      </c>
+      <c r="E39" s="49">
+        <v>0.772</v>
+      </c>
+      <c r="F39" s="81"/>
+      <c r="G39" s="25">
+        <v>0.781</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0.792</v>
+      </c>
+      <c r="I39" s="25">
+        <v>0.786</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+    </row>
+    <row r="40" ht="30.75" customHeight="1">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="49">
+        <v>0.756</v>
+      </c>
+      <c r="D40" s="49">
+        <v>0.596</v>
+      </c>
+      <c r="E40" s="49">
+        <v>0.667</v>
+      </c>
+      <c r="F40" s="81"/>
+      <c r="G40" s="25">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="H40" s="25">
+        <v>0.596</v>
+      </c>
+      <c r="I40" s="25">
+        <v>0.637</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+    </row>
+    <row r="41" ht="30.75" customHeight="1">
+      <c r="A41" s="79"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="49">
+        <v>0.72</v>
+      </c>
+      <c r="D41" s="49">
+        <v>0.581</v>
+      </c>
+      <c r="E41" s="49">
+        <v>0.643</v>
+      </c>
+      <c r="F41" s="81"/>
+      <c r="G41" s="25">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0.581</v>
+      </c>
+      <c r="I41" s="25">
+        <v>0.632</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+    </row>
+    <row r="42" ht="30.75" customHeight="1">
+      <c r="A42" s="79"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="49">
+        <v>0.655</v>
+      </c>
+      <c r="D42" s="49">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E42" s="49">
+        <v>0.671</v>
+      </c>
+      <c r="F42" s="81"/>
+      <c r="G42" s="25">
+        <v>0.663</v>
+      </c>
+      <c r="H42" s="25">
+        <v>0.711</v>
+      </c>
+      <c r="I42" s="25">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+      <c r="AA42" s="34"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
+    </row>
+    <row r="43" ht="30.75" customHeight="1">
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="49">
+        <v>0.652</v>
+      </c>
+      <c r="D43" s="49">
+        <v>0.395</v>
+      </c>
+      <c r="E43" s="49">
+        <v>0.492</v>
+      </c>
+      <c r="F43" s="81"/>
+      <c r="G43" s="25">
+        <v>0.727</v>
+      </c>
+      <c r="H43" s="25">
+        <v>0.632</v>
+      </c>
+      <c r="I43" s="25">
+        <v>0.676</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+    </row>
+    <row r="44" ht="30.75" customHeight="1">
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="54">
+        <f>AVERAGE(C38,C39,C40,C41,C42,C43)</f>
+        <v>0.7126666666666667</v>
+      </c>
+      <c r="D44" s="54">
+        <f>AVERAGE(D38,D39,D40,D41,D42,D43)</f>
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="E44" s="54">
+        <f>AVERAGE(E38,E39,E40,E41,E42,E43)</f>
+        <v>0.6648333333333333</v>
+      </c>
+      <c r="F44" s="84"/>
+      <c r="G44" s="27">
+        <f>AVERAGE(G38,G39,G40,G41,G42,G43)</f>
+        <v>0.7300000000000001</v>
+      </c>
+      <c r="H44" s="27">
+        <f>AVERAGE(H38,H39,H40,H41,H42,H43)</f>
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="I44" s="27">
+        <f>AVERAGE(I38,I39,I40,I41,I42,I43)</f>
+        <v>0.7021666666666667</v>
+      </c>
+      <c r="J44" s="85"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+    </row>
+    <row r="45" ht="30.75" customHeight="1">
+      <c r="A45" t="s" s="73">
+        <v>52</v>
+      </c>
+      <c r="B45" s="80"/>
+      <c r="C45" s="49">
+        <v>0.492</v>
+      </c>
+      <c r="D45" s="49">
+        <v>0.508</v>
+      </c>
+      <c r="E45" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="81"/>
+      <c r="G45" s="25">
+        <v>0.519</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0.712</v>
+      </c>
+      <c r="I45" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+    </row>
+    <row r="46" ht="30.75" customHeight="1">
+      <c r="A46" s="79"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="49">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D46" s="49">
+        <v>0.681</v>
+      </c>
+      <c r="E46" s="49">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F46" s="81"/>
+      <c r="G46" s="25">
+        <v>0.642</v>
+      </c>
+      <c r="H46" s="25">
+        <v>0.722</v>
+      </c>
+      <c r="I46" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+    </row>
+    <row r="47" ht="30.75" customHeight="1">
+      <c r="A47" s="79"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="49">
+        <v>0.466</v>
+      </c>
+      <c r="D47" s="49">
+        <v>0.495</v>
+      </c>
+      <c r="E47" s="49">
+        <v>0.48</v>
+      </c>
+      <c r="F47" s="81"/>
+      <c r="G47" s="25">
+        <v>0.496</v>
+      </c>
+      <c r="H47" s="25">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I47" s="25">
+        <v>0.526</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+    </row>
+    <row r="48" ht="30.75" customHeight="1">
+      <c r="A48" s="79"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="49">
+        <v>0.333</v>
+      </c>
+      <c r="D48" s="49">
+        <v>0.226</v>
+      </c>
+      <c r="E48" s="49">
+        <v>0.269</v>
+      </c>
+      <c r="F48" s="81"/>
+      <c r="G48" s="25">
+        <v>0.467</v>
+      </c>
+      <c r="H48" s="25">
+        <v>0.226</v>
+      </c>
+      <c r="I48" s="25">
+        <v>0.304</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+    </row>
+    <row r="49" ht="30.75" customHeight="1">
+      <c r="A49" s="79"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="49">
+        <v>0.737</v>
+      </c>
+      <c r="D49" s="49">
+        <v>0.337</v>
+      </c>
+      <c r="E49" s="49">
+        <v>0.463</v>
+      </c>
+      <c r="F49" s="81"/>
+      <c r="G49" s="25">
+        <v>0.718</v>
+      </c>
+      <c r="H49" s="25">
+        <v>0.337</v>
+      </c>
+      <c r="I49" s="25">
+        <v>0.459</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+    </row>
+    <row r="50" ht="30.75" customHeight="1">
+      <c r="A50" s="79"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="49">
+        <v>0.605</v>
+      </c>
+      <c r="E50" s="49">
+        <v>0.548</v>
+      </c>
+      <c r="F50" s="81"/>
+      <c r="G50" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="25">
+        <v>0.605</v>
+      </c>
+      <c r="I50" s="25">
+        <v>0.548</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+    </row>
+    <row r="51" ht="30.75" customHeight="1">
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="54">
+        <f>AVERAGE(C45,C46,C47,C48,C49,C50)</f>
+        <v>0.5363333333333333</v>
+      </c>
+      <c r="D51" s="54">
+        <f>AVERAGE(D45,D46,D47,D48,D49,D50)</f>
+        <v>0.4753333333333334</v>
+      </c>
+      <c r="E51" s="54">
+        <f>AVERAGE(E45,E46,E47,E48,E49,E50)</f>
+        <v>0.4908333333333334</v>
+      </c>
+      <c r="F51" s="84"/>
+      <c r="G51" s="27">
+        <f>AVERAGE(G45,G46,G47,G48,G49,G50)</f>
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="H51" s="27">
+        <f>AVERAGE(H45,H46,H47,H48,H49,H50)</f>
+        <v>0.527</v>
+      </c>
+      <c r="I51" s="27">
+        <f>AVERAGE(I45,I46,I47,I48,I49,I50)</f>
+        <v>0.5195</v>
+      </c>
+      <c r="J51" s="85"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+      <c r="Y51" s="55"/>
+      <c r="Z51" s="55"/>
+      <c r="AA51" s="55"/>
+      <c r="AB51" s="55"/>
+      <c r="AC51" s="55"/>
+    </row>
+    <row r="52" ht="30.75" customHeight="1">
+      <c r="A52" s="79"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
+    </row>
+    <row r="53" ht="30.75" customHeight="1">
+      <c r="A53" s="79"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
+    </row>
+    <row r="54" ht="30.75" customHeight="1">
+      <c r="A54" s="79"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+    </row>
+    <row r="55" ht="30.75" customHeight="1">
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+    </row>
+    <row r="56" ht="30.75" customHeight="1">
+      <c r="A56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+    </row>
+    <row r="57" ht="30.75" customHeight="1">
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="34"/>
+      <c r="AC57" s="34"/>
+    </row>
+    <row r="58" ht="30.75" customHeight="1">
+      <c r="A58" s="79"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+    </row>
+    <row r="59" ht="30.75" customHeight="1">
+      <c r="A59" s="79"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+      <c r="AB59" s="34"/>
+      <c r="AC59" s="34"/>
+    </row>
+    <row r="60" ht="30.75" customHeight="1">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
+    </row>
+    <row r="61" ht="30.75" customHeight="1">
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="34"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+    </row>
+    <row r="62" ht="30.75" customHeight="1">
+      <c r="A62" s="79"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="34"/>
+      <c r="AA62" s="34"/>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
+    </row>
+    <row r="63" ht="30.75" customHeight="1">
+      <c r="A63" s="79"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="34"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="34"/>
+      <c r="AA63" s="34"/>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
+    </row>
+    <row r="64" ht="30.75" customHeight="1">
+      <c r="A64" s="79"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="34"/>
+      <c r="X64" s="34"/>
+      <c r="Y64" s="34"/>
+      <c r="Z64" s="34"/>
+      <c r="AA64" s="34"/>
+      <c r="AB64" s="34"/>
+      <c r="AC64" s="34"/>
+    </row>
+    <row r="65" ht="30.75" customHeight="1">
+      <c r="A65" s="79"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34"/>
+      <c r="X65" s="34"/>
+      <c r="Y65" s="34"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="34"/>
+      <c r="AB65" s="34"/>
+      <c r="AC65" s="34"/>
+    </row>
+    <row r="66" ht="30.75" customHeight="1">
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+    </row>
+    <row r="67" ht="30.75" customHeight="1">
+      <c r="A67" s="79"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="34"/>
+      <c r="Y67" s="34"/>
+      <c r="Z67" s="34"/>
+      <c r="AA67" s="34"/>
+      <c r="AB67" s="34"/>
+      <c r="AC67" s="34"/>
+    </row>
+    <row r="68" ht="30.75" customHeight="1">
+      <c r="A68" s="79"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+      <c r="AB68" s="34"/>
+      <c r="AC68" s="34"/>
+    </row>
+    <row r="69" ht="30.75" customHeight="1">
+      <c r="A69" s="79"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="34"/>
+      <c r="Y69" s="34"/>
+      <c r="Z69" s="34"/>
+      <c r="AA69" s="34"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="86" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="86" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="86" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="86" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="86" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="86" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="86" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="86" customWidth="1"/>
+    <col min="9" max="9" width="12.1719" style="86" customWidth="1"/>
+    <col min="10" max="10" width="12.1719" style="86" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="86" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="86" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="86" customWidth="1"/>
+    <col min="14" max="256" width="16.3516" style="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" ht="32.05" customHeight="1">
+      <c r="A2" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s" s="87">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s" s="88">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s" s="88">
+        <v>61</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B3" s="90">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B4" s="90">
+        <v>83</v>
+      </c>
+      <c r="C4" s="13">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13">
+        <v>17</v>
+      </c>
+      <c r="E4" s="89"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="B5" s="90">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="89"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B6" s="90">
+        <v>109</v>
+      </c>
+      <c r="C6" s="13">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13">
+        <v>15</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B7" s="90">
+        <v>72</v>
+      </c>
+      <c r="C7" s="13">
+        <v>33</v>
+      </c>
+      <c r="D7" s="13">
+        <v>11</v>
+      </c>
+      <c r="E7" s="89"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="B8" s="90">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13">
+        <v>13</v>
+      </c>
+      <c r="E8" s="89"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="B9" s="90">
+        <f>SUM(B3,B4,B5,B6,B7,B8)</f>
+        <v>392</v>
+      </c>
+      <c r="C9" s="13">
+        <f>SUM(C3,C4,C5,C6,C7,C8)</f>
+        <v>149</v>
+      </c>
+      <c r="D9" s="13">
+        <f>SUM(D3,D4,D5,D6,D7,D8)</f>
+        <v>71</v>
+      </c>
+      <c r="E9" s="89"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="B10" s="90">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="11">
+        <v>64</v>
+      </c>
+      <c r="B11" s="90">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="B12" s="90">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="89"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="90">
+        <f>B11/(B12+B11)</f>
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="C13" s="13">
+        <f>C11/(C11+C12)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="89"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="40" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="40" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="40" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="40" customWidth="1"/>
-    <col min="8" max="8" width="15.6719" style="40" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="40" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="40" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="40" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="40" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="40" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="40" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="40" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="40" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="40" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="40" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="40" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="40" customWidth="1"/>
-    <col min="21" max="256" width="16.3516" style="40" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="91" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="91" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="91" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="91" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="91" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="91" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="91" customWidth="1"/>
+    <col min="8" max="8" width="15.6719" style="91" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="91" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="91" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="91" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="91" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="91" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="91" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="91" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="91" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="91" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="91" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="91" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="91" customWidth="1"/>
+    <col min="21" max="256" width="16.3516" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
@@ -5958,13 +11789,13 @@
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="19">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="20">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="21">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -5988,7 +11819,7 @@
       <c r="A3" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="90">
         <v>38</v>
       </c>
       <c r="C3" s="13">
@@ -6016,7 +11847,7 @@
       <c r="A4" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="90">
         <v>83</v>
       </c>
       <c r="C4" s="13">
@@ -6044,7 +11875,7 @@
       <c r="A5" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="90">
         <v>31</v>
       </c>
       <c r="C5" s="13">
@@ -6052,11 +11883,11 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
-      <c r="F5" t="s" s="37">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s" s="37">
-        <v>41</v>
+      <c r="F5" t="s" s="88">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s" s="88">
+        <v>69</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -6076,7 +11907,7 @@
       <c r="A6" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="90">
         <v>109</v>
       </c>
       <c r="C6" s="13">
@@ -6084,11 +11915,11 @@
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" t="s" s="37">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s" s="37">
-        <v>43</v>
+      <c r="F6" t="s" s="88">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s" s="88">
+        <v>71</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -6108,7 +11939,7 @@
       <c r="A7" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="90">
         <v>72</v>
       </c>
       <c r="C7" s="13">
@@ -6116,8 +11947,8 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" t="s" s="37">
-        <v>44</v>
+      <c r="F7" t="s" s="88">
+        <v>72</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -6138,7 +11969,7 @@
       <c r="A8" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="90">
         <v>59</v>
       </c>
       <c r="C8" s="13">
@@ -6146,11 +11977,11 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
-      <c r="F8" t="s" s="37">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s" s="37">
-        <v>46</v>
+      <c r="F8" t="s" s="88">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s" s="88">
+        <v>74</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -6168,7 +11999,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="39">
+      <c r="B9" s="90">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -6272,7 +12103,7 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" t="s" s="18">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -7146,10 +12977,10 @@
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="41"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="41"/>
+      <c r="F31" s="92"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -7523,7 +13354,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="11">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" t="s" s="18">
@@ -8214,10 +14045,10 @@
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="14"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="41"/>
+      <c r="C61" s="92"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
-      <c r="F61" s="41"/>
+      <c r="F61" s="92"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -8947,7 +14778,7 @@
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="11">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B82" s="15"/>
       <c r="C82" t="s" s="18">
@@ -9844,37 +15675,37 @@
     </row>
     <row r="108" ht="32.05" customHeight="1">
       <c r="A108" t="s" s="11">
-        <v>30</v>
-      </c>
-      <c r="B108" t="s" s="36">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="B108" t="s" s="87">
+        <v>59</v>
       </c>
       <c r="C108" s="17"/>
-      <c r="D108" t="s" s="42">
-        <v>50</v>
-      </c>
-      <c r="E108" t="s" s="42">
-        <v>51</v>
-      </c>
-      <c r="F108" t="s" s="37">
-        <v>32</v>
+      <c r="D108" t="s" s="93">
+        <v>78</v>
+      </c>
+      <c r="E108" t="s" s="93">
+        <v>79</v>
+      </c>
+      <c r="F108" t="s" s="88">
+        <v>60</v>
       </c>
       <c r="G108" s="17"/>
-      <c r="H108" t="s" s="42">
-        <v>50</v>
-      </c>
-      <c r="I108" t="s" s="42">
-        <v>51</v>
-      </c>
-      <c r="J108" t="s" s="37">
-        <v>33</v>
+      <c r="H108" t="s" s="93">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="93">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s" s="88">
+        <v>61</v>
       </c>
       <c r="K108" s="17"/>
-      <c r="L108" t="s" s="37">
-        <v>50</v>
-      </c>
-      <c r="M108" t="s" s="37">
-        <v>51</v>
+      <c r="L108" t="s" s="88">
+        <v>78</v>
+      </c>
+      <c r="M108" t="s" s="88">
+        <v>79</v>
       </c>
       <c r="N108" s="17"/>
       <c r="O108" s="17"/>
@@ -9888,17 +15719,17 @@
       <c r="A109" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B109" s="39">
+      <c r="B109" s="90">
         <v>38</v>
       </c>
       <c r="C109" s="13">
         <f>B120*B109</f>
         <v>2.035714285714286</v>
       </c>
-      <c r="D109" s="43">
+      <c r="D109" s="94">
         <v>89</v>
       </c>
-      <c r="E109" s="43">
+      <c r="E109" s="94">
         <v>55</v>
       </c>
       <c r="F109" s="13">
@@ -9908,10 +15739,10 @@
         <f>F120*F109</f>
         <v>2.013422818791946</v>
       </c>
-      <c r="H109" s="43">
+      <c r="H109" s="94">
         <v>67</v>
       </c>
-      <c r="I109" s="43">
+      <c r="I109" s="94">
         <v>92</v>
       </c>
       <c r="J109" s="13">
@@ -9937,17 +15768,17 @@
       <c r="A110" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B110" s="39">
+      <c r="B110" s="90">
         <v>83</v>
       </c>
       <c r="C110" s="13">
         <f>B120*B110</f>
         <v>4.446428571428571</v>
       </c>
-      <c r="D110" t="s" s="44">
-        <v>52</v>
-      </c>
-      <c r="E110" s="43">
+      <c r="D110" t="s" s="95">
+        <v>80</v>
+      </c>
+      <c r="E110" s="94">
         <v>45</v>
       </c>
       <c r="F110" s="13">
@@ -9957,10 +15788,10 @@
         <f>F120*F110</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H110" t="s" s="44">
-        <v>53</v>
-      </c>
-      <c r="I110" s="38"/>
+      <c r="H110" t="s" s="95">
+        <v>81</v>
+      </c>
+      <c r="I110" s="89"/>
       <c r="J110" s="13">
         <v>17</v>
       </c>
@@ -9968,8 +15799,8 @@
         <f>J120*J110</f>
         <v>2.394366197183099</v>
       </c>
-      <c r="L110" t="s" s="37">
-        <v>54</v>
+      <c r="L110" t="s" s="88">
+        <v>82</v>
       </c>
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
@@ -9984,17 +15815,17 @@
       <c r="A111" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B111" s="39">
+      <c r="B111" s="90">
         <v>31</v>
       </c>
       <c r="C111" s="13">
         <f>B120*B111</f>
         <v>1.660714285714286</v>
       </c>
-      <c r="D111" t="s" s="44">
-        <v>55</v>
-      </c>
-      <c r="E111" s="38"/>
+      <c r="D111" t="s" s="95">
+        <v>83</v>
+      </c>
+      <c r="E111" s="89"/>
       <c r="F111" s="13">
         <v>10</v>
       </c>
@@ -10002,10 +15833,10 @@
         <f>F120*F111</f>
         <v>1.006711409395973</v>
       </c>
-      <c r="H111" s="43">
+      <c r="H111" s="94">
         <v>32</v>
       </c>
-      <c r="I111" s="38"/>
+      <c r="I111" s="89"/>
       <c r="J111" s="13">
         <v>7</v>
       </c>
@@ -10029,17 +15860,17 @@
       <c r="A112" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B112" s="90">
         <v>109</v>
       </c>
       <c r="C112" s="13">
         <f>B120*B112</f>
         <v>5.839285714285714</v>
       </c>
-      <c r="D112" t="s" s="44">
-        <v>56</v>
-      </c>
-      <c r="E112" s="38"/>
+      <c r="D112" t="s" s="95">
+        <v>84</v>
+      </c>
+      <c r="E112" s="89"/>
       <c r="F112" s="13">
         <v>36</v>
       </c>
@@ -10047,10 +15878,10 @@
         <f>F120*F112</f>
         <v>3.624161073825503</v>
       </c>
-      <c r="H112" t="s" s="44">
-        <v>57</v>
-      </c>
-      <c r="I112" s="43">
+      <c r="H112" t="s" s="95">
+        <v>85</v>
+      </c>
+      <c r="I112" s="94">
         <v>11</v>
       </c>
       <c r="J112" s="13">
@@ -10060,8 +15891,8 @@
         <f>J120*J112</f>
         <v>2.112676056338028</v>
       </c>
-      <c r="L112" t="s" s="37">
-        <v>58</v>
+      <c r="L112" t="s" s="88">
+        <v>86</v>
       </c>
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
@@ -10076,17 +15907,17 @@
       <c r="A113" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B113" s="39">
+      <c r="B113" s="90">
         <v>72</v>
       </c>
       <c r="C113" s="13">
         <f>B120*B113</f>
         <v>3.857142857142857</v>
       </c>
-      <c r="D113" t="s" s="44">
-        <v>59</v>
-      </c>
-      <c r="E113" s="43">
+      <c r="D113" t="s" s="95">
+        <v>87</v>
+      </c>
+      <c r="E113" s="94">
         <v>148</v>
       </c>
       <c r="F113" s="13">
@@ -10096,10 +15927,10 @@
         <f>F120*F113</f>
         <v>3.322147651006711</v>
       </c>
-      <c r="H113" t="s" s="44">
-        <v>60</v>
-      </c>
-      <c r="I113" s="38"/>
+      <c r="H113" t="s" s="95">
+        <v>88</v>
+      </c>
+      <c r="I113" s="89"/>
       <c r="J113" s="13">
         <v>11</v>
       </c>
@@ -10107,8 +15938,8 @@
         <f>J120*J113</f>
         <v>1.549295774647887</v>
       </c>
-      <c r="L113" t="s" s="37">
-        <v>61</v>
+      <c r="L113" t="s" s="88">
+        <v>89</v>
       </c>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
@@ -10123,17 +15954,17 @@
       <c r="A114" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="B114" s="39">
+      <c r="B114" s="90">
         <v>59</v>
       </c>
       <c r="C114" s="13">
         <f>B120*B114</f>
         <v>3.160714285714286</v>
       </c>
-      <c r="D114" t="s" s="44">
-        <v>62</v>
-      </c>
-      <c r="E114" s="43">
+      <c r="D114" t="s" s="95">
+        <v>90</v>
+      </c>
+      <c r="E114" s="94">
         <v>13</v>
       </c>
       <c r="F114" s="13">
@@ -10143,10 +15974,10 @@
         <f>F120*F114</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H114" t="s" s="44">
-        <v>63</v>
-      </c>
-      <c r="I114" s="43">
+      <c r="H114" t="s" s="95">
+        <v>91</v>
+      </c>
+      <c r="I114" s="94">
         <v>7</v>
       </c>
       <c r="J114" s="13">
@@ -10156,8 +15987,8 @@
         <f>J120*J114</f>
         <v>1.830985915492958</v>
       </c>
-      <c r="L114" t="s" s="37">
-        <v>64</v>
+      <c r="L114" t="s" s="88">
+        <v>92</v>
       </c>
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
@@ -10170,20 +16001,20 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" s="14"/>
-      <c r="B115" s="39">
+      <c r="B115" s="90">
         <f>SUM(B109,B110,B111,B112,B113,B114)</f>
         <v>392</v>
       </c>
       <c r="C115" s="17"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
       <c r="F115" s="13">
         <f>SUM(F109,F110,F111,F112,F113,F114)</f>
         <v>149</v>
       </c>
       <c r="G115" s="17"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
+      <c r="H115" s="89"/>
+      <c r="I115" s="89"/>
       <c r="J115" s="13">
         <f>SUM(J109,J110,J111,J112,J113,J114)</f>
         <v>71</v>
@@ -10201,20 +16032,20 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="B116" s="39">
+        <v>63</v>
+      </c>
+      <c r="B116" s="90">
         <v>21</v>
       </c>
       <c r="C116" s="17"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
       <c r="F116" s="13">
         <v>15</v>
       </c>
       <c r="G116" s="17"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
+      <c r="H116" s="89"/>
+      <c r="I116" s="89"/>
       <c r="J116" s="13">
         <v>10</v>
       </c>
@@ -10231,20 +16062,20 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="B117" s="39">
+        <v>64</v>
+      </c>
+      <c r="B117" s="90">
         <v>17</v>
       </c>
       <c r="C117" s="17"/>
-      <c r="D117" s="38"/>
-      <c r="E117" s="38"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
       <c r="F117" s="13">
         <v>13</v>
       </c>
       <c r="G117" s="17"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
+      <c r="H117" s="89"/>
+      <c r="I117" s="89"/>
       <c r="J117" s="13">
         <v>10</v>
       </c>
@@ -10261,20 +16092,20 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="B118" s="39">
+        <v>65</v>
+      </c>
+      <c r="B118" s="90">
         <v>4</v>
       </c>
       <c r="C118" s="17"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="89"/>
       <c r="F118" s="13">
         <v>3</v>
       </c>
       <c r="G118" s="17"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
+      <c r="H118" s="89"/>
+      <c r="I118" s="89"/>
       <c r="J118" s="13">
         <v>0</v>
       </c>
@@ -10291,20 +16122,20 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" s="14"/>
-      <c r="B119" s="39">
+      <c r="B119" s="90">
         <f>B117/(B118+B117)</f>
         <v>0.8095238095238095</v>
       </c>
       <c r="C119" s="17"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="89"/>
       <c r="F119" s="13">
         <f>F117/(F117+F118)</f>
         <v>0.8125</v>
       </c>
       <c r="G119" s="17"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
+      <c r="H119" s="89"/>
+      <c r="I119" s="89"/>
       <c r="J119" s="13">
         <v>1</v>
       </c>
@@ -10321,20 +16152,20 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" s="14"/>
-      <c r="B120" s="39">
+      <c r="B120" s="90">
         <f>B116/B115</f>
         <v>0.05357142857142857</v>
       </c>
       <c r="C120" s="17"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
       <c r="F120" s="13">
         <f>F116/F115</f>
         <v>0.1006711409395973</v>
       </c>
       <c r="G120" s="17"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="89"/>
       <c r="J120" s="13">
         <f>J116/J115</f>
         <v>0.1408450704225352</v>
@@ -10354,12 +16185,12 @@
       <c r="A121" s="14"/>
       <c r="B121" s="15"/>
       <c r="C121" s="17"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="89"/>
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>

--- a/Experiment/实验结果.xlsx
+++ b/Experiment/实验结果.xlsx
@@ -6,14 +6,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="DifferentModels(Iterations=30)" sheetId="1" r:id="rId4"/>
-    <sheet name="EvaluationComparison(Iterations" sheetId="2" r:id="rId5"/>
-    <sheet name="DifferentFeatures(Iterations=30" sheetId="3" r:id="rId6"/>
+    <sheet name="Models(Iterations=30)" sheetId="1" r:id="rId4"/>
+    <sheet name="Comparison(Iterations=30)" sheetId="2" r:id="rId5"/>
+    <sheet name="Features(Iterations=30)" sheetId="3" r:id="rId6"/>
     <sheet name="TopK" sheetId="4" r:id="rId7"/>
     <sheet name="迭代次数" sheetId="5" r:id="rId8"/>
-    <sheet name="DifferentFeatures(Iterations=50" sheetId="6" r:id="rId9"/>
-    <sheet name="EvaluationComparison(Iteration1" sheetId="7" r:id="rId10"/>
-    <sheet name="DifferentModels(Iterations=50)" sheetId="8" r:id="rId11"/>
+    <sheet name="Features(Iterations=50)" sheetId="6" r:id="rId9"/>
+    <sheet name="Comparison(Iterations=50)" sheetId="7" r:id="rId10"/>
+    <sheet name="Models(Iterations=50)" sheetId="8" r:id="rId11"/>
     <sheet name="人工check" sheetId="9" r:id="rId12"/>
     <sheet name="别管" sheetId="10" r:id="rId13"/>
   </sheets>

--- a/Experiment/实验结果.xlsx
+++ b/Experiment/实验结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>AllFeatures</t>
   </si>
@@ -137,6 +137,9 @@
     <t>top50</t>
   </si>
   <si>
+    <t>num</t>
+  </si>
+  <si>
     <t>All Features</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
   </si>
   <si>
     <t>Feature Set</t>
+  </si>
+  <si>
+    <t>WithoutCoChange</t>
   </si>
   <si>
     <t>Projects</t>
@@ -894,7 +900,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1098,6 +1104,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -3231,62 +3243,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="117" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="117" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="117" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="117" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="117" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="117" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="117" customWidth="1"/>
-    <col min="8" max="8" width="15.6719" style="117" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="117" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="117" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="117" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="117" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="117" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="117" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="117" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="117" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="117" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="117" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="117" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="117" customWidth="1"/>
-    <col min="21" max="256" width="16.3516" style="117" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="119" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="119" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="119" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="119" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="119" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="119" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="119" customWidth="1"/>
+    <col min="8" max="8" width="15.6719" style="119" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="119" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="119" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="119" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="119" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="119" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="119" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="119" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="119" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="119" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="119" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="119" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="119" customWidth="1"/>
+    <col min="21" max="256" width="16.3516" style="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="110">
+      <c r="A1" t="s" s="112">
         <v>24</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="19">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s" s="20">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s" s="16">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3310,7 +3322,7 @@
       <c r="A3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="118">
         <v>38</v>
       </c>
       <c r="C3" s="10">
@@ -3338,7 +3350,7 @@
       <c r="A4" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="118">
         <v>83</v>
       </c>
       <c r="C4" s="10">
@@ -3366,7 +3378,7 @@
       <c r="A5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="118">
         <v>31</v>
       </c>
       <c r="C5" s="10">
@@ -3374,11 +3386,11 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" t="s" s="114">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s" s="114">
-        <v>72</v>
+      <c r="F5" t="s" s="116">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s" s="116">
+        <v>74</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -3398,7 +3410,7 @@
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="118">
         <v>109</v>
       </c>
       <c r="C6" s="10">
@@ -3406,11 +3418,11 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" t="s" s="114">
-        <v>73</v>
-      </c>
-      <c r="G6" t="s" s="114">
-        <v>74</v>
+      <c r="F6" t="s" s="116">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s" s="116">
+        <v>76</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -3430,7 +3442,7 @@
       <c r="A7" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="118">
         <v>72</v>
       </c>
       <c r="C7" s="10">
@@ -3438,8 +3450,8 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" t="s" s="114">
-        <v>75</v>
+      <c r="F7" t="s" s="116">
+        <v>77</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3460,7 +3472,7 @@
       <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="118">
         <v>59</v>
       </c>
       <c r="C8" s="10">
@@ -3468,11 +3480,11 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" t="s" s="114">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s" s="114">
-        <v>77</v>
+      <c r="F8" t="s" s="116">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s" s="116">
+        <v>79</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -3490,7 +3502,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="116">
+      <c r="B9" s="118">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -3568,33 +3580,33 @@
         <v>0</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" t="s" s="118">
+      <c r="C12" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" t="s" s="118">
+      <c r="F12" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" t="s" s="118">
+      <c r="I12" t="s" s="120">
         <v>3</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" t="s" s="118">
+      <c r="L12" t="s" s="120">
         <v>4</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" t="s" s="118">
+      <c r="O12" t="s" s="120">
         <v>5</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" t="s" s="118">
-        <v>78</v>
+      <c r="R12" t="s" s="120">
+        <v>80</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
@@ -4136,12 +4148,12 @@
         <v>25</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" t="s" s="118">
+      <c r="C22" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" t="s" s="118">
+      <c r="F22" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G22" s="14"/>
@@ -4468,10 +4480,10 @@
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="119"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="119"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -4492,12 +4504,12 @@
         <v>26</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" t="s" s="118">
+      <c r="C32" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" t="s" s="118">
+      <c r="F32" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G32" s="14"/>
@@ -4845,15 +4857,15 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" t="s" s="118">
+      <c r="C42" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" t="s" s="118">
+      <c r="F42" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G42" s="14"/>
@@ -5204,12 +5216,12 @@
         <v>27</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" t="s" s="118">
+      <c r="C52" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" t="s" s="118">
+      <c r="F52" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G52" s="14"/>
@@ -5536,10 +5548,10 @@
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="119"/>
+      <c r="C61" s="121"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="119"/>
+      <c r="F61" s="121"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -5560,12 +5572,12 @@
         <v>28</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" t="s" s="118">
+      <c r="C62" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" t="s" s="118">
+      <c r="F62" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G62" s="14"/>
@@ -5916,12 +5928,12 @@
         <v>29</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="C72" t="s" s="118">
+      <c r="C72" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="F72" t="s" s="118">
+      <c r="F72" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G72" s="14"/>
@@ -6269,15 +6281,15 @@
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" t="s" s="118">
+      <c r="C82" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" t="s" s="118">
+      <c r="F82" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G82" s="14"/>
@@ -6628,17 +6640,17 @@
         <v>23</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" t="s" s="118">
+      <c r="C92" t="s" s="120">
         <v>1</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
-      <c r="F92" t="s" s="118">
+      <c r="F92" t="s" s="120">
         <v>2</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
-      <c r="I92" t="s" s="118">
+      <c r="I92" t="s" s="120">
         <v>3</v>
       </c>
       <c r="J92" s="14"/>
@@ -7166,37 +7178,37 @@
     </row>
     <row r="108" ht="32.05" customHeight="1">
       <c r="A108" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="B108" t="s" s="113">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B108" t="s" s="115">
+        <v>64</v>
       </c>
       <c r="C108" s="14"/>
-      <c r="D108" t="s" s="120">
-        <v>81</v>
-      </c>
-      <c r="E108" t="s" s="120">
-        <v>82</v>
-      </c>
-      <c r="F108" t="s" s="114">
-        <v>63</v>
+      <c r="D108" t="s" s="122">
+        <v>83</v>
+      </c>
+      <c r="E108" t="s" s="122">
+        <v>84</v>
+      </c>
+      <c r="F108" t="s" s="116">
+        <v>65</v>
       </c>
       <c r="G108" s="14"/>
-      <c r="H108" t="s" s="120">
-        <v>81</v>
-      </c>
-      <c r="I108" t="s" s="120">
-        <v>82</v>
-      </c>
-      <c r="J108" t="s" s="114">
-        <v>64</v>
+      <c r="H108" t="s" s="122">
+        <v>83</v>
+      </c>
+      <c r="I108" t="s" s="122">
+        <v>84</v>
+      </c>
+      <c r="J108" t="s" s="116">
+        <v>66</v>
       </c>
       <c r="K108" s="14"/>
-      <c r="L108" t="s" s="114">
-        <v>81</v>
-      </c>
-      <c r="M108" t="s" s="114">
-        <v>82</v>
+      <c r="L108" t="s" s="116">
+        <v>83</v>
+      </c>
+      <c r="M108" t="s" s="116">
+        <v>84</v>
       </c>
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
@@ -7210,17 +7222,17 @@
       <c r="A109" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B109" s="116">
+      <c r="B109" s="118">
         <v>38</v>
       </c>
       <c r="C109" s="10">
         <f>B120*B109</f>
         <v>2.035714285714286</v>
       </c>
-      <c r="D109" s="121">
+      <c r="D109" s="123">
         <v>89</v>
       </c>
-      <c r="E109" s="121">
+      <c r="E109" s="123">
         <v>55</v>
       </c>
       <c r="F109" s="10">
@@ -7230,10 +7242,10 @@
         <f>F120*F109</f>
         <v>2.013422818791946</v>
       </c>
-      <c r="H109" s="121">
+      <c r="H109" s="123">
         <v>67</v>
       </c>
-      <c r="I109" s="121">
+      <c r="I109" s="123">
         <v>92</v>
       </c>
       <c r="J109" s="10">
@@ -7259,17 +7271,17 @@
       <c r="A110" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B110" s="116">
+      <c r="B110" s="118">
         <v>83</v>
       </c>
       <c r="C110" s="10">
         <f>B120*B110</f>
         <v>4.446428571428571</v>
       </c>
-      <c r="D110" t="s" s="122">
-        <v>83</v>
-      </c>
-      <c r="E110" s="121">
+      <c r="D110" t="s" s="124">
+        <v>85</v>
+      </c>
+      <c r="E110" s="123">
         <v>45</v>
       </c>
       <c r="F110" s="10">
@@ -7279,10 +7291,10 @@
         <f>F120*F110</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H110" t="s" s="122">
-        <v>84</v>
-      </c>
-      <c r="I110" s="115"/>
+      <c r="H110" t="s" s="124">
+        <v>86</v>
+      </c>
+      <c r="I110" s="117"/>
       <c r="J110" s="10">
         <v>17</v>
       </c>
@@ -7290,8 +7302,8 @@
         <f>J120*J110</f>
         <v>2.394366197183099</v>
       </c>
-      <c r="L110" t="s" s="114">
-        <v>85</v>
+      <c r="L110" t="s" s="116">
+        <v>87</v>
       </c>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
@@ -7306,17 +7318,17 @@
       <c r="A111" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B111" s="116">
+      <c r="B111" s="118">
         <v>31</v>
       </c>
       <c r="C111" s="10">
         <f>B120*B111</f>
         <v>1.660714285714286</v>
       </c>
-      <c r="D111" t="s" s="122">
-        <v>86</v>
-      </c>
-      <c r="E111" s="115"/>
+      <c r="D111" t="s" s="124">
+        <v>88</v>
+      </c>
+      <c r="E111" s="117"/>
       <c r="F111" s="10">
         <v>10</v>
       </c>
@@ -7324,10 +7336,10 @@
         <f>F120*F111</f>
         <v>1.006711409395973</v>
       </c>
-      <c r="H111" s="121">
+      <c r="H111" s="123">
         <v>32</v>
       </c>
-      <c r="I111" s="115"/>
+      <c r="I111" s="117"/>
       <c r="J111" s="10">
         <v>7</v>
       </c>
@@ -7351,17 +7363,17 @@
       <c r="A112" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B112" s="116">
+      <c r="B112" s="118">
         <v>109</v>
       </c>
       <c r="C112" s="10">
         <f>B120*B112</f>
         <v>5.839285714285714</v>
       </c>
-      <c r="D112" t="s" s="122">
-        <v>87</v>
-      </c>
-      <c r="E112" s="115"/>
+      <c r="D112" t="s" s="124">
+        <v>89</v>
+      </c>
+      <c r="E112" s="117"/>
       <c r="F112" s="10">
         <v>36</v>
       </c>
@@ -7369,10 +7381,10 @@
         <f>F120*F112</f>
         <v>3.624161073825503</v>
       </c>
-      <c r="H112" t="s" s="122">
-        <v>88</v>
-      </c>
-      <c r="I112" s="121">
+      <c r="H112" t="s" s="124">
+        <v>90</v>
+      </c>
+      <c r="I112" s="123">
         <v>11</v>
       </c>
       <c r="J112" s="10">
@@ -7382,8 +7394,8 @@
         <f>J120*J112</f>
         <v>2.112676056338028</v>
       </c>
-      <c r="L112" t="s" s="114">
-        <v>89</v>
+      <c r="L112" t="s" s="116">
+        <v>91</v>
       </c>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
@@ -7398,17 +7410,17 @@
       <c r="A113" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B113" s="116">
+      <c r="B113" s="118">
         <v>72</v>
       </c>
       <c r="C113" s="10">
         <f>B120*B113</f>
         <v>3.857142857142857</v>
       </c>
-      <c r="D113" t="s" s="122">
-        <v>90</v>
-      </c>
-      <c r="E113" s="121">
+      <c r="D113" t="s" s="124">
+        <v>92</v>
+      </c>
+      <c r="E113" s="123">
         <v>148</v>
       </c>
       <c r="F113" s="10">
@@ -7418,10 +7430,10 @@
         <f>F120*F113</f>
         <v>3.322147651006711</v>
       </c>
-      <c r="H113" t="s" s="122">
-        <v>91</v>
-      </c>
-      <c r="I113" s="115"/>
+      <c r="H113" t="s" s="124">
+        <v>93</v>
+      </c>
+      <c r="I113" s="117"/>
       <c r="J113" s="10">
         <v>11</v>
       </c>
@@ -7429,8 +7441,8 @@
         <f>J120*J113</f>
         <v>1.549295774647887</v>
       </c>
-      <c r="L113" t="s" s="114">
-        <v>92</v>
+      <c r="L113" t="s" s="116">
+        <v>94</v>
       </c>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
@@ -7445,17 +7457,17 @@
       <c r="A114" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B114" s="116">
+      <c r="B114" s="118">
         <v>59</v>
       </c>
       <c r="C114" s="10">
         <f>B120*B114</f>
         <v>3.160714285714286</v>
       </c>
-      <c r="D114" t="s" s="122">
-        <v>93</v>
-      </c>
-      <c r="E114" s="121">
+      <c r="D114" t="s" s="124">
+        <v>95</v>
+      </c>
+      <c r="E114" s="123">
         <v>13</v>
       </c>
       <c r="F114" s="10">
@@ -7465,10 +7477,10 @@
         <f>F120*F114</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H114" t="s" s="122">
-        <v>94</v>
-      </c>
-      <c r="I114" s="121">
+      <c r="H114" t="s" s="124">
+        <v>96</v>
+      </c>
+      <c r="I114" s="123">
         <v>7</v>
       </c>
       <c r="J114" s="10">
@@ -7478,8 +7490,8 @@
         <f>J120*J114</f>
         <v>1.830985915492958</v>
       </c>
-      <c r="L114" t="s" s="114">
-        <v>95</v>
+      <c r="L114" t="s" s="116">
+        <v>97</v>
       </c>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
@@ -7492,20 +7504,20 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" s="11"/>
-      <c r="B115" s="116">
+      <c r="B115" s="118">
         <f>SUM(B109,B110,B111,B112,B113,B114)</f>
         <v>392</v>
       </c>
       <c r="C115" s="14"/>
-      <c r="D115" s="115"/>
-      <c r="E115" s="115"/>
+      <c r="D115" s="117"/>
+      <c r="E115" s="117"/>
       <c r="F115" s="10">
         <f>SUM(F109,F110,F111,F112,F113,F114)</f>
         <v>149</v>
       </c>
       <c r="G115" s="14"/>
-      <c r="H115" s="115"/>
-      <c r="I115" s="115"/>
+      <c r="H115" s="117"/>
+      <c r="I115" s="117"/>
       <c r="J115" s="10">
         <f>SUM(J109,J110,J111,J112,J113,J114)</f>
         <v>71</v>
@@ -7523,20 +7535,20 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="B116" s="116">
+        <v>68</v>
+      </c>
+      <c r="B116" s="118">
         <v>21</v>
       </c>
       <c r="C116" s="14"/>
-      <c r="D116" s="115"/>
-      <c r="E116" s="115"/>
+      <c r="D116" s="117"/>
+      <c r="E116" s="117"/>
       <c r="F116" s="10">
         <v>15</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="115"/>
-      <c r="I116" s="115"/>
+      <c r="H116" s="117"/>
+      <c r="I116" s="117"/>
       <c r="J116" s="10">
         <v>10</v>
       </c>
@@ -7553,20 +7565,20 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B117" s="116">
+        <v>69</v>
+      </c>
+      <c r="B117" s="118">
         <v>17</v>
       </c>
       <c r="C117" s="14"/>
-      <c r="D117" s="115"/>
-      <c r="E117" s="115"/>
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
       <c r="F117" s="10">
         <v>13</v>
       </c>
       <c r="G117" s="14"/>
-      <c r="H117" s="115"/>
-      <c r="I117" s="115"/>
+      <c r="H117" s="117"/>
+      <c r="I117" s="117"/>
       <c r="J117" s="10">
         <v>10</v>
       </c>
@@ -7583,20 +7595,20 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B118" s="116">
+        <v>70</v>
+      </c>
+      <c r="B118" s="118">
         <v>4</v>
       </c>
       <c r="C118" s="14"/>
-      <c r="D118" s="115"/>
-      <c r="E118" s="115"/>
+      <c r="D118" s="117"/>
+      <c r="E118" s="117"/>
       <c r="F118" s="10">
         <v>3</v>
       </c>
       <c r="G118" s="14"/>
-      <c r="H118" s="115"/>
-      <c r="I118" s="115"/>
+      <c r="H118" s="117"/>
+      <c r="I118" s="117"/>
       <c r="J118" s="10">
         <v>0</v>
       </c>
@@ -7613,20 +7625,20 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" s="11"/>
-      <c r="B119" s="116">
+      <c r="B119" s="118">
         <f>B117/(B118+B117)</f>
         <v>0.8095238095238095</v>
       </c>
       <c r="C119" s="14"/>
-      <c r="D119" s="115"/>
-      <c r="E119" s="115"/>
+      <c r="D119" s="117"/>
+      <c r="E119" s="117"/>
       <c r="F119" s="10">
         <f>F117/(F117+F118)</f>
         <v>0.8125</v>
       </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="115"/>
-      <c r="I119" s="115"/>
+      <c r="H119" s="117"/>
+      <c r="I119" s="117"/>
       <c r="J119" s="10">
         <v>1</v>
       </c>
@@ -7643,20 +7655,20 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" s="11"/>
-      <c r="B120" s="116">
+      <c r="B120" s="118">
         <f>B116/B115</f>
         <v>0.05357142857142857</v>
       </c>
       <c r="C120" s="14"/>
-      <c r="D120" s="115"/>
-      <c r="E120" s="115"/>
+      <c r="D120" s="117"/>
+      <c r="E120" s="117"/>
       <c r="F120" s="10">
         <f>F116/F115</f>
         <v>0.1006711409395973</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="115"/>
-      <c r="I120" s="115"/>
+      <c r="H120" s="117"/>
+      <c r="I120" s="117"/>
       <c r="J120" s="10">
         <f>J116/J115</f>
         <v>0.1408450704225352</v>
@@ -7676,12 +7688,12 @@
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
-      <c r="H121" s="115"/>
-      <c r="I121" s="115"/>
+      <c r="H121" s="117"/>
+      <c r="I121" s="117"/>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
@@ -10538,7 +10550,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -10560,7 +10572,11 @@
     <col min="12" max="12" width="16.3516" style="41" customWidth="1"/>
     <col min="13" max="13" width="16.3516" style="41" customWidth="1"/>
     <col min="14" max="14" width="16.3516" style="41" customWidth="1"/>
-    <col min="15" max="256" width="16.3516" style="41" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="41" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="41" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="41" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="41" customWidth="1"/>
+    <col min="19" max="256" width="16.3516" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.8" customHeight="1">
@@ -10582,6 +10598,10 @@
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
       <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="45">
@@ -10613,27 +10633,39 @@
         <v>33</v>
       </c>
       <c r="K2" t="s" s="45">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s" s="45">
         <v>34</v>
       </c>
-      <c r="L2" t="s" s="45">
+      <c r="M2" t="s" s="45">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s" s="45">
         <v>35</v>
       </c>
-      <c r="M2" t="s" s="45">
+      <c r="O2" t="s" s="45">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s" s="45">
         <v>36</v>
       </c>
-      <c r="N2" t="s" s="45">
+      <c r="Q2" t="s" s="45">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s" s="45">
         <v>37</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1">
       <c r="A3" t="s" s="47">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="48">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="49">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="50">
         <v>0.6</v>
@@ -10655,25 +10687,41 @@
         <v>1</v>
       </c>
       <c r="K3" s="50">
-        <v>0.8</v>
+        <f>J3*5</f>
+        <v>5</v>
       </c>
       <c r="L3" s="50">
         <v>0.8</v>
       </c>
       <c r="M3" s="50">
+        <f>L3*10</f>
+        <v>8</v>
+      </c>
+      <c r="N3" s="50">
         <v>0.8</v>
       </c>
-      <c r="N3" s="50">
+      <c r="O3" s="50">
+        <f>N3*15</f>
+        <v>12</v>
+      </c>
+      <c r="P3" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>P3*20</f>
+        <v>16</v>
+      </c>
+      <c r="R3" s="50">
         <v>0.76</v>
       </c>
     </row>
     <row r="4" ht="16.8" customHeight="1">
       <c r="A4" s="51"/>
       <c r="B4" t="s" s="52">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="53">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="54">
         <v>1</v>
@@ -10695,25 +10743,41 @@
         <v>1</v>
       </c>
       <c r="K4" s="56">
-        <v>1</v>
+        <f>J4*5</f>
+        <v>5</v>
       </c>
       <c r="L4" s="56">
         <v>1</v>
       </c>
       <c r="M4" s="56">
+        <f>L4*10</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="56">
+        <v>1</v>
+      </c>
+      <c r="O4" s="56">
+        <f>N4*15</f>
+        <v>15</v>
+      </c>
+      <c r="P4" s="56">
         <v>0.95</v>
       </c>
-      <c r="N4" s="56">
+      <c r="Q4" s="56">
+        <f>P4*20</f>
+        <v>19</v>
+      </c>
+      <c r="R4" s="56">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" ht="16.8" customHeight="1">
       <c r="A5" s="57"/>
       <c r="B5" t="s" s="52">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="54">
         <v>1</v>
@@ -10735,25 +10799,41 @@
         <v>1</v>
       </c>
       <c r="K5" s="56">
+        <f>J5*5</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="56">
         <v>1</v>
       </c>
-      <c r="L5" s="56">
+      <c r="M5" s="56">
+        <f>L5*10</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="56">
         <v>0.8</v>
       </c>
-      <c r="M5" s="56">
+      <c r="O5" s="56">
+        <f>N5*15</f>
+        <v>12</v>
+      </c>
+      <c r="P5" s="56">
         <v>0.85</v>
       </c>
-      <c r="N5" s="56">
+      <c r="Q5" s="56">
+        <f>P5*20</f>
+        <v>17</v>
+      </c>
+      <c r="R5" s="56">
         <v>0.86</v>
       </c>
     </row>
     <row r="6" ht="16.8" customHeight="1">
       <c r="A6" s="57"/>
       <c r="B6" t="s" s="52">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="53">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="54">
         <v>1</v>
@@ -10775,25 +10855,41 @@
         <v>1</v>
       </c>
       <c r="K6" s="56">
+        <f>J6*5</f>
+        <v>5</v>
+      </c>
+      <c r="L6" s="56">
         <v>0.7</v>
       </c>
-      <c r="L6" s="56">
+      <c r="M6" s="56">
+        <f>L6*10</f>
+        <v>7</v>
+      </c>
+      <c r="N6" s="56">
         <v>0.7333333333333333</v>
       </c>
-      <c r="M6" s="56">
+      <c r="O6" s="56">
+        <f>N6*15</f>
+        <v>11</v>
+      </c>
+      <c r="P6" s="56">
         <v>0.7</v>
       </c>
-      <c r="N6" s="56">
+      <c r="Q6" s="56">
+        <f>P6*20</f>
+        <v>14</v>
+      </c>
+      <c r="R6" s="56">
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="7" ht="16.8" customHeight="1">
       <c r="A7" s="57"/>
       <c r="B7" t="s" s="52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s" s="53">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="56">
         <v>0.8</v>
@@ -10815,25 +10911,41 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="56">
+        <f>J7*5</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="56">
         <v>0.8</v>
       </c>
-      <c r="L7" s="56">
+      <c r="M7" s="56">
+        <f>L7*10</f>
+        <v>8</v>
+      </c>
+      <c r="N7" s="56">
         <v>0.8666666666666667</v>
       </c>
-      <c r="M7" s="56">
+      <c r="O7" s="56">
+        <f>N7*15</f>
+        <v>13</v>
+      </c>
+      <c r="P7" s="56">
         <v>0.8</v>
       </c>
-      <c r="N7" s="56">
+      <c r="Q7" s="56">
+        <f>P7*20</f>
+        <v>16</v>
+      </c>
+      <c r="R7" s="56">
         <v>0.78</v>
       </c>
     </row>
     <row r="8" ht="16.8" customHeight="1">
       <c r="A8" s="51"/>
       <c r="B8" t="s" s="52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="56">
         <v>0.8</v>
@@ -10855,15 +10967,31 @@
         <v>0.8</v>
       </c>
       <c r="K8" s="56">
+        <f>J8*5</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="56">
         <v>0.8</v>
       </c>
-      <c r="L8" s="56">
+      <c r="M8" s="56">
+        <f>L8*10</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="56">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M8" s="56">
+      <c r="O8" s="56">
+        <f>N8*15</f>
+        <v>10</v>
+      </c>
+      <c r="P8" s="56">
         <v>0.75</v>
       </c>
-      <c r="N8" s="56">
+      <c r="Q8" s="56">
+        <f>P8*20</f>
+        <v>15</v>
+      </c>
+      <c r="R8" s="56">
         <v>0.7407407407407407</v>
       </c>
     </row>
@@ -10898,30 +11026,46 @@
       </c>
       <c r="K9" s="61">
         <f>AVERAGE(K3,K4,K5,K6,K7,K8)</f>
-        <v>0.85</v>
+        <v>4.5</v>
       </c>
       <c r="L9" s="61">
         <f>AVERAGE(L3,L4,L5,L6,L7,L8)</f>
-        <v>0.8111111111111112</v>
+        <v>0.85</v>
       </c>
       <c r="M9" s="61">
         <f>AVERAGE(M3,M4,M5,M6,M7,M8)</f>
-        <v>0.8083333333333332</v>
+        <v>8.5</v>
       </c>
       <c r="N9" s="61">
         <f>AVERAGE(N3,N4,N5,N6,N7,N8)</f>
+        <v>0.8111111111111112</v>
+      </c>
+      <c r="O9" s="61">
+        <f>AVERAGE(O3,O4,O5,O6,O7,O8)</f>
+        <v>12.16666666666667</v>
+      </c>
+      <c r="P9" s="61">
+        <f>AVERAGE(P3,P4,P5,P6,P7,P8)</f>
+        <v>0.8083333333333332</v>
+      </c>
+      <c r="Q9" s="61">
+        <f>AVERAGE(Q3,Q4,Q5,Q6,Q7,Q8)</f>
+        <v>16.16666666666667</v>
+      </c>
+      <c r="R9" s="61">
+        <f>AVERAGE(R3,R4,R5,R6,R7,R8)</f>
         <v>0.7925044091710758</v>
       </c>
     </row>
     <row r="10" ht="16.8" customHeight="1">
       <c r="A10" t="s" s="63">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s" s="52">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="53">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="56">
         <v>0.8</v>
@@ -10943,25 +11087,41 @@
         <v>0.4</v>
       </c>
       <c r="K10" s="56">
+        <f>J10*5</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="56">
         <v>0.5</v>
       </c>
-      <c r="L10" s="56">
+      <c r="M10" s="56">
+        <f>L10*10</f>
+        <v>5</v>
+      </c>
+      <c r="N10" s="56">
         <v>0.5333333333333333</v>
       </c>
-      <c r="M10" s="56">
+      <c r="O10" s="56">
+        <f>N10*15</f>
+        <v>8</v>
+      </c>
+      <c r="P10" s="56">
         <v>0.4</v>
       </c>
-      <c r="N10" s="56">
+      <c r="Q10" s="56">
+        <f>P10*20</f>
+        <v>8</v>
+      </c>
+      <c r="R10" s="56">
         <v>0.6</v>
       </c>
     </row>
     <row r="11" ht="16.8" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" t="s" s="52">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="53">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="54">
         <v>1</v>
@@ -10983,25 +11143,41 @@
         <v>1</v>
       </c>
       <c r="K11" s="56">
+        <f>J11*5</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="56">
         <v>1</v>
       </c>
-      <c r="L11" s="56">
+      <c r="M11" s="56">
+        <f>L11*10</f>
+        <v>10</v>
+      </c>
+      <c r="N11" s="56">
         <v>0.8</v>
       </c>
-      <c r="M11" s="56">
+      <c r="O11" s="56">
+        <f>N11*15</f>
+        <v>12</v>
+      </c>
+      <c r="P11" s="56">
         <v>0.6</v>
       </c>
-      <c r="N11" s="56">
+      <c r="Q11" s="56">
+        <f>P11*20</f>
+        <v>12</v>
+      </c>
+      <c r="R11" s="56">
         <v>0.68</v>
       </c>
     </row>
     <row r="12" ht="16.8" customHeight="1">
       <c r="A12" s="64"/>
       <c r="B12" t="s" s="52">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s" s="53">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="54">
         <v>0.8</v>
@@ -11023,25 +11199,41 @@
         <v>0.8</v>
       </c>
       <c r="K12" s="56">
+        <f>J12*5</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="56">
         <v>0.7</v>
       </c>
-      <c r="L12" s="56">
+      <c r="M12" s="56">
+        <f>L12*10</f>
+        <v>7</v>
+      </c>
+      <c r="N12" s="56">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M12" s="56">
+      <c r="O12" s="56">
+        <f>N12*15</f>
+        <v>10</v>
+      </c>
+      <c r="P12" s="56">
         <v>0.7</v>
       </c>
-      <c r="N12" s="56">
+      <c r="Q12" s="56">
+        <f>P12*20</f>
+        <v>14</v>
+      </c>
+      <c r="R12" s="56">
         <v>0.7</v>
       </c>
     </row>
     <row r="13" ht="16.8" customHeight="1">
       <c r="A13" s="57"/>
       <c r="B13" t="s" s="52">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s" s="53">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="54">
         <v>1</v>
@@ -11063,25 +11255,41 @@
         <v>0.6</v>
       </c>
       <c r="K13" s="56">
+        <f>J13*5</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="56">
         <v>0.7</v>
       </c>
-      <c r="L13" s="56">
+      <c r="M13" s="56">
+        <f>L13*10</f>
+        <v>7</v>
+      </c>
+      <c r="N13" s="56">
         <v>0.4666666666666667</v>
       </c>
-      <c r="M13" s="56">
+      <c r="O13" s="56">
+        <f>N13*15</f>
+        <v>7</v>
+      </c>
+      <c r="P13" s="56">
         <v>0.35</v>
       </c>
-      <c r="N13" s="56">
+      <c r="Q13" s="56">
+        <f>P13*20</f>
+        <v>7</v>
+      </c>
+      <c r="R13" s="56">
         <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14" ht="16.8" customHeight="1">
       <c r="A14" s="57"/>
       <c r="B14" t="s" s="52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s" s="53">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="56">
         <v>0.6</v>
@@ -11103,25 +11311,41 @@
         <v>0.4</v>
       </c>
       <c r="K14" s="56">
-        <v>0.6</v>
+        <f>J14*5</f>
+        <v>2</v>
       </c>
       <c r="L14" s="56">
         <v>0.6</v>
       </c>
       <c r="M14" s="56">
+        <f>L14*10</f>
+        <v>6</v>
+      </c>
+      <c r="N14" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="O14" s="56">
+        <f>N14*15</f>
+        <v>9</v>
+      </c>
+      <c r="P14" s="56">
         <v>0.7</v>
       </c>
-      <c r="N14" s="56">
+      <c r="Q14" s="56">
+        <f>P14*20</f>
+        <v>14</v>
+      </c>
+      <c r="R14" s="56">
         <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="15" ht="16.8" customHeight="1">
       <c r="A15" s="57"/>
       <c r="B15" t="s" s="52">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="53">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="54">
         <v>1</v>
@@ -11143,15 +11367,31 @@
         <v>1</v>
       </c>
       <c r="K15" s="56">
-        <v>1</v>
+        <f>J15*5</f>
+        <v>5</v>
       </c>
       <c r="L15" s="56">
         <v>1</v>
       </c>
       <c r="M15" s="56">
+        <f>L15*10</f>
+        <v>10</v>
+      </c>
+      <c r="N15" s="56">
         <v>1</v>
       </c>
-      <c r="N15" s="56">
+      <c r="O15" s="56">
+        <f>N15*15</f>
+        <v>15</v>
+      </c>
+      <c r="P15" s="56">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="56">
+        <f>P15*20</f>
+        <v>20</v>
+      </c>
+      <c r="R15" s="56">
         <v>0.5</v>
       </c>
     </row>
@@ -11186,18 +11426,34 @@
       </c>
       <c r="K16" s="61">
         <f>AVERAGE(K10,K11,K12,K13,K14,K15)</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="L16" s="61">
         <f>AVERAGE(L10,L11,L12,L13,L14,L15)</f>
-        <v>0.6777777777777777</v>
+        <v>0.75</v>
       </c>
       <c r="M16" s="61">
         <f>AVERAGE(M10,M11,M12,M13,M14,M15)</f>
-        <v>0.625</v>
+        <v>7.5</v>
       </c>
       <c r="N16" s="61">
         <f>AVERAGE(N10,N11,N12,N13,N14,N15)</f>
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="O16" s="61">
+        <f>AVERAGE(O10,O11,O12,O13,O14,O15)</f>
+        <v>10.16666666666667</v>
+      </c>
+      <c r="P16" s="61">
+        <f>AVERAGE(P10,P11,P12,P13,P14,P15)</f>
+        <v>0.625</v>
+      </c>
+      <c r="Q16" s="61">
+        <f>AVERAGE(Q10,Q11,Q12,Q13,Q14,Q15)</f>
+        <v>12.5</v>
+      </c>
+      <c r="R16" s="61">
+        <f>AVERAGE(R10,R11,R12,R13,R14,R15)</f>
         <v>0.5916959064327486</v>
       </c>
     </row>
@@ -11216,6 +11472,10 @@
       <c r="L17" s="56"/>
       <c r="M17" s="56"/>
       <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" ht="16.8" customHeight="1">
       <c r="A18" s="51"/>
@@ -11224,14 +11484,22 @@
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
+      <c r="G18" s="33"/>
+      <c r="H18" t="s" s="68">
+        <v>52</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" t="s" s="69">
+        <v>3</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
     </row>
     <row r="19" ht="16.8" customHeight="1">
       <c r="A19" s="51"/>
@@ -11241,15 +11509,39 @@
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-    </row>
-    <row r="20" ht="16.8" customHeight="1">
+      <c r="H19" t="s" s="68">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s" s="68">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s" s="68">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s" s="68">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s" s="68">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s" s="68">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s" s="68">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s" s="68">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s" s="68">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="s" s="68">
+        <v>38</v>
+      </c>
+      <c r="R19" s="56"/>
+    </row>
+    <row r="20" ht="31.8" customHeight="1">
       <c r="A20" s="57"/>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -11257,15 +11549,39 @@
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-    </row>
-    <row r="21" ht="16.8" customHeight="1">
+      <c r="H20" t="s" s="53">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="53">
+        <v>41</v>
+      </c>
+      <c r="J20" s="56">
+        <v>1</v>
+      </c>
+      <c r="K20" s="56">
+        <v>5</v>
+      </c>
+      <c r="L20" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="56">
+        <v>6</v>
+      </c>
+      <c r="N20" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="O20" s="56">
+        <v>9</v>
+      </c>
+      <c r="P20" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="56">
+        <v>10</v>
+      </c>
+      <c r="R20" s="56"/>
+    </row>
+    <row r="21" ht="31.8" customHeight="1">
       <c r="A21" s="64"/>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -11273,15 +11589,39 @@
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-    </row>
-    <row r="22" ht="16.8" customHeight="1">
+      <c r="H21" t="s" s="53">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s" s="53">
+        <v>43</v>
+      </c>
+      <c r="J21" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="K21" s="56">
+        <v>3</v>
+      </c>
+      <c r="L21" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="56">
+        <v>5</v>
+      </c>
+      <c r="N21" s="56">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="O21" s="56">
+        <v>8</v>
+      </c>
+      <c r="P21" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="Q21" s="56">
+        <v>13</v>
+      </c>
+      <c r="R21" s="56"/>
+    </row>
+    <row r="22" ht="31.8" customHeight="1">
       <c r="A22" s="64"/>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -11289,15 +11629,39 @@
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-    </row>
-    <row r="23" ht="16.8" customHeight="1">
+      <c r="H22" t="s" s="53">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s" s="53">
+        <v>45</v>
+      </c>
+      <c r="J22" s="56">
+        <v>1</v>
+      </c>
+      <c r="K22" s="56">
+        <v>5</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="56">
+        <v>8</v>
+      </c>
+      <c r="N22" s="56">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="O22" s="56">
+        <v>13</v>
+      </c>
+      <c r="P22" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>15</v>
+      </c>
+      <c r="R22" s="56"/>
+    </row>
+    <row r="23" ht="31.8" customHeight="1">
       <c r="A23" s="64"/>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -11305,33 +11669,166 @@
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-    </row>
-    <row r="24" ht="16.8" customHeight="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
+      <c r="H23" t="s" s="53">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s" s="53">
+        <v>47</v>
+      </c>
+      <c r="J23" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="56">
+        <v>2</v>
+      </c>
+      <c r="L23" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="M23" s="56">
+        <v>4</v>
+      </c>
+      <c r="N23" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="O23" s="56">
+        <v>6</v>
+      </c>
+      <c r="P23" s="56">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>6</v>
+      </c>
+      <c r="R23" s="56"/>
+    </row>
+    <row r="24" ht="31.8" customHeight="1">
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="H24" t="s" s="53">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s" s="53">
+        <v>49</v>
+      </c>
+      <c r="J24" s="56">
+        <v>1</v>
+      </c>
+      <c r="K24" s="56">
+        <v>5</v>
+      </c>
+      <c r="L24" s="54">
+        <v>1</v>
+      </c>
+      <c r="M24" s="56">
+        <v>10</v>
+      </c>
+      <c r="N24" s="56">
+        <v>1</v>
+      </c>
+      <c r="O24" s="56">
+        <v>15</v>
+      </c>
+      <c r="P24" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>18</v>
+      </c>
+      <c r="R24" s="56"/>
+    </row>
+    <row r="25" ht="31.8" customHeight="1">
+      <c r="A25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" t="s" s="53">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s" s="53">
+        <v>51</v>
+      </c>
+      <c r="J25" s="56">
+        <v>1</v>
+      </c>
+      <c r="K25" s="56">
+        <v>5</v>
+      </c>
+      <c r="L25" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="56">
+        <v>8</v>
+      </c>
+      <c r="N25" s="56">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="O25" s="56">
+        <v>11</v>
+      </c>
+      <c r="P25" s="56">
+        <v>0.7</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>14</v>
+      </c>
+      <c r="R25" s="56"/>
+    </row>
+    <row r="26" ht="16.8" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="56">
+        <f>AVERAGE(J20,J21,J22,J23,J24,J25)</f>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K26" s="56">
+        <f>AVERAGE(K20,K21,K22,K23,K24,K25)</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="L26" s="56">
+        <f>AVERAGE(L20,L21,L22,L23,L24,L25)</f>
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="M26" s="56">
+        <f>AVERAGE(M20,M21,M22,M23,M24,M25)</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="N26" s="56">
+        <f>AVERAGE(N20,N21,N22,N23,N24,N25)</f>
+        <v>0.6888888888888888</v>
+      </c>
+      <c r="O26" s="56">
+        <f>AVERAGE(O20,O21,O22,O23,O24,O25)</f>
+        <v>10.33333333333333</v>
+      </c>
+      <c r="P26" s="56">
+        <f>AVERAGE(P20,P21,P22,P23,P24,P25)</f>
+        <v>0.642156862745098</v>
+      </c>
+      <c r="Q26" s="56">
+        <f>AVERAGE(Q20,Q21,Q22,Q23,Q24,Q25)</f>
+        <v>12.66666666666667</v>
+      </c>
+      <c r="R26" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:N1"/>
+  <mergeCells count="3">
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="J1:R1"/>
     <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -11355,36 +11852,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.9688" style="71" customWidth="1"/>
-    <col min="2" max="2" width="13.6719" style="71" customWidth="1"/>
-    <col min="3" max="3" width="14.8828" style="71" customWidth="1"/>
-    <col min="4" max="4" width="14.8828" style="71" customWidth="1"/>
-    <col min="5" max="5" width="14.8828" style="71" customWidth="1"/>
-    <col min="6" max="6" width="11.0781" style="71" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="71" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="71" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="71" customWidth="1"/>
-    <col min="10" max="10" width="14.8828" style="71" customWidth="1"/>
-    <col min="11" max="11" width="14.8828" style="71" customWidth="1"/>
-    <col min="12" max="12" width="14.8828" style="71" customWidth="1"/>
-    <col min="13" max="13" width="5.90625" style="71" customWidth="1"/>
-    <col min="14" max="14" width="14.8828" style="71" customWidth="1"/>
-    <col min="15" max="15" width="14.8828" style="71" customWidth="1"/>
-    <col min="16" max="16" width="14.8828" style="71" customWidth="1"/>
-    <col min="17" max="17" width="5.07812" style="71" customWidth="1"/>
-    <col min="18" max="18" width="14.8828" style="71" customWidth="1"/>
-    <col min="19" max="19" width="14.8828" style="71" customWidth="1"/>
-    <col min="20" max="20" width="5.07812" style="71" customWidth="1"/>
-    <col min="21" max="21" width="14.8828" style="71" customWidth="1"/>
-    <col min="22" max="22" width="14.8828" style="71" customWidth="1"/>
-    <col min="23" max="23" width="14.8828" style="71" customWidth="1"/>
-    <col min="24" max="24" width="5.07812" style="71" customWidth="1"/>
-    <col min="25" max="25" width="14.8828" style="71" customWidth="1"/>
-    <col min="26" max="26" width="14.8828" style="71" customWidth="1"/>
-    <col min="27" max="27" width="14.8828" style="71" customWidth="1"/>
-    <col min="28" max="28" width="14.8828" style="71" customWidth="1"/>
-    <col min="29" max="29" width="14.8828" style="71" customWidth="1"/>
-    <col min="30" max="256" width="16.3516" style="71" customWidth="1"/>
+    <col min="1" max="1" width="30.9688" style="73" customWidth="1"/>
+    <col min="2" max="2" width="13.6719" style="73" customWidth="1"/>
+    <col min="3" max="3" width="14.8828" style="73" customWidth="1"/>
+    <col min="4" max="4" width="14.8828" style="73" customWidth="1"/>
+    <col min="5" max="5" width="14.8828" style="73" customWidth="1"/>
+    <col min="6" max="6" width="11.0781" style="73" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="73" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="73" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="73" customWidth="1"/>
+    <col min="10" max="10" width="14.8828" style="73" customWidth="1"/>
+    <col min="11" max="11" width="14.8828" style="73" customWidth="1"/>
+    <col min="12" max="12" width="14.8828" style="73" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" style="73" customWidth="1"/>
+    <col min="14" max="14" width="14.8828" style="73" customWidth="1"/>
+    <col min="15" max="15" width="14.8828" style="73" customWidth="1"/>
+    <col min="16" max="16" width="14.8828" style="73" customWidth="1"/>
+    <col min="17" max="17" width="5.07812" style="73" customWidth="1"/>
+    <col min="18" max="18" width="14.8828" style="73" customWidth="1"/>
+    <col min="19" max="19" width="14.8828" style="73" customWidth="1"/>
+    <col min="20" max="20" width="5.07812" style="73" customWidth="1"/>
+    <col min="21" max="21" width="14.8828" style="73" customWidth="1"/>
+    <col min="22" max="22" width="14.8828" style="73" customWidth="1"/>
+    <col min="23" max="23" width="14.8828" style="73" customWidth="1"/>
+    <col min="24" max="24" width="5.07812" style="73" customWidth="1"/>
+    <col min="25" max="25" width="14.8828" style="73" customWidth="1"/>
+    <col min="26" max="26" width="14.8828" style="73" customWidth="1"/>
+    <col min="27" max="27" width="14.8828" style="73" customWidth="1"/>
+    <col min="28" max="28" width="14.8828" style="73" customWidth="1"/>
+    <col min="29" max="29" width="14.8828" style="73" customWidth="1"/>
+    <col min="30" max="256" width="16.3516" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.2" customHeight="1">
@@ -11394,47 +11891,47 @@
       <c r="B1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="72">
-        <v>52</v>
-      </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" t="s" s="74">
+      <c r="C1" t="s" s="74">
         <v>53</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" t="s" s="74">
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" t="s" s="76">
         <v>54</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" t="s" s="74">
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" t="s" s="76">
         <v>55</v>
       </c>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" t="s" s="74">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" t="s" s="76">
         <v>56</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" t="s" s="74">
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" t="s" s="76">
         <v>57</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" t="s" s="74">
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" t="s" s="76">
         <v>58</v>
       </c>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" t="s" s="76">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
     </row>
     <row r="2" ht="31.2" customHeight="1">
       <c r="A2" t="s" s="8">
@@ -11443,7 +11940,7 @@
       <c r="B2" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="77">
         <v>0.677</v>
       </c>
       <c r="D2" s="50">
@@ -11452,7 +11949,7 @@
       <c r="E2" s="50">
         <v>0.467</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="50">
         <v>0.674</v>
       </c>
@@ -11462,7 +11959,7 @@
       <c r="I2" s="50">
         <v>0.59</v>
       </c>
-      <c r="J2" s="76"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="50">
         <v>0.694</v>
       </c>
@@ -11472,7 +11969,7 @@
       <c r="M2" s="50">
         <v>0.63</v>
       </c>
-      <c r="N2" s="76"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="50">
         <v>0.702</v>
       </c>
@@ -11482,7 +11979,7 @@
       <c r="Q2" s="50">
         <v>0.623</v>
       </c>
-      <c r="R2" s="76"/>
+      <c r="R2" s="78"/>
       <c r="S2" s="50">
         <v>0.768</v>
       </c>
@@ -11492,7 +11989,7 @@
       <c r="U2" s="50">
         <v>0.748</v>
       </c>
-      <c r="V2" s="76"/>
+      <c r="V2" s="78"/>
       <c r="W2" s="50">
         <v>0.764</v>
       </c>
@@ -11502,7 +11999,7 @@
       <c r="Y2" s="50">
         <v>0.737</v>
       </c>
-      <c r="Z2" s="76"/>
+      <c r="Z2" s="78"/>
       <c r="AA2" s="50">
         <v>0.759</v>
       </c>
@@ -11520,7 +12017,7 @@
       <c r="B3" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="79">
         <v>0.833</v>
       </c>
       <c r="D3" s="56">
@@ -11597,7 +12094,7 @@
       <c r="B4" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="79">
         <v>0.614</v>
       </c>
       <c r="D4" s="56">
@@ -11674,7 +12171,7 @@
       <c r="B5" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="79">
         <v>0.696</v>
       </c>
       <c r="D5" s="56">
@@ -11751,7 +12248,7 @@
       <c r="B6" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="79">
         <v>0.658</v>
       </c>
       <c r="D6" s="56">
@@ -11828,7 +12325,7 @@
       <c r="B7" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="79">
         <v>0.7</v>
       </c>
       <c r="D7" s="56">
@@ -11899,8 +12396,8 @@
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="61">
         <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
         <v>0.6963333333333334</v>
@@ -11993,44 +12490,44 @@
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1" hidden="1">
-      <c r="A9" t="s" s="80">
+      <c r="A9" t="s" s="82">
         <v>25</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" t="s" s="82">
-        <v>56</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" t="s" s="84">
-        <v>54</v>
-      </c>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" t="s" s="84">
+        <v>57</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" t="s" s="86">
+        <v>55</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
     </row>
     <row r="10" ht="30.75" customHeight="1" hidden="1">
-      <c r="A10" s="86"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="32"/>
       <c r="C10" s="56">
         <v>0.727</v>
@@ -12041,7 +12538,7 @@
       <c r="E10" s="56">
         <v>0.621</v>
       </c>
-      <c r="F10" s="87"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="22">
         <v>0.6830000000000001</v>
       </c>
@@ -12073,7 +12570,7 @@
       <c r="AC10" s="33"/>
     </row>
     <row r="11" ht="30.75" customHeight="1" hidden="1">
-      <c r="A11" s="86"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="32"/>
       <c r="C11" s="56">
         <v>0.806</v>
@@ -12084,7 +12581,7 @@
       <c r="E11" s="56">
         <v>0.806</v>
       </c>
-      <c r="F11" s="87"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="22">
         <v>0.736</v>
       </c>
@@ -12116,7 +12613,7 @@
       <c r="AC11" s="33"/>
     </row>
     <row r="12" ht="30.75" customHeight="1" hidden="1">
-      <c r="A12" s="86"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="32"/>
       <c r="C12" s="56">
         <v>0.667</v>
@@ -12127,7 +12624,7 @@
       <c r="E12" s="56">
         <v>0.603</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="22">
         <v>0.6919999999999999</v>
       </c>
@@ -12159,7 +12656,7 @@
       <c r="AC12" s="33"/>
     </row>
     <row r="13" ht="30.75" customHeight="1" hidden="1">
-      <c r="A13" s="86"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="32"/>
       <c r="C13" s="56">
         <v>0.6919999999999999</v>
@@ -12170,7 +12667,7 @@
       <c r="E13" s="56">
         <v>0.632</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="89"/>
       <c r="G13" s="22">
         <v>0.8080000000000001</v>
       </c>
@@ -12202,7 +12699,7 @@
       <c r="AC13" s="33"/>
     </row>
     <row r="14" ht="30.75" customHeight="1" hidden="1">
-      <c r="A14" s="86"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="32"/>
       <c r="C14" s="56">
         <v>0.582</v>
@@ -12213,7 +12710,7 @@
       <c r="E14" s="56">
         <v>0.63</v>
       </c>
-      <c r="F14" s="87"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="22">
         <v>0.632</v>
       </c>
@@ -12245,7 +12742,7 @@
       <c r="AC14" s="33"/>
     </row>
     <row r="15" ht="30.75" customHeight="1" hidden="1">
-      <c r="A15" s="86"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="32"/>
       <c r="C15" s="56">
         <v>0.8129999999999999</v>
@@ -12256,7 +12753,7 @@
       <c r="E15" s="56">
         <v>0.743</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="22">
         <v>0.774</v>
       </c>
@@ -12288,8 +12785,8 @@
       <c r="AC15" s="33"/>
     </row>
     <row r="16" ht="30.75" customHeight="1" hidden="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="61">
         <f>AVERAGE(C10,C11,C12,C13,C14,C15)</f>
         <v>0.7145</v>
@@ -12302,7 +12799,7 @@
         <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
         <v>0.6725</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="24">
         <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
         <v>0.7208333333333332</v>
@@ -12315,7 +12812,7 @@
         <f>AVERAGE(I10,I11,I12,I13,I14,I15)</f>
         <v>0.6896666666666667</v>
       </c>
-      <c r="J16" s="91"/>
+      <c r="J16" s="93"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
@@ -12337,8 +12834,8 @@
       <c r="AC16" s="62"/>
     </row>
     <row r="17" ht="30.75" customHeight="1" hidden="1">
-      <c r="A17" t="s" s="80">
-        <v>59</v>
+      <c r="A17" t="s" s="82">
+        <v>60</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="56">
@@ -12350,7 +12847,7 @@
       <c r="E17" s="56">
         <v>0.636</v>
       </c>
-      <c r="F17" s="87"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="22">
         <v>0.654</v>
       </c>
@@ -12382,7 +12879,7 @@
       <c r="AC17" s="33"/>
     </row>
     <row r="18" ht="30.75" customHeight="1" hidden="1">
-      <c r="A18" s="86"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="32"/>
       <c r="C18" s="56">
         <v>0.74</v>
@@ -12393,7 +12890,7 @@
       <c r="E18" s="56">
         <v>0.745</v>
       </c>
-      <c r="F18" s="87"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="22">
         <v>0.733</v>
       </c>
@@ -12425,7 +12922,7 @@
       <c r="AC18" s="33"/>
     </row>
     <row r="19" ht="30.75" customHeight="1" hidden="1">
-      <c r="A19" s="86"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="32"/>
       <c r="C19" s="56">
         <v>0.571</v>
@@ -12436,7 +12933,7 @@
       <c r="E19" s="56">
         <v>0.234</v>
       </c>
-      <c r="F19" s="87"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="22">
         <v>0.433</v>
       </c>
@@ -12468,7 +12965,7 @@
       <c r="AC19" s="33"/>
     </row>
     <row r="20" ht="30.75" customHeight="1" hidden="1">
-      <c r="A20" s="86"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="32"/>
       <c r="C20" s="56">
         <v>0.667</v>
@@ -12479,7 +12976,7 @@
       <c r="E20" s="56">
         <v>0.538</v>
       </c>
-      <c r="F20" s="87"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="22">
         <v>0.68</v>
       </c>
@@ -12511,7 +13008,7 @@
       <c r="AC20" s="33"/>
     </row>
     <row r="21" ht="30.75" customHeight="1" hidden="1">
-      <c r="A21" s="86"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="32"/>
       <c r="C21" s="56">
         <v>0.67</v>
@@ -12522,7 +13019,7 @@
       <c r="E21" s="56">
         <v>0.742</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="22">
         <v>0.722</v>
       </c>
@@ -12554,7 +13051,7 @@
       <c r="AC21" s="33"/>
     </row>
     <row r="22" ht="30.75" customHeight="1" hidden="1">
-      <c r="A22" s="86"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="32"/>
       <c r="C22" s="56">
         <v>0.735</v>
@@ -12565,7 +13062,7 @@
       <c r="E22" s="56">
         <v>0.694</v>
       </c>
-      <c r="F22" s="87"/>
+      <c r="F22" s="89"/>
       <c r="G22" s="22">
         <v>0.833</v>
       </c>
@@ -12597,8 +13094,8 @@
       <c r="AC22" s="33"/>
     </row>
     <row r="23" ht="30.75" customHeight="1" hidden="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="61">
         <f>AVERAGE(C17,C18,C19,C20,C21,C22)</f>
         <v>0.6818333333333334</v>
@@ -12611,7 +13108,7 @@
         <f>AVERAGE(E17,E18,E19,E20,E21,E22)</f>
         <v>0.5981666666666666</v>
       </c>
-      <c r="F23" s="90"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="24">
         <f>AVERAGE(G17,G18,G19,G20,G21,G22)</f>
         <v>0.6758333333333333</v>
@@ -12624,7 +13121,7 @@
         <f>AVERAGE(I17,I18,I19,I20,I21,I22)</f>
         <v>0.5896666666666667</v>
       </c>
-      <c r="J23" s="91"/>
+      <c r="J23" s="93"/>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
@@ -12646,7 +13143,7 @@
       <c r="AC23" s="62"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" hidden="1">
-      <c r="A24" t="s" s="80">
+      <c r="A24" t="s" s="82">
         <v>27</v>
       </c>
       <c r="B24" s="32"/>
@@ -12659,7 +13156,7 @@
       <c r="E24" s="56">
         <v>0.754</v>
       </c>
-      <c r="F24" s="87"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="22">
         <v>0.745</v>
       </c>
@@ -12691,7 +13188,7 @@
       <c r="AC24" s="33"/>
     </row>
     <row r="25" ht="30.75" customHeight="1" hidden="1">
-      <c r="A25" s="86"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="32"/>
       <c r="C25" s="56">
         <v>0.738</v>
@@ -12702,7 +13199,7 @@
       <c r="E25" s="56">
         <v>0.795</v>
       </c>
-      <c r="F25" s="87"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="22">
         <v>0.747</v>
       </c>
@@ -12734,7 +13231,7 @@
       <c r="AC25" s="33"/>
     </row>
     <row r="26" ht="30.75" customHeight="1" hidden="1">
-      <c r="A26" s="86"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="32"/>
       <c r="C26" s="56">
         <v>0.742</v>
@@ -12745,7 +13242,7 @@
       <c r="E26" s="56">
         <v>0.667</v>
       </c>
-      <c r="F26" s="87"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="22">
         <v>0.727</v>
       </c>
@@ -12777,7 +13274,7 @@
       <c r="AC26" s="33"/>
     </row>
     <row r="27" ht="30.75" customHeight="1" hidden="1">
-      <c r="A27" s="86"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="32"/>
       <c r="C27" s="56">
         <v>0.652</v>
@@ -12788,7 +13285,7 @@
       <c r="E27" s="56">
         <v>0.556</v>
       </c>
-      <c r="F27" s="87"/>
+      <c r="F27" s="89"/>
       <c r="G27" s="22">
         <v>0.6820000000000001</v>
       </c>
@@ -12820,7 +13317,7 @@
       <c r="AC27" s="33"/>
     </row>
     <row r="28" ht="30.75" customHeight="1" hidden="1">
-      <c r="A28" s="86"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="32"/>
       <c r="C28" s="56">
         <v>0.621</v>
@@ -12831,7 +13328,7 @@
       <c r="E28" s="56">
         <v>0.663</v>
       </c>
-      <c r="F28" s="87"/>
+      <c r="F28" s="89"/>
       <c r="G28" s="22">
         <v>0.654</v>
       </c>
@@ -12863,7 +13360,7 @@
       <c r="AC28" s="33"/>
     </row>
     <row r="29" ht="30.75" customHeight="1" hidden="1">
-      <c r="A29" s="86"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="32"/>
       <c r="C29" s="56">
         <v>0.6820000000000001</v>
@@ -12874,7 +13371,7 @@
       <c r="E29" s="56">
         <v>0.5</v>
       </c>
-      <c r="F29" s="87"/>
+      <c r="F29" s="89"/>
       <c r="G29" s="22">
         <v>0.75</v>
       </c>
@@ -12906,8 +13403,8 @@
       <c r="AC29" s="33"/>
     </row>
     <row r="30" ht="30.75" customHeight="1" hidden="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="61">
         <f>AVERAGE(C24,C25,C26,C27,C28,C29)</f>
         <v>0.7028333333333334</v>
@@ -12920,7 +13417,7 @@
         <f>AVERAGE(E24,E25,E26,E27,E28,E29)</f>
         <v>0.6558333333333334</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="24">
         <f>AVERAGE(G24,G25,G26,G27,G28,G29)</f>
         <v>0.7174999999999999</v>
@@ -12933,7 +13430,7 @@
         <f>AVERAGE(I24,I25,I26,I27,I28,I29)</f>
         <v>0.6731666666666666</v>
       </c>
-      <c r="J30" s="91"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="62"/>
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
@@ -12955,7 +13452,7 @@
       <c r="AC30" s="62"/>
     </row>
     <row r="31" ht="30.75" customHeight="1" hidden="1">
-      <c r="A31" t="s" s="80">
+      <c r="A31" t="s" s="82">
         <v>28</v>
       </c>
       <c r="B31" s="32"/>
@@ -12968,7 +13465,7 @@
       <c r="E31" s="56">
         <v>0.606</v>
       </c>
-      <c r="F31" s="87"/>
+      <c r="F31" s="89"/>
       <c r="G31" s="22">
         <v>0.711</v>
       </c>
@@ -13000,7 +13497,7 @@
       <c r="AC31" s="33"/>
     </row>
     <row r="32" ht="30.75" customHeight="1" hidden="1">
-      <c r="A32" s="86"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="32"/>
       <c r="C32" s="56">
         <v>0.695</v>
@@ -13011,7 +13508,7 @@
       <c r="E32" s="56">
         <v>0.74</v>
       </c>
-      <c r="F32" s="87"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="22">
         <v>0.716</v>
       </c>
@@ -13043,7 +13540,7 @@
       <c r="AC32" s="33"/>
     </row>
     <row r="33" ht="30.75" customHeight="1" hidden="1">
-      <c r="A33" s="86"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="32"/>
       <c r="C33" s="56">
         <v>0.619</v>
@@ -13054,7 +13551,7 @@
       <c r="E33" s="56">
         <v>0.643</v>
       </c>
-      <c r="F33" s="87"/>
+      <c r="F33" s="89"/>
       <c r="G33" s="22">
         <v>0.635</v>
       </c>
@@ -13086,7 +13583,7 @@
       <c r="AC33" s="33"/>
     </row>
     <row r="34" ht="30.75" customHeight="1" hidden="1">
-      <c r="A34" s="86"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="32"/>
       <c r="C34" s="56">
         <v>0.522</v>
@@ -13097,7 +13594,7 @@
       <c r="E34" s="56">
         <v>0.444</v>
       </c>
-      <c r="F34" s="87"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="22">
         <v>0.515</v>
       </c>
@@ -13129,7 +13626,7 @@
       <c r="AC34" s="33"/>
     </row>
     <row r="35" ht="30.75" customHeight="1" hidden="1">
-      <c r="A35" s="86"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="32"/>
       <c r="C35" s="56">
         <v>0.6870000000000001</v>
@@ -13140,7 +13637,7 @@
       <c r="E35" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="F35" s="87"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="22">
         <v>0.747</v>
       </c>
@@ -13172,7 +13669,7 @@
       <c r="AC35" s="33"/>
     </row>
     <row r="36" ht="30.75" customHeight="1" hidden="1">
-      <c r="A36" s="86"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="32"/>
       <c r="C36" s="56">
         <v>0.724</v>
@@ -13183,7 +13680,7 @@
       <c r="E36" s="56">
         <v>0.627</v>
       </c>
-      <c r="F36" s="87"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="22">
         <v>0.724</v>
       </c>
@@ -13215,8 +13712,8 @@
       <c r="AC36" s="33"/>
     </row>
     <row r="37" ht="30.75" customHeight="1" hidden="1">
-      <c r="A37" s="88"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="61">
         <f>AVERAGE(C31,C32,C33,C34,C35,C36)</f>
         <v>0.6661666666666668</v>
@@ -13229,7 +13726,7 @@
         <f>AVERAGE(E31,E32,E33,E34,E35,E36)</f>
         <v>0.6244999999999999</v>
       </c>
-      <c r="F37" s="90"/>
+      <c r="F37" s="92"/>
       <c r="G37" s="24">
         <f>AVERAGE(G31,G32,G33,G34,G35,G36)</f>
         <v>0.6746666666666666</v>
@@ -13242,7 +13739,7 @@
         <f>AVERAGE(I31,I32,I33,I34,I35,I36)</f>
         <v>0.6578333333333334</v>
       </c>
-      <c r="J37" s="91"/>
+      <c r="J37" s="93"/>
       <c r="K37" s="62"/>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
@@ -13264,7 +13761,7 @@
       <c r="AC37" s="62"/>
     </row>
     <row r="38" ht="30.75" customHeight="1" hidden="1">
-      <c r="A38" t="s" s="80">
+      <c r="A38" t="s" s="82">
         <v>29</v>
       </c>
       <c r="B38" s="32"/>
@@ -13277,7 +13774,7 @@
       <c r="E38" s="56">
         <v>0.744</v>
       </c>
-      <c r="F38" s="87"/>
+      <c r="F38" s="89"/>
       <c r="G38" s="22">
         <v>0.833</v>
       </c>
@@ -13309,7 +13806,7 @@
       <c r="AC38" s="33"/>
     </row>
     <row r="39" ht="30.75" customHeight="1" hidden="1">
-      <c r="A39" s="86"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="32"/>
       <c r="C39" s="56">
         <v>0.767</v>
@@ -13320,7 +13817,7 @@
       <c r="E39" s="56">
         <v>0.772</v>
       </c>
-      <c r="F39" s="87"/>
+      <c r="F39" s="89"/>
       <c r="G39" s="22">
         <v>0.781</v>
       </c>
@@ -13352,7 +13849,7 @@
       <c r="AC39" s="33"/>
     </row>
     <row r="40" ht="30.75" customHeight="1" hidden="1">
-      <c r="A40" s="86"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="32"/>
       <c r="C40" s="56">
         <v>0.756</v>
@@ -13363,7 +13860,7 @@
       <c r="E40" s="56">
         <v>0.667</v>
       </c>
-      <c r="F40" s="87"/>
+      <c r="F40" s="89"/>
       <c r="G40" s="22">
         <v>0.6840000000000001</v>
       </c>
@@ -13395,7 +13892,7 @@
       <c r="AC40" s="33"/>
     </row>
     <row r="41" ht="30.75" customHeight="1" hidden="1">
-      <c r="A41" s="86"/>
+      <c r="A41" s="88"/>
       <c r="B41" s="32"/>
       <c r="C41" s="56">
         <v>0.72</v>
@@ -13406,7 +13903,7 @@
       <c r="E41" s="56">
         <v>0.643</v>
       </c>
-      <c r="F41" s="87"/>
+      <c r="F41" s="89"/>
       <c r="G41" s="22">
         <v>0.6919999999999999</v>
       </c>
@@ -13438,7 +13935,7 @@
       <c r="AC41" s="33"/>
     </row>
     <row r="42" ht="30.75" customHeight="1" hidden="1">
-      <c r="A42" s="86"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="32"/>
       <c r="C42" s="56">
         <v>0.655</v>
@@ -13449,7 +13946,7 @@
       <c r="E42" s="56">
         <v>0.671</v>
       </c>
-      <c r="F42" s="87"/>
+      <c r="F42" s="89"/>
       <c r="G42" s="22">
         <v>0.663</v>
       </c>
@@ -13481,7 +13978,7 @@
       <c r="AC42" s="33"/>
     </row>
     <row r="43" ht="30.75" customHeight="1" hidden="1">
-      <c r="A43" s="86"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="32"/>
       <c r="C43" s="56">
         <v>0.652</v>
@@ -13492,7 +13989,7 @@
       <c r="E43" s="56">
         <v>0.492</v>
       </c>
-      <c r="F43" s="87"/>
+      <c r="F43" s="89"/>
       <c r="G43" s="22">
         <v>0.727</v>
       </c>
@@ -13524,8 +14021,8 @@
       <c r="AC43" s="33"/>
     </row>
     <row r="44" ht="30.75" customHeight="1" hidden="1">
-      <c r="A44" s="88"/>
-      <c r="B44" s="89"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="61">
         <f>AVERAGE(C38,C39,C40,C41,C42,C43)</f>
         <v>0.7126666666666667</v>
@@ -13538,7 +14035,7 @@
         <f>AVERAGE(E38,E39,E40,E41,E42,E43)</f>
         <v>0.6648333333333333</v>
       </c>
-      <c r="F44" s="90"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="24">
         <f>AVERAGE(G38,G39,G40,G41,G42,G43)</f>
         <v>0.7300000000000001</v>
@@ -13551,7 +14048,7 @@
         <f>AVERAGE(I38,I39,I40,I41,I42,I43)</f>
         <v>0.7021666666666667</v>
       </c>
-      <c r="J44" s="91"/>
+      <c r="J44" s="93"/>
       <c r="K44" s="62"/>
       <c r="L44" s="62"/>
       <c r="M44" s="62"/>
@@ -13573,8 +14070,8 @@
       <c r="AC44" s="62"/>
     </row>
     <row r="45" ht="30.75" customHeight="1" hidden="1">
-      <c r="A45" t="s" s="80">
-        <v>51</v>
+      <c r="A45" t="s" s="82">
+        <v>52</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="56">
@@ -13586,7 +14083,7 @@
       <c r="E45" s="56">
         <v>0.5</v>
       </c>
-      <c r="F45" s="87"/>
+      <c r="F45" s="89"/>
       <c r="G45" s="22">
         <v>0.519</v>
       </c>
@@ -13618,7 +14115,7 @@
       <c r="AC45" s="33"/>
     </row>
     <row r="46" ht="30.75" customHeight="1" hidden="1">
-      <c r="A46" s="86"/>
+      <c r="A46" s="88"/>
       <c r="B46" s="32"/>
       <c r="C46" s="56">
         <v>0.6899999999999999</v>
@@ -13629,7 +14126,7 @@
       <c r="E46" s="56">
         <v>0.6850000000000001</v>
       </c>
-      <c r="F46" s="87"/>
+      <c r="F46" s="89"/>
       <c r="G46" s="22">
         <v>0.642</v>
       </c>
@@ -13661,7 +14158,7 @@
       <c r="AC46" s="33"/>
     </row>
     <row r="47" ht="30.75" customHeight="1" hidden="1">
-      <c r="A47" s="86"/>
+      <c r="A47" s="88"/>
       <c r="B47" s="32"/>
       <c r="C47" s="56">
         <v>0.466</v>
@@ -13672,7 +14169,7 @@
       <c r="E47" s="56">
         <v>0.48</v>
       </c>
-      <c r="F47" s="87"/>
+      <c r="F47" s="89"/>
       <c r="G47" s="22">
         <v>0.496</v>
       </c>
@@ -13704,7 +14201,7 @@
       <c r="AC47" s="33"/>
     </row>
     <row r="48" ht="30.75" customHeight="1" hidden="1">
-      <c r="A48" s="86"/>
+      <c r="A48" s="88"/>
       <c r="B48" s="32"/>
       <c r="C48" s="56">
         <v>0.333</v>
@@ -13715,7 +14212,7 @@
       <c r="E48" s="56">
         <v>0.269</v>
       </c>
-      <c r="F48" s="87"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="22">
         <v>0.467</v>
       </c>
@@ -13747,7 +14244,7 @@
       <c r="AC48" s="33"/>
     </row>
     <row r="49" ht="30.75" customHeight="1" hidden="1">
-      <c r="A49" s="86"/>
+      <c r="A49" s="88"/>
       <c r="B49" s="32"/>
       <c r="C49" s="56">
         <v>0.737</v>
@@ -13758,7 +14255,7 @@
       <c r="E49" s="56">
         <v>0.463</v>
       </c>
-      <c r="F49" s="87"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="22">
         <v>0.718</v>
       </c>
@@ -13790,7 +14287,7 @@
       <c r="AC49" s="33"/>
     </row>
     <row r="50" ht="30.75" customHeight="1" hidden="1">
-      <c r="A50" s="86"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="32"/>
       <c r="C50" s="56">
         <v>0.5</v>
@@ -13801,7 +14298,7 @@
       <c r="E50" s="56">
         <v>0.548</v>
       </c>
-      <c r="F50" s="87"/>
+      <c r="F50" s="89"/>
       <c r="G50" s="22">
         <v>0.5</v>
       </c>
@@ -13833,8 +14330,8 @@
       <c r="AC50" s="33"/>
     </row>
     <row r="51" ht="30.75" customHeight="1" hidden="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="61">
         <f>AVERAGE(C45,C46,C47,C48,C49,C50)</f>
         <v>0.5363333333333333</v>
@@ -13847,7 +14344,7 @@
         <f>AVERAGE(E45,E46,E47,E48,E49,E50)</f>
         <v>0.4908333333333334</v>
       </c>
-      <c r="F51" s="90"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="24">
         <f>AVERAGE(G45,G46,G47,G48,G49,G50)</f>
         <v>0.5570000000000001</v>
@@ -13860,7 +14357,7 @@
         <f>AVERAGE(I45,I46,I47,I48,I49,I50)</f>
         <v>0.5195</v>
       </c>
-      <c r="J51" s="91"/>
+      <c r="J51" s="93"/>
       <c r="K51" s="62"/>
       <c r="L51" s="62"/>
       <c r="M51" s="62"/>
@@ -13882,7 +14379,7 @@
       <c r="AC51" s="62"/>
     </row>
     <row r="52" ht="30.75" customHeight="1" hidden="1">
-      <c r="A52" s="86"/>
+      <c r="A52" s="88"/>
       <c r="B52" s="32"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -13913,7 +14410,7 @@
       <c r="AC52" s="33"/>
     </row>
     <row r="53" ht="30.75" customHeight="1" hidden="1">
-      <c r="A53" s="86"/>
+      <c r="A53" s="88"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
@@ -13944,7 +14441,7 @@
       <c r="AC53" s="33"/>
     </row>
     <row r="54" ht="30.75" customHeight="1" hidden="1">
-      <c r="A54" s="86"/>
+      <c r="A54" s="88"/>
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
@@ -13975,7 +14472,7 @@
       <c r="AC54" s="33"/>
     </row>
     <row r="55" ht="30.75" customHeight="1" hidden="1">
-      <c r="A55" s="86"/>
+      <c r="A55" s="88"/>
       <c r="B55" s="32"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
@@ -14006,7 +14503,7 @@
       <c r="AC55" s="33"/>
     </row>
     <row r="56" ht="30.75" customHeight="1" hidden="1">
-      <c r="A56" s="86"/>
+      <c r="A56" s="88"/>
       <c r="B56" s="32"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -14037,7 +14534,7 @@
       <c r="AC56" s="33"/>
     </row>
     <row r="57" ht="30.75" customHeight="1" hidden="1">
-      <c r="A57" s="86"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="32"/>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
@@ -14068,7 +14565,7 @@
       <c r="AC57" s="33"/>
     </row>
     <row r="58" ht="30.75" customHeight="1" hidden="1">
-      <c r="A58" s="86"/>
+      <c r="A58" s="88"/>
       <c r="B58" s="32"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
@@ -14099,7 +14596,7 @@
       <c r="AC58" s="33"/>
     </row>
     <row r="59" ht="30.75" customHeight="1" hidden="1">
-      <c r="A59" s="86"/>
+      <c r="A59" s="88"/>
       <c r="B59" s="32"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
@@ -14130,7 +14627,7 @@
       <c r="AC59" s="33"/>
     </row>
     <row r="60" ht="30.75" customHeight="1" hidden="1">
-      <c r="A60" s="86"/>
+      <c r="A60" s="88"/>
       <c r="B60" s="32"/>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
@@ -14161,7 +14658,7 @@
       <c r="AC60" s="33"/>
     </row>
     <row r="61" ht="30.75" customHeight="1" hidden="1">
-      <c r="A61" s="86"/>
+      <c r="A61" s="88"/>
       <c r="B61" s="32"/>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
@@ -14192,7 +14689,7 @@
       <c r="AC61" s="33"/>
     </row>
     <row r="62" ht="30.75" customHeight="1" hidden="1">
-      <c r="A62" s="86"/>
+      <c r="A62" s="88"/>
       <c r="B62" s="32"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
@@ -14223,7 +14720,7 @@
       <c r="AC62" s="33"/>
     </row>
     <row r="63" ht="30.75" customHeight="1" hidden="1">
-      <c r="A63" s="86"/>
+      <c r="A63" s="88"/>
       <c r="B63" s="32"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
@@ -14254,7 +14751,7 @@
       <c r="AC63" s="33"/>
     </row>
     <row r="64" ht="30.75" customHeight="1" hidden="1">
-      <c r="A64" s="86"/>
+      <c r="A64" s="88"/>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -14285,7 +14782,7 @@
       <c r="AC64" s="33"/>
     </row>
     <row r="65" ht="30.75" customHeight="1" hidden="1">
-      <c r="A65" s="86"/>
+      <c r="A65" s="88"/>
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -14316,7 +14813,7 @@
       <c r="AC65" s="33"/>
     </row>
     <row r="66" ht="30.75" customHeight="1" hidden="1">
-      <c r="A66" s="86"/>
+      <c r="A66" s="88"/>
       <c r="B66" s="32"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
@@ -14347,7 +14844,7 @@
       <c r="AC66" s="33"/>
     </row>
     <row r="67" ht="30.75" customHeight="1" hidden="1">
-      <c r="A67" s="86"/>
+      <c r="A67" s="88"/>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
@@ -14378,7 +14875,7 @@
       <c r="AC67" s="33"/>
     </row>
     <row r="68" ht="30.75" customHeight="1" hidden="1">
-      <c r="A68" s="86"/>
+      <c r="A68" s="88"/>
       <c r="B68" s="32"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -14409,7 +14906,7 @@
       <c r="AC68" s="33"/>
     </row>
     <row r="69" ht="30.75" customHeight="1" hidden="1">
-      <c r="A69" s="86"/>
+      <c r="A69" s="88"/>
       <c r="B69" s="32"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
@@ -14461,33 +14958,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="92" customWidth="1"/>
-    <col min="2" max="2" width="25.4453" style="92" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="92" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="92" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="92" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="92" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="92" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="94" customWidth="1"/>
+    <col min="2" max="2" width="25.4453" style="94" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="94" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="94" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="94" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="94" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="94" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
-      <c r="A1" t="s" s="74">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s" s="93">
+      <c r="A1" t="s" s="76">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s" s="95">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="93">
+      <c r="C1" t="s" s="95">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="74">
-        <v>56</v>
-      </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="D1" t="s" s="76">
+        <v>57</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" ht="26.7" customHeight="1">
-      <c r="A2" t="s" s="94">
+      <c r="A2" t="s" s="96">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="8">
@@ -14496,7 +14993,7 @@
       <c r="C2" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="77">
         <v>0.768</v>
       </c>
       <c r="E2" s="50">
@@ -14507,14 +15004,14 @@
       </c>
     </row>
     <row r="3" ht="26.7" customHeight="1">
-      <c r="A3" s="95"/>
+      <c r="A3" s="97"/>
       <c r="B3" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C3" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="79">
         <v>0.866</v>
       </c>
       <c r="E3" s="56">
@@ -14525,14 +15022,14 @@
       </c>
     </row>
     <row r="4" ht="26.7" customHeight="1">
-      <c r="A4" s="95"/>
+      <c r="A4" s="97"/>
       <c r="B4" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C4" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="79">
         <v>0.756</v>
       </c>
       <c r="E4" s="56">
@@ -14543,14 +15040,14 @@
       </c>
     </row>
     <row r="5" ht="26.7" customHeight="1">
-      <c r="A5" s="95"/>
+      <c r="A5" s="97"/>
       <c r="B5" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C5" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="79">
         <v>0.714</v>
       </c>
       <c r="E5" s="56">
@@ -14561,14 +15058,14 @@
       </c>
     </row>
     <row r="6" ht="26.7" customHeight="1">
-      <c r="A6" s="95"/>
+      <c r="A6" s="97"/>
       <c r="B6" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C6" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="79">
         <v>0.626</v>
       </c>
       <c r="E6" s="56">
@@ -14579,14 +15076,14 @@
       </c>
     </row>
     <row r="7" ht="38.7" customHeight="1">
-      <c r="A7" s="95"/>
+      <c r="A7" s="97"/>
       <c r="B7" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C7" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="79">
         <v>0.741</v>
       </c>
       <c r="E7" s="56">
@@ -14597,7 +15094,7 @@
       </c>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="86"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="61">
@@ -14614,7 +15111,7 @@
       </c>
     </row>
     <row r="9" ht="26.7" customHeight="1">
-      <c r="A9" t="s" s="96">
+      <c r="A9" t="s" s="98">
         <v>25</v>
       </c>
       <c r="B9" t="s" s="8">
@@ -14623,7 +15120,7 @@
       <c r="C9" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="79">
         <v>0.727</v>
       </c>
       <c r="E9" s="56">
@@ -14634,14 +15131,14 @@
       </c>
     </row>
     <row r="10" ht="26.7" customHeight="1">
-      <c r="A10" s="95"/>
+      <c r="A10" s="97"/>
       <c r="B10" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C10" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="79">
         <v>0.806</v>
       </c>
       <c r="E10" s="56">
@@ -14652,14 +15149,14 @@
       </c>
     </row>
     <row r="11" ht="26.7" customHeight="1">
-      <c r="A11" s="95"/>
+      <c r="A11" s="97"/>
       <c r="B11" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C11" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="79">
         <v>0.667</v>
       </c>
       <c r="E11" s="56">
@@ -14670,14 +15167,14 @@
       </c>
     </row>
     <row r="12" ht="26.7" customHeight="1">
-      <c r="A12" s="95"/>
+      <c r="A12" s="97"/>
       <c r="B12" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C12" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="79">
         <v>0.6919999999999999</v>
       </c>
       <c r="E12" s="56">
@@ -14688,14 +15185,14 @@
       </c>
     </row>
     <row r="13" ht="26.7" customHeight="1">
-      <c r="A13" s="95"/>
+      <c r="A13" s="97"/>
       <c r="B13" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C13" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D13" s="77">
+      <c r="D13" s="79">
         <v>0.582</v>
       </c>
       <c r="E13" s="56">
@@ -14706,14 +15203,14 @@
       </c>
     </row>
     <row r="14" ht="38.7" customHeight="1">
-      <c r="A14" s="95"/>
+      <c r="A14" s="97"/>
       <c r="B14" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C14" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="79">
         <v>0.8129999999999999</v>
       </c>
       <c r="E14" s="56">
@@ -14724,9 +15221,9 @@
       </c>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="61">
         <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
         <v>0.7145</v>
@@ -14741,8 +15238,8 @@
       </c>
     </row>
     <row r="16" ht="26.7" customHeight="1">
-      <c r="A16" t="s" s="96">
-        <v>59</v>
+      <c r="A16" t="s" s="98">
+        <v>62</v>
       </c>
       <c r="B16" t="s" s="8">
         <v>11</v>
@@ -14750,7 +15247,7 @@
       <c r="C16" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D16" s="77">
+      <c r="D16" s="79">
         <v>0.708</v>
       </c>
       <c r="E16" s="56">
@@ -14761,14 +15258,14 @@
       </c>
     </row>
     <row r="17" ht="26.7" customHeight="1">
-      <c r="A17" s="95"/>
+      <c r="A17" s="97"/>
       <c r="B17" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C17" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="79">
         <v>0.74</v>
       </c>
       <c r="E17" s="56">
@@ -14779,14 +15276,14 @@
       </c>
     </row>
     <row r="18" ht="26.7" customHeight="1">
-      <c r="A18" s="95"/>
+      <c r="A18" s="97"/>
       <c r="B18" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C18" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="79">
         <v>0.571</v>
       </c>
       <c r="E18" s="56">
@@ -14797,14 +15294,14 @@
       </c>
     </row>
     <row r="19" ht="26.7" customHeight="1">
-      <c r="A19" s="95"/>
+      <c r="A19" s="97"/>
       <c r="B19" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C19" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="79">
         <v>0.667</v>
       </c>
       <c r="E19" s="56">
@@ -14815,14 +15312,14 @@
       </c>
     </row>
     <row r="20" ht="26.7" customHeight="1">
-      <c r="A20" s="95"/>
+      <c r="A20" s="97"/>
       <c r="B20" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C20" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="79">
         <v>0.67</v>
       </c>
       <c r="E20" s="56">
@@ -14833,14 +15330,14 @@
       </c>
     </row>
     <row r="21" ht="38.7" customHeight="1">
-      <c r="A21" s="95"/>
+      <c r="A21" s="97"/>
       <c r="B21" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C21" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="79">
         <v>0.735</v>
       </c>
       <c r="E21" s="56">
@@ -14851,9 +15348,9 @@
       </c>
     </row>
     <row r="22" ht="14.7" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="61">
         <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
         <v>0.6818333333333334</v>
@@ -14868,7 +15365,7 @@
       </c>
     </row>
     <row r="23" ht="26.7" customHeight="1">
-      <c r="A23" t="s" s="96">
+      <c r="A23" t="s" s="98">
         <v>27</v>
       </c>
       <c r="B23" t="s" s="8">
@@ -14877,7 +15374,7 @@
       <c r="C23" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="79">
         <v>0.782</v>
       </c>
       <c r="E23" s="56">
@@ -14888,14 +15385,14 @@
       </c>
     </row>
     <row r="24" ht="26.7" customHeight="1">
-      <c r="A24" s="95"/>
+      <c r="A24" s="97"/>
       <c r="B24" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C24" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="79">
         <v>0.738</v>
       </c>
       <c r="E24" s="56">
@@ -14906,14 +15403,14 @@
       </c>
     </row>
     <row r="25" ht="26.7" customHeight="1">
-      <c r="A25" s="95"/>
+      <c r="A25" s="97"/>
       <c r="B25" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C25" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="79">
         <v>0.742</v>
       </c>
       <c r="E25" s="56">
@@ -14924,14 +15421,14 @@
       </c>
     </row>
     <row r="26" ht="26.7" customHeight="1">
-      <c r="A26" s="95"/>
+      <c r="A26" s="97"/>
       <c r="B26" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C26" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="79">
         <v>0.652</v>
       </c>
       <c r="E26" s="56">
@@ -14942,14 +15439,14 @@
       </c>
     </row>
     <row r="27" ht="26.7" customHeight="1">
-      <c r="A27" s="95"/>
+      <c r="A27" s="97"/>
       <c r="B27" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C27" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="79">
         <v>0.621</v>
       </c>
       <c r="E27" s="56">
@@ -14960,14 +15457,14 @@
       </c>
     </row>
     <row r="28" ht="38.7" customHeight="1">
-      <c r="A28" s="95"/>
+      <c r="A28" s="97"/>
       <c r="B28" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C28" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="79">
         <v>0.6820000000000001</v>
       </c>
       <c r="E28" s="56">
@@ -14978,9 +15475,9 @@
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="88"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="61">
         <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
         <v>0.7028333333333334</v>
@@ -14995,7 +15492,7 @@
       </c>
     </row>
     <row r="30" ht="26.7" customHeight="1">
-      <c r="A30" t="s" s="96">
+      <c r="A30" t="s" s="98">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="8">
@@ -15004,7 +15501,7 @@
       <c r="C30" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="79">
         <v>0.75</v>
       </c>
       <c r="E30" s="56">
@@ -15015,14 +15512,14 @@
       </c>
     </row>
     <row r="31" ht="26.7" customHeight="1">
-      <c r="A31" s="95"/>
+      <c r="A31" s="97"/>
       <c r="B31" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C31" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="79">
         <v>0.695</v>
       </c>
       <c r="E31" s="56">
@@ -15033,14 +15530,14 @@
       </c>
     </row>
     <row r="32" ht="26.7" customHeight="1">
-      <c r="A32" s="95"/>
+      <c r="A32" s="97"/>
       <c r="B32" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C32" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="79">
         <v>0.619</v>
       </c>
       <c r="E32" s="56">
@@ -15051,14 +15548,14 @@
       </c>
     </row>
     <row r="33" ht="26.7" customHeight="1">
-      <c r="A33" s="95"/>
+      <c r="A33" s="97"/>
       <c r="B33" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C33" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="79">
         <v>0.522</v>
       </c>
       <c r="E33" s="56">
@@ -15069,14 +15566,14 @@
       </c>
     </row>
     <row r="34" ht="26.7" customHeight="1">
-      <c r="A34" s="95"/>
+      <c r="A34" s="97"/>
       <c r="B34" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C34" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D34" s="79">
         <v>0.6870000000000001</v>
       </c>
       <c r="E34" s="56">
@@ -15087,14 +15584,14 @@
       </c>
     </row>
     <row r="35" ht="38.7" customHeight="1">
-      <c r="A35" s="95"/>
+      <c r="A35" s="97"/>
       <c r="B35" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C35" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="79">
         <v>0.724</v>
       </c>
       <c r="E35" s="56">
@@ -15105,9 +15602,9 @@
       </c>
     </row>
     <row r="36" ht="14.7" customHeight="1">
-      <c r="A36" s="88"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="98"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="61">
         <f>AVERAGE(D30,D31,D32,D33,D34,D35)</f>
         <v>0.6661666666666668</v>
@@ -15122,7 +15619,7 @@
       </c>
     </row>
     <row r="37" ht="26.7" customHeight="1">
-      <c r="A37" t="s" s="96">
+      <c r="A37" t="s" s="98">
         <v>29</v>
       </c>
       <c r="B37" t="s" s="8">
@@ -15131,7 +15628,7 @@
       <c r="C37" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="79">
         <v>0.726</v>
       </c>
       <c r="E37" s="56">
@@ -15142,14 +15639,14 @@
       </c>
     </row>
     <row r="38" ht="26.7" customHeight="1">
-      <c r="A38" s="95"/>
+      <c r="A38" s="97"/>
       <c r="B38" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C38" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D38" s="77">
+      <c r="D38" s="79">
         <v>0.767</v>
       </c>
       <c r="E38" s="56">
@@ -15160,14 +15657,14 @@
       </c>
     </row>
     <row r="39" ht="26.7" customHeight="1">
-      <c r="A39" s="95"/>
+      <c r="A39" s="97"/>
       <c r="B39" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C39" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="79">
         <v>0.756</v>
       </c>
       <c r="E39" s="56">
@@ -15178,14 +15675,14 @@
       </c>
     </row>
     <row r="40" ht="26.7" customHeight="1">
-      <c r="A40" s="95"/>
+      <c r="A40" s="97"/>
       <c r="B40" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C40" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D40" s="77">
+      <c r="D40" s="79">
         <v>0.72</v>
       </c>
       <c r="E40" s="56">
@@ -15196,14 +15693,14 @@
       </c>
     </row>
     <row r="41" ht="26.7" customHeight="1">
-      <c r="A41" s="95"/>
+      <c r="A41" s="97"/>
       <c r="B41" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C41" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D41" s="77">
+      <c r="D41" s="79">
         <v>0.655</v>
       </c>
       <c r="E41" s="56">
@@ -15214,14 +15711,14 @@
       </c>
     </row>
     <row r="42" ht="38.7" customHeight="1">
-      <c r="A42" s="95"/>
+      <c r="A42" s="97"/>
       <c r="B42" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C42" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D42" s="77">
+      <c r="D42" s="79">
         <v>0.652</v>
       </c>
       <c r="E42" s="56">
@@ -15232,9 +15729,9 @@
       </c>
     </row>
     <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" s="88"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="99"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="61">
         <f>AVERAGE(D37,D38,D39,D40,D41,D42)</f>
         <v>0.7126666666666667</v>
@@ -15270,15 +15767,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="100" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="100" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="100" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="100" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="100" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="100" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="100" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="100" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="100" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="102" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="102" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="102" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="102" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="102" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="102" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="102" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="102" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="102" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -15330,13 +15827,13 @@
       <c r="B3" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="103">
         <v>0.492</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="104">
         <v>0.508</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="105">
         <v>0.5</v>
       </c>
       <c r="F3" s="22">
@@ -15356,13 +15853,13 @@
       <c r="B4" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="79">
         <v>0.6899999999999999</v>
       </c>
       <c r="D4" s="56">
         <v>0.681</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="106">
         <v>0.6850000000000001</v>
       </c>
       <c r="F4" s="22">
@@ -15382,13 +15879,13 @@
       <c r="B5" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="79">
         <v>0.466</v>
       </c>
       <c r="D5" s="56">
         <v>0.495</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="106">
         <v>0.48</v>
       </c>
       <c r="F5" s="22">
@@ -15408,13 +15905,13 @@
       <c r="B6" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="79">
         <v>0.333</v>
       </c>
       <c r="D6" s="56">
         <v>0.226</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="106">
         <v>0.269</v>
       </c>
       <c r="F6" s="22">
@@ -15434,13 +15931,13 @@
       <c r="B7" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="79">
         <v>0.737</v>
       </c>
       <c r="D7" s="56">
         <v>0.337</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="106">
         <v>0.463</v>
       </c>
       <c r="F7" s="22">
@@ -15460,13 +15957,13 @@
       <c r="B8" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="79">
         <v>0.5</v>
       </c>
       <c r="D8" s="56">
         <v>0.605</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="106">
         <v>0.548</v>
       </c>
       <c r="F8" s="22">
@@ -15482,7 +15979,7 @@
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="105">
+      <c r="C9" s="107">
         <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
         <v>0.5363333333333333</v>
       </c>
@@ -15490,7 +15987,7 @@
         <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
         <v>0.4753333333333334</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="108">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
         <v>0.4908333333333334</v>
       </c>
@@ -15510,9 +16007,9 @@
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -15566,13 +16063,13 @@
       <c r="B13" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="103">
         <v>0.768</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="104">
         <v>0.729</v>
       </c>
-      <c r="E13" s="103">
+      <c r="E13" s="105">
         <v>0.748</v>
       </c>
       <c r="F13" s="22">
@@ -15592,13 +16089,13 @@
       <c r="B14" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="79">
         <v>0.866</v>
       </c>
       <c r="D14" s="56">
         <v>0.806</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="106">
         <v>0.835</v>
       </c>
       <c r="F14" s="22">
@@ -15618,13 +16115,13 @@
       <c r="B15" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="79">
         <v>0.756</v>
       </c>
       <c r="D15" s="56">
         <v>0.596</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="106">
         <v>0.667</v>
       </c>
       <c r="F15" s="22">
@@ -15644,13 +16141,13 @@
       <c r="B16" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="79">
         <v>0.714</v>
       </c>
       <c r="D16" s="56">
         <v>0.484</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="106">
         <v>0.577</v>
       </c>
       <c r="F16" s="22">
@@ -15670,13 +16167,13 @@
       <c r="B17" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="79">
         <v>0.626</v>
       </c>
       <c r="D17" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="106">
         <v>0.655</v>
       </c>
       <c r="F17" s="22">
@@ -15696,13 +16193,13 @@
       <c r="B18" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="79">
         <v>0.741</v>
       </c>
       <c r="D18" s="56">
         <v>0.526</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="106">
         <v>0.615</v>
       </c>
       <c r="F18" s="22">
@@ -15718,7 +16215,7 @@
     <row r="19" ht="14.7" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="105">
+      <c r="C19" s="107">
         <f>AVERAGE(C13,C14,C15,C16,C17,C18)</f>
         <v>0.7451666666666665</v>
       </c>
@@ -15726,7 +16223,7 @@
         <f>AVERAGE(D13,D14,D15,D16,D17,D18)</f>
         <v>0.638</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="108">
         <f>AVERAGE(E13,E14,E15,E16,E17,E18)</f>
         <v>0.6828333333333334</v>
       </c>
@@ -15785,24 +16282,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="108" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="108" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="108" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="108" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="108" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="108" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="108" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="108" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="108" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="108" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="108" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="108" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="108" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="108" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="108" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="108" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="108" customWidth="1"/>
-    <col min="18" max="256" width="16.3516" style="108" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="110" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="110" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="110" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="110" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="110" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="110" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="110" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="110" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="110" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="110" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="110" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="110" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="110" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="110" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="110" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="110" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="110" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -15896,13 +16393,13 @@
       <c r="B3" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="103">
         <v>0.768</v>
       </c>
-      <c r="D3" s="102">
+      <c r="D3" s="104">
         <v>0.729</v>
       </c>
-      <c r="E3" s="103">
+      <c r="E3" s="105">
         <v>0.748</v>
       </c>
       <c r="F3" s="22">
@@ -15949,13 +16446,13 @@
       <c r="B4" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="79">
         <v>0.866</v>
       </c>
       <c r="D4" s="56">
         <v>0.806</v>
       </c>
-      <c r="E4" s="104">
+      <c r="E4" s="106">
         <v>0.835</v>
       </c>
       <c r="F4" s="22">
@@ -16002,13 +16499,13 @@
       <c r="B5" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="79">
         <v>0.756</v>
       </c>
       <c r="D5" s="56">
         <v>0.596</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="106">
         <v>0.667</v>
       </c>
       <c r="F5" s="22">
@@ -16055,13 +16552,13 @@
       <c r="B6" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="79">
         <v>0.714</v>
       </c>
       <c r="D6" s="56">
         <v>0.484</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="106">
         <v>0.577</v>
       </c>
       <c r="F6" s="22">
@@ -16108,13 +16605,13 @@
       <c r="B7" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="79">
         <v>0.626</v>
       </c>
       <c r="D7" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="E7" s="104">
+      <c r="E7" s="106">
         <v>0.655</v>
       </c>
       <c r="F7" s="22">
@@ -16161,13 +16658,13 @@
       <c r="B8" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="79">
         <v>0.741</v>
       </c>
       <c r="D8" s="56">
         <v>0.526</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="106">
         <v>0.615</v>
       </c>
       <c r="F8" s="22">
@@ -16210,7 +16707,7 @@
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="105">
+      <c r="C9" s="107">
         <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
         <v>0.7451666666666665</v>
       </c>
@@ -16218,7 +16715,7 @@
         <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
         <v>0.638</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="108">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
         <v>0.6828333333333334</v>
       </c>
@@ -16348,57 +16845,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="109" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="109" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="109" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="109" customWidth="1"/>
-    <col min="5" max="5" width="12.3516" style="109" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="109" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="109" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="109" customWidth="1"/>
-    <col min="9" max="9" width="12.1719" style="109" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="109" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="109" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="109" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="109" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="109" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="111" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="111" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="111" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="111" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="111" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="111" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="111" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="111" customWidth="1"/>
+    <col min="9" max="9" width="12.1719" style="111" customWidth="1"/>
+    <col min="10" max="10" width="12.1719" style="111" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="111" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="111" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="111" customWidth="1"/>
+    <col min="14" max="256" width="16.3516" style="111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="110">
+      <c r="A1" t="s" s="112">
         <v>24</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="114"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s" s="113">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s" s="114">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="114">
+      <c r="B2" t="s" s="115">
         <v>64</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="C2" t="s" s="116">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s" s="116">
+        <v>66</v>
+      </c>
+      <c r="E2" s="117"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -16408,7 +16905,7 @@
       <c r="A3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="118">
         <v>38</v>
       </c>
       <c r="C3" s="10">
@@ -16417,11 +16914,11 @@
       <c r="D3" s="10">
         <v>8</v>
       </c>
-      <c r="E3" s="115"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -16431,7 +16928,7 @@
       <c r="A4" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="118">
         <v>83</v>
       </c>
       <c r="C4" s="10">
@@ -16440,11 +16937,11 @@
       <c r="D4" s="10">
         <v>17</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="117"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -16454,7 +16951,7 @@
       <c r="A5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="118">
         <v>31</v>
       </c>
       <c r="C5" s="10">
@@ -16463,11 +16960,11 @@
       <c r="D5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="115"/>
+      <c r="E5" s="117"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -16477,7 +16974,7 @@
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="118">
         <v>109</v>
       </c>
       <c r="C6" s="10">
@@ -16486,11 +16983,11 @@
       <c r="D6" s="10">
         <v>15</v>
       </c>
-      <c r="E6" s="115"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -16500,7 +16997,7 @@
       <c r="A7" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="118">
         <v>72</v>
       </c>
       <c r="C7" s="10">
@@ -16509,11 +17006,11 @@
       <c r="D7" s="10">
         <v>11</v>
       </c>
-      <c r="E7" s="115"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -16523,7 +17020,7 @@
       <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="118">
         <v>59</v>
       </c>
       <c r="C8" s="10">
@@ -16532,11 +17029,11 @@
       <c r="D8" s="10">
         <v>13</v>
       </c>
-      <c r="E8" s="115"/>
+      <c r="E8" s="117"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -16544,9 +17041,9 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="B9" s="116">
+        <v>67</v>
+      </c>
+      <c r="B9" s="118">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -16558,11 +17055,11 @@
         <f>SUM(D3,D4,D5,D6,D7,D8)</f>
         <v>71</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -16570,9 +17067,9 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="B10" s="116">
+        <v>68</v>
+      </c>
+      <c r="B10" s="118">
         <v>21</v>
       </c>
       <c r="C10" s="10">
@@ -16581,11 +17078,11 @@
       <c r="D10" s="10">
         <v>10</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="117"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -16593,9 +17090,9 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B11" s="116">
+        <v>69</v>
+      </c>
+      <c r="B11" s="118">
         <v>17</v>
       </c>
       <c r="C11" s="10">
@@ -16604,11 +17101,11 @@
       <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="115"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -16616,9 +17113,9 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B12" s="116">
+        <v>70</v>
+      </c>
+      <c r="B12" s="118">
         <v>4</v>
       </c>
       <c r="C12" s="10">
@@ -16627,11 +17124,11 @@
       <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="115"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -16639,7 +17136,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="116">
+      <c r="B13" s="118">
         <f>B11/(B12+B11)</f>
         <v>0.8095238095238095</v>
       </c>
@@ -16650,11 +17147,11 @@
       <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>

--- a/Experiment/实验结果.xlsx
+++ b/Experiment/实验结果.xlsx
@@ -113,9 +113,6 @@
     <t>WithoutLocation</t>
   </si>
   <si>
-    <t>Adaboost-Iterations=30</t>
-  </si>
-  <si>
     <t>Adaboost-Iterations=50</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
     <t>top5</t>
   </si>
   <si>
+    <t>num</t>
+  </si>
+  <si>
     <t>top10</t>
   </si>
   <si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>top20</t>
-  </si>
-  <si>
-    <t>top50</t>
-  </si>
-  <si>
-    <t>num</t>
   </si>
   <si>
     <t>All Features</t>
@@ -316,6 +310,12 @@
   <si>
     <t>19 57</t>
   </si>
+  <si>
+    <t>Adaboost-Iterations=30</t>
+  </si>
+  <si>
+    <t>top50</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -894,13 +894,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1042,6 +1129,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1054,6 +1144,9 @@
     <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1061,12 +1154,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1087,8 +1174,14 @@
     <xf numFmtId="0" fontId="10" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1096,28 +1189,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1133,9 +1214,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1275,6 +1353,84 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3237,68 +3393,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T122"/>
+  <dimension ref="A1:T139"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="119" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="119" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="119" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="119" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="119" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="119" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="119" customWidth="1"/>
-    <col min="8" max="8" width="15.6719" style="119" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="119" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="119" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="119" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="119" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="119" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="119" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="119" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="119" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="119" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="119" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="119" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="119" customWidth="1"/>
-    <col min="21" max="256" width="16.3516" style="119" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="116" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="116" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="116" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="116" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="116" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="116" customWidth="1"/>
+    <col min="8" max="8" width="15.6719" style="116" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="116" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="116" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="116" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="116" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="116" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="116" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="116" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="116" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="116" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="116" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="116" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="116" customWidth="1"/>
+    <col min="21" max="256" width="16.3516" style="116" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="112">
+      <c r="A1" t="s" s="109">
         <v>24</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="114"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="19">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="20">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s" s="16">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -3322,7 +3478,7 @@
       <c r="A3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="115">
         <v>38</v>
       </c>
       <c r="C3" s="10">
@@ -3350,7 +3506,7 @@
       <c r="A4" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="115">
         <v>83</v>
       </c>
       <c r="C4" s="10">
@@ -3378,7 +3534,7 @@
       <c r="A5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="115">
         <v>31</v>
       </c>
       <c r="C5" s="10">
@@ -3386,11 +3542,11 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" t="s" s="116">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s" s="116">
-        <v>74</v>
+      <c r="F5" t="s" s="113">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s" s="113">
+        <v>72</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -3410,7 +3566,7 @@
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="115">
         <v>109</v>
       </c>
       <c r="C6" s="10">
@@ -3418,11 +3574,11 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" t="s" s="116">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s" s="116">
-        <v>76</v>
+      <c r="F6" t="s" s="113">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s" s="113">
+        <v>74</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -3442,7 +3598,7 @@
       <c r="A7" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="115">
         <v>72</v>
       </c>
       <c r="C7" s="10">
@@ -3450,8 +3606,8 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" t="s" s="116">
-        <v>77</v>
+      <c r="F7" t="s" s="113">
+        <v>75</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3472,7 +3628,7 @@
       <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="115">
         <v>59</v>
       </c>
       <c r="C8" s="10">
@@ -3480,11 +3636,11 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" t="s" s="116">
-        <v>78</v>
-      </c>
-      <c r="G8" t="s" s="116">
-        <v>79</v>
+      <c r="F8" t="s" s="113">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s" s="113">
+        <v>77</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -3502,7 +3658,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="118">
+      <c r="B9" s="115">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -3580,33 +3736,33 @@
         <v>0</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" t="s" s="120">
+      <c r="C12" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" t="s" s="120">
+      <c r="F12" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" t="s" s="120">
+      <c r="I12" t="s" s="117">
         <v>3</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" t="s" s="120">
+      <c r="L12" t="s" s="117">
         <v>4</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" t="s" s="120">
+      <c r="O12" t="s" s="117">
         <v>5</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" t="s" s="120">
-        <v>80</v>
+      <c r="R12" t="s" s="117">
+        <v>78</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
@@ -4148,12 +4304,12 @@
         <v>25</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" t="s" s="120">
+      <c r="C22" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" t="s" s="120">
+      <c r="F22" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G22" s="14"/>
@@ -4480,10 +4636,10 @@
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="121"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="121"/>
+      <c r="F31" s="118"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -4504,12 +4660,12 @@
         <v>26</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" t="s" s="120">
+      <c r="C32" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" t="s" s="120">
+      <c r="F32" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G32" s="14"/>
@@ -4857,15 +5013,15 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" t="s" s="120">
+      <c r="C42" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" t="s" s="120">
+      <c r="F42" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G42" s="14"/>
@@ -5216,12 +5372,12 @@
         <v>27</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" t="s" s="120">
+      <c r="C52" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" t="s" s="120">
+      <c r="F52" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G52" s="14"/>
@@ -5548,10 +5704,10 @@
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="121"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="121"/>
+      <c r="F61" s="118"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -5572,12 +5728,12 @@
         <v>28</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" t="s" s="120">
+      <c r="C62" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" t="s" s="120">
+      <c r="F62" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G62" s="14"/>
@@ -5928,12 +6084,12 @@
         <v>29</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="C72" t="s" s="120">
+      <c r="C72" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="F72" t="s" s="120">
+      <c r="F72" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G72" s="14"/>
@@ -6281,15 +6437,15 @@
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" t="s" s="120">
+      <c r="C82" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" t="s" s="120">
+      <c r="F82" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G82" s="14"/>
@@ -6640,17 +6796,17 @@
         <v>23</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" t="s" s="120">
+      <c r="C92" t="s" s="117">
         <v>1</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
-      <c r="F92" t="s" s="120">
+      <c r="F92" t="s" s="117">
         <v>2</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
-      <c r="I92" t="s" s="120">
+      <c r="I92" t="s" s="117">
         <v>3</v>
       </c>
       <c r="J92" s="14"/>
@@ -7178,37 +7334,37 @@
     </row>
     <row r="108" ht="32.05" customHeight="1">
       <c r="A108" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="B108" t="s" s="112">
+        <v>62</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" t="s" s="119">
+        <v>81</v>
+      </c>
+      <c r="E108" t="s" s="119">
+        <v>82</v>
+      </c>
+      <c r="F108" t="s" s="113">
         <v>63</v>
       </c>
-      <c r="B108" t="s" s="115">
+      <c r="G108" s="14"/>
+      <c r="H108" t="s" s="119">
+        <v>81</v>
+      </c>
+      <c r="I108" t="s" s="119">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="113">
         <v>64</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" t="s" s="122">
-        <v>83</v>
-      </c>
-      <c r="E108" t="s" s="122">
-        <v>84</v>
-      </c>
-      <c r="F108" t="s" s="116">
-        <v>65</v>
-      </c>
-      <c r="G108" s="14"/>
-      <c r="H108" t="s" s="122">
-        <v>83</v>
-      </c>
-      <c r="I108" t="s" s="122">
-        <v>84</v>
-      </c>
-      <c r="J108" t="s" s="116">
-        <v>66</v>
-      </c>
       <c r="K108" s="14"/>
-      <c r="L108" t="s" s="116">
-        <v>83</v>
-      </c>
-      <c r="M108" t="s" s="116">
-        <v>84</v>
+      <c r="L108" t="s" s="113">
+        <v>81</v>
+      </c>
+      <c r="M108" t="s" s="113">
+        <v>82</v>
       </c>
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
@@ -7222,17 +7378,17 @@
       <c r="A109" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B109" s="118">
+      <c r="B109" s="115">
         <v>38</v>
       </c>
       <c r="C109" s="10">
         <f>B120*B109</f>
         <v>2.035714285714286</v>
       </c>
-      <c r="D109" s="123">
+      <c r="D109" s="120">
         <v>89</v>
       </c>
-      <c r="E109" s="123">
+      <c r="E109" s="120">
         <v>55</v>
       </c>
       <c r="F109" s="10">
@@ -7242,10 +7398,10 @@
         <f>F120*F109</f>
         <v>2.013422818791946</v>
       </c>
-      <c r="H109" s="123">
+      <c r="H109" s="120">
         <v>67</v>
       </c>
-      <c r="I109" s="123">
+      <c r="I109" s="120">
         <v>92</v>
       </c>
       <c r="J109" s="10">
@@ -7271,17 +7427,17 @@
       <c r="A110" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B110" s="118">
+      <c r="B110" s="115">
         <v>83</v>
       </c>
       <c r="C110" s="10">
         <f>B120*B110</f>
         <v>4.446428571428571</v>
       </c>
-      <c r="D110" t="s" s="124">
-        <v>85</v>
-      </c>
-      <c r="E110" s="123">
+      <c r="D110" t="s" s="121">
+        <v>83</v>
+      </c>
+      <c r="E110" s="120">
         <v>45</v>
       </c>
       <c r="F110" s="10">
@@ -7291,10 +7447,10 @@
         <f>F120*F110</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H110" t="s" s="124">
-        <v>86</v>
-      </c>
-      <c r="I110" s="117"/>
+      <c r="H110" t="s" s="121">
+        <v>84</v>
+      </c>
+      <c r="I110" s="114"/>
       <c r="J110" s="10">
         <v>17</v>
       </c>
@@ -7302,8 +7458,8 @@
         <f>J120*J110</f>
         <v>2.394366197183099</v>
       </c>
-      <c r="L110" t="s" s="116">
-        <v>87</v>
+      <c r="L110" t="s" s="113">
+        <v>85</v>
       </c>
       <c r="M110" s="14"/>
       <c r="N110" s="14"/>
@@ -7318,17 +7474,17 @@
       <c r="A111" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B111" s="118">
+      <c r="B111" s="115">
         <v>31</v>
       </c>
       <c r="C111" s="10">
         <f>B120*B111</f>
         <v>1.660714285714286</v>
       </c>
-      <c r="D111" t="s" s="124">
-        <v>88</v>
-      </c>
-      <c r="E111" s="117"/>
+      <c r="D111" t="s" s="121">
+        <v>86</v>
+      </c>
+      <c r="E111" s="114"/>
       <c r="F111" s="10">
         <v>10</v>
       </c>
@@ -7336,10 +7492,10 @@
         <f>F120*F111</f>
         <v>1.006711409395973</v>
       </c>
-      <c r="H111" s="123">
+      <c r="H111" s="120">
         <v>32</v>
       </c>
-      <c r="I111" s="117"/>
+      <c r="I111" s="114"/>
       <c r="J111" s="10">
         <v>7</v>
       </c>
@@ -7363,17 +7519,17 @@
       <c r="A112" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B112" s="118">
+      <c r="B112" s="115">
         <v>109</v>
       </c>
       <c r="C112" s="10">
         <f>B120*B112</f>
         <v>5.839285714285714</v>
       </c>
-      <c r="D112" t="s" s="124">
-        <v>89</v>
-      </c>
-      <c r="E112" s="117"/>
+      <c r="D112" t="s" s="121">
+        <v>87</v>
+      </c>
+      <c r="E112" s="114"/>
       <c r="F112" s="10">
         <v>36</v>
       </c>
@@ -7381,10 +7537,10 @@
         <f>F120*F112</f>
         <v>3.624161073825503</v>
       </c>
-      <c r="H112" t="s" s="124">
-        <v>90</v>
-      </c>
-      <c r="I112" s="123">
+      <c r="H112" t="s" s="121">
+        <v>88</v>
+      </c>
+      <c r="I112" s="120">
         <v>11</v>
       </c>
       <c r="J112" s="10">
@@ -7394,8 +7550,8 @@
         <f>J120*J112</f>
         <v>2.112676056338028</v>
       </c>
-      <c r="L112" t="s" s="116">
-        <v>91</v>
+      <c r="L112" t="s" s="113">
+        <v>89</v>
       </c>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>
@@ -7410,17 +7566,17 @@
       <c r="A113" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B113" s="118">
+      <c r="B113" s="115">
         <v>72</v>
       </c>
       <c r="C113" s="10">
         <f>B120*B113</f>
         <v>3.857142857142857</v>
       </c>
-      <c r="D113" t="s" s="124">
-        <v>92</v>
-      </c>
-      <c r="E113" s="123">
+      <c r="D113" t="s" s="121">
+        <v>90</v>
+      </c>
+      <c r="E113" s="120">
         <v>148</v>
       </c>
       <c r="F113" s="10">
@@ -7430,10 +7586,10 @@
         <f>F120*F113</f>
         <v>3.322147651006711</v>
       </c>
-      <c r="H113" t="s" s="124">
-        <v>93</v>
-      </c>
-      <c r="I113" s="117"/>
+      <c r="H113" t="s" s="121">
+        <v>91</v>
+      </c>
+      <c r="I113" s="114"/>
       <c r="J113" s="10">
         <v>11</v>
       </c>
@@ -7441,8 +7597,8 @@
         <f>J120*J113</f>
         <v>1.549295774647887</v>
       </c>
-      <c r="L113" t="s" s="116">
-        <v>94</v>
+      <c r="L113" t="s" s="113">
+        <v>92</v>
       </c>
       <c r="M113" s="14"/>
       <c r="N113" s="14"/>
@@ -7457,17 +7613,17 @@
       <c r="A114" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B114" s="118">
+      <c r="B114" s="115">
         <v>59</v>
       </c>
       <c r="C114" s="10">
         <f>B120*B114</f>
         <v>3.160714285714286</v>
       </c>
-      <c r="D114" t="s" s="124">
-        <v>95</v>
-      </c>
-      <c r="E114" s="123">
+      <c r="D114" t="s" s="121">
+        <v>93</v>
+      </c>
+      <c r="E114" s="120">
         <v>13</v>
       </c>
       <c r="F114" s="10">
@@ -7477,10 +7633,10 @@
         <f>F120*F114</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H114" t="s" s="124">
-        <v>96</v>
-      </c>
-      <c r="I114" s="123">
+      <c r="H114" t="s" s="121">
+        <v>94</v>
+      </c>
+      <c r="I114" s="120">
         <v>7</v>
       </c>
       <c r="J114" s="10">
@@ -7490,8 +7646,8 @@
         <f>J120*J114</f>
         <v>1.830985915492958</v>
       </c>
-      <c r="L114" t="s" s="116">
-        <v>97</v>
+      <c r="L114" t="s" s="113">
+        <v>95</v>
       </c>
       <c r="M114" s="14"/>
       <c r="N114" s="14"/>
@@ -7504,20 +7660,20 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" s="11"/>
-      <c r="B115" s="118">
+      <c r="B115" s="115">
         <f>SUM(B109,B110,B111,B112,B113,B114)</f>
         <v>392</v>
       </c>
       <c r="C115" s="14"/>
-      <c r="D115" s="117"/>
-      <c r="E115" s="117"/>
+      <c r="D115" s="114"/>
+      <c r="E115" s="114"/>
       <c r="F115" s="10">
         <f>SUM(F109,F110,F111,F112,F113,F114)</f>
         <v>149</v>
       </c>
       <c r="G115" s="14"/>
-      <c r="H115" s="117"/>
-      <c r="I115" s="117"/>
+      <c r="H115" s="114"/>
+      <c r="I115" s="114"/>
       <c r="J115" s="10">
         <f>SUM(J109,J110,J111,J112,J113,J114)</f>
         <v>71</v>
@@ -7535,20 +7691,20 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B116" s="118">
+        <v>66</v>
+      </c>
+      <c r="B116" s="115">
         <v>21</v>
       </c>
       <c r="C116" s="14"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="117"/>
+      <c r="D116" s="114"/>
+      <c r="E116" s="114"/>
       <c r="F116" s="10">
         <v>15</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="117"/>
-      <c r="I116" s="117"/>
+      <c r="H116" s="114"/>
+      <c r="I116" s="114"/>
       <c r="J116" s="10">
         <v>10</v>
       </c>
@@ -7565,20 +7721,20 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="B117" s="118">
+        <v>67</v>
+      </c>
+      <c r="B117" s="115">
         <v>17</v>
       </c>
       <c r="C117" s="14"/>
-      <c r="D117" s="117"/>
-      <c r="E117" s="117"/>
+      <c r="D117" s="114"/>
+      <c r="E117" s="114"/>
       <c r="F117" s="10">
         <v>13</v>
       </c>
       <c r="G117" s="14"/>
-      <c r="H117" s="117"/>
-      <c r="I117" s="117"/>
+      <c r="H117" s="114"/>
+      <c r="I117" s="114"/>
       <c r="J117" s="10">
         <v>10</v>
       </c>
@@ -7595,20 +7751,20 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="B118" s="118">
+        <v>68</v>
+      </c>
+      <c r="B118" s="115">
         <v>4</v>
       </c>
       <c r="C118" s="14"/>
-      <c r="D118" s="117"/>
-      <c r="E118" s="117"/>
+      <c r="D118" s="114"/>
+      <c r="E118" s="114"/>
       <c r="F118" s="10">
         <v>3</v>
       </c>
       <c r="G118" s="14"/>
-      <c r="H118" s="117"/>
-      <c r="I118" s="117"/>
+      <c r="H118" s="114"/>
+      <c r="I118" s="114"/>
       <c r="J118" s="10">
         <v>0</v>
       </c>
@@ -7625,20 +7781,20 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" s="11"/>
-      <c r="B119" s="118">
+      <c r="B119" s="115">
         <f>B117/(B118+B117)</f>
         <v>0.8095238095238095</v>
       </c>
       <c r="C119" s="14"/>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
+      <c r="D119" s="114"/>
+      <c r="E119" s="114"/>
       <c r="F119" s="10">
         <f>F117/(F117+F118)</f>
         <v>0.8125</v>
       </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="117"/>
-      <c r="I119" s="117"/>
+      <c r="H119" s="114"/>
+      <c r="I119" s="114"/>
       <c r="J119" s="10">
         <v>1</v>
       </c>
@@ -7655,20 +7811,20 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" s="11"/>
-      <c r="B120" s="118">
+      <c r="B120" s="115">
         <f>B116/B115</f>
         <v>0.05357142857142857</v>
       </c>
       <c r="C120" s="14"/>
-      <c r="D120" s="117"/>
-      <c r="E120" s="117"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
       <c r="F120" s="10">
         <f>F116/F115</f>
         <v>0.1006711409395973</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="117"/>
-      <c r="I120" s="117"/>
+      <c r="H120" s="114"/>
+      <c r="I120" s="114"/>
       <c r="J120" s="10">
         <f>J116/J115</f>
         <v>0.1408450704225352</v>
@@ -7688,12 +7844,12 @@
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
-      <c r="H121" s="117"/>
-      <c r="I121" s="117"/>
+      <c r="H121" s="114"/>
+      <c r="I121" s="114"/>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
@@ -7707,29 +7863,963 @@
       <c r="T121" s="14"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14"/>
-      <c r="Q122" s="14"/>
+      <c r="A122" s="122"/>
+      <c r="B122" s="123"/>
+      <c r="C122" s="123"/>
+      <c r="D122" t="s" s="124">
+        <v>96</v>
+      </c>
+      <c r="E122" s="125"/>
+      <c r="F122" s="125"/>
+      <c r="G122" s="125"/>
+      <c r="H122" s="125"/>
+      <c r="I122" t="s" s="124">
+        <v>30</v>
+      </c>
+      <c r="J122" s="125"/>
+      <c r="K122" s="125"/>
+      <c r="L122" s="125"/>
+      <c r="M122" s="125"/>
+      <c r="N122" s="125"/>
+      <c r="O122" s="125"/>
+      <c r="P122" s="125"/>
+      <c r="Q122" s="126"/>
       <c r="R122" s="14"/>
       <c r="S122" s="14"/>
       <c r="T122" s="14"/>
     </row>
+    <row r="123" ht="20.05" customHeight="1">
+      <c r="A123" t="s" s="127">
+        <v>31</v>
+      </c>
+      <c r="B123" t="s" s="128">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s" s="128">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s" s="128">
+        <v>32</v>
+      </c>
+      <c r="E123" t="s" s="128">
+        <v>34</v>
+      </c>
+      <c r="F123" t="s" s="128">
+        <v>35</v>
+      </c>
+      <c r="G123" t="s" s="128">
+        <v>36</v>
+      </c>
+      <c r="H123" t="s" s="128">
+        <v>97</v>
+      </c>
+      <c r="I123" t="s" s="128">
+        <v>32</v>
+      </c>
+      <c r="J123" t="s" s="128">
+        <v>33</v>
+      </c>
+      <c r="K123" t="s" s="128">
+        <v>34</v>
+      </c>
+      <c r="L123" t="s" s="128">
+        <v>33</v>
+      </c>
+      <c r="M123" t="s" s="128">
+        <v>35</v>
+      </c>
+      <c r="N123" t="s" s="128">
+        <v>33</v>
+      </c>
+      <c r="O123" t="s" s="128">
+        <v>36</v>
+      </c>
+      <c r="P123" t="s" s="128">
+        <v>33</v>
+      </c>
+      <c r="Q123" t="s" s="129">
+        <v>97</v>
+      </c>
+      <c r="R123" s="14"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="14"/>
+    </row>
+    <row r="124" ht="20.05" customHeight="1">
+      <c r="A124" t="s" s="130">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s" s="131">
+        <v>38</v>
+      </c>
+      <c r="C124" t="s" s="131">
+        <v>39</v>
+      </c>
+      <c r="D124" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="E124" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="F124" s="132">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G124" s="132">
+        <v>0.65</v>
+      </c>
+      <c r="H124" s="132">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="I124" s="132">
+        <v>1</v>
+      </c>
+      <c r="J124" s="132">
+        <f>I124*5</f>
+        <v>5</v>
+      </c>
+      <c r="K124" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="L124" s="132">
+        <f>K124*10</f>
+        <v>8</v>
+      </c>
+      <c r="M124" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="N124" s="132">
+        <f>M124*15</f>
+        <v>12</v>
+      </c>
+      <c r="O124" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="P124" s="132">
+        <f>O124*20</f>
+        <v>16</v>
+      </c>
+      <c r="Q124" s="133">
+        <v>0.76</v>
+      </c>
+      <c r="R124" s="14"/>
+      <c r="S124" s="14"/>
+      <c r="T124" s="14"/>
+    </row>
+    <row r="125" ht="20.05" customHeight="1">
+      <c r="A125" s="134"/>
+      <c r="B125" t="s" s="131">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s" s="131">
+        <v>41</v>
+      </c>
+      <c r="D125" s="135">
+        <v>1</v>
+      </c>
+      <c r="E125" s="135">
+        <v>1</v>
+      </c>
+      <c r="F125" s="136">
+        <v>1</v>
+      </c>
+      <c r="G125" s="132">
+        <v>1</v>
+      </c>
+      <c r="H125" s="132">
+        <v>0.9</v>
+      </c>
+      <c r="I125" s="132">
+        <v>1</v>
+      </c>
+      <c r="J125" s="132">
+        <f>I125*5</f>
+        <v>5</v>
+      </c>
+      <c r="K125" s="132">
+        <v>1</v>
+      </c>
+      <c r="L125" s="132">
+        <f>K125*10</f>
+        <v>10</v>
+      </c>
+      <c r="M125" s="132">
+        <v>1</v>
+      </c>
+      <c r="N125" s="132">
+        <f>M125*15</f>
+        <v>15</v>
+      </c>
+      <c r="O125" s="132">
+        <v>0.95</v>
+      </c>
+      <c r="P125" s="132">
+        <f>O125*20</f>
+        <v>19</v>
+      </c>
+      <c r="Q125" s="133">
+        <v>0.9</v>
+      </c>
+      <c r="R125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125" s="14"/>
+    </row>
+    <row r="126" ht="20.05" customHeight="1">
+      <c r="A126" s="137"/>
+      <c r="B126" t="s" s="131">
+        <v>42</v>
+      </c>
+      <c r="C126" t="s" s="131">
+        <v>43</v>
+      </c>
+      <c r="D126" s="135">
+        <v>1</v>
+      </c>
+      <c r="E126" s="135">
+        <v>1</v>
+      </c>
+      <c r="F126" s="135">
+        <v>0.8</v>
+      </c>
+      <c r="G126" s="132">
+        <v>0.85</v>
+      </c>
+      <c r="H126" s="132">
+        <v>0.84</v>
+      </c>
+      <c r="I126" s="132">
+        <v>1</v>
+      </c>
+      <c r="J126" s="132">
+        <f>I126*5</f>
+        <v>5</v>
+      </c>
+      <c r="K126" s="132">
+        <v>1</v>
+      </c>
+      <c r="L126" s="132">
+        <f>K126*10</f>
+        <v>10</v>
+      </c>
+      <c r="M126" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="N126" s="132">
+        <f>M126*15</f>
+        <v>12</v>
+      </c>
+      <c r="O126" s="132">
+        <v>0.85</v>
+      </c>
+      <c r="P126" s="132">
+        <f>O126*20</f>
+        <v>17</v>
+      </c>
+      <c r="Q126" s="133">
+        <v>0.86</v>
+      </c>
+      <c r="R126" s="14"/>
+      <c r="S126" s="14"/>
+      <c r="T126" s="14"/>
+    </row>
+    <row r="127" ht="20.05" customHeight="1">
+      <c r="A127" s="137"/>
+      <c r="B127" t="s" s="131">
+        <v>44</v>
+      </c>
+      <c r="C127" t="s" s="131">
+        <v>45</v>
+      </c>
+      <c r="D127" s="135">
+        <v>1</v>
+      </c>
+      <c r="E127" s="135">
+        <v>0.7</v>
+      </c>
+      <c r="F127" s="132">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="G127" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="H127" s="132">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="I127" s="132">
+        <v>1</v>
+      </c>
+      <c r="J127" s="132">
+        <f>I127*5</f>
+        <v>5</v>
+      </c>
+      <c r="K127" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="L127" s="132">
+        <f>K127*10</f>
+        <v>7</v>
+      </c>
+      <c r="M127" s="132">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="N127" s="132">
+        <f>M127*15</f>
+        <v>11</v>
+      </c>
+      <c r="O127" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="P127" s="132">
+        <f>O127*20</f>
+        <v>14</v>
+      </c>
+      <c r="Q127" s="133">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="14"/>
+    </row>
+    <row r="128" ht="20.05" customHeight="1">
+      <c r="A128" s="137"/>
+      <c r="B128" t="s" s="131">
+        <v>46</v>
+      </c>
+      <c r="C128" t="s" s="131">
+        <v>47</v>
+      </c>
+      <c r="D128" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="E128" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="F128" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="G128" s="132">
+        <v>0.85</v>
+      </c>
+      <c r="H128" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="I128" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="J128" s="132">
+        <f>I128*5</f>
+        <v>3</v>
+      </c>
+      <c r="K128" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="L128" s="132">
+        <f>K128*10</f>
+        <v>8</v>
+      </c>
+      <c r="M128" s="132">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="N128" s="132">
+        <f>M128*15</f>
+        <v>13</v>
+      </c>
+      <c r="O128" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="P128" s="132">
+        <f>O128*20</f>
+        <v>16</v>
+      </c>
+      <c r="Q128" s="133">
+        <v>0.78</v>
+      </c>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="14"/>
+    </row>
+    <row r="129" ht="20.05" customHeight="1">
+      <c r="A129" s="134"/>
+      <c r="B129" t="s" s="131">
+        <v>48</v>
+      </c>
+      <c r="C129" t="s" s="131">
+        <v>49</v>
+      </c>
+      <c r="D129" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="E129" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="F129" s="132">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G129" s="132">
+        <v>0.65</v>
+      </c>
+      <c r="H129" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="I129" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="J129" s="132">
+        <f>I129*5</f>
+        <v>4</v>
+      </c>
+      <c r="K129" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="L129" s="132">
+        <f>K129*10</f>
+        <v>8</v>
+      </c>
+      <c r="M129" s="132">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N129" s="132">
+        <f>M129*15</f>
+        <v>10</v>
+      </c>
+      <c r="O129" s="132">
+        <v>0.75</v>
+      </c>
+      <c r="P129" s="132">
+        <f>O129*20</f>
+        <v>15</v>
+      </c>
+      <c r="Q129" s="133">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="R129" s="14"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="14"/>
+    </row>
+    <row r="130" ht="20.05" customHeight="1">
+      <c r="A130" s="138"/>
+      <c r="B130" s="139"/>
+      <c r="C130" s="139"/>
+      <c r="D130" s="140">
+        <f>AVERAGE(D124,D125,D126,D127,D128,D129)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E130" s="140">
+        <f>AVERAGE(E124,E125,E126,E127,E128,E129)</f>
+        <v>0.8000000000000002</v>
+      </c>
+      <c r="F130" s="140">
+        <f>AVERAGE(F124,F125,F126,F127,F128,F129)</f>
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G130" s="140">
+        <f>AVERAGE(G124,G125,G126,G127,G128,G129)</f>
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="H130" s="140">
+        <f>AVERAGE(H124,H125,H126,H127,H128,H129)</f>
+        <v>0.7445351473922902</v>
+      </c>
+      <c r="I130" s="140">
+        <f>AVERAGE(I124,I125,I126,I127,I128,I129)</f>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J130" s="140">
+        <f>AVERAGE(J124,J125,J126,J127,J128,J129)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K130" s="140">
+        <f>AVERAGE(K124,K125,K126,K127,K128,K129)</f>
+        <v>0.85</v>
+      </c>
+      <c r="L130" s="140">
+        <f>AVERAGE(L124,L125,L126,L127,L128,L129)</f>
+        <v>8.5</v>
+      </c>
+      <c r="M130" s="140">
+        <f>AVERAGE(M124,M125,M126,M127,M128,M129)</f>
+        <v>0.8111111111111112</v>
+      </c>
+      <c r="N130" s="140">
+        <f>AVERAGE(N124,N125,N126,N127,N128,N129)</f>
+        <v>12.16666666666667</v>
+      </c>
+      <c r="O130" s="140">
+        <f>AVERAGE(O124,O125,O126,O127,O128,O129)</f>
+        <v>0.8083333333333332</v>
+      </c>
+      <c r="P130" s="140">
+        <f>AVERAGE(P124,P125,P126,P127,P128,P129)</f>
+        <v>16.16666666666667</v>
+      </c>
+      <c r="Q130" s="141">
+        <f>AVERAGE(Q124,Q125,Q126,Q127,Q128,Q129)</f>
+        <v>0.7925044091710758</v>
+      </c>
+      <c r="R130" s="14"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="14"/>
+    </row>
+    <row r="131" ht="20.05" customHeight="1">
+      <c r="A131" t="s" s="130">
+        <v>50</v>
+      </c>
+      <c r="B131" t="s" s="131">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s" s="131">
+        <v>39</v>
+      </c>
+      <c r="D131" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="E131" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="F131" s="136">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="G131" s="132">
+        <v>0.65</v>
+      </c>
+      <c r="H131" s="132">
+        <v>0.84</v>
+      </c>
+      <c r="I131" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="J131" s="132">
+        <f>I131*5</f>
+        <v>2</v>
+      </c>
+      <c r="K131" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="L131" s="132">
+        <f>K131*10</f>
+        <v>5</v>
+      </c>
+      <c r="M131" s="132">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="N131" s="132">
+        <f>M131*15</f>
+        <v>8</v>
+      </c>
+      <c r="O131" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="P131" s="132">
+        <f>O131*20</f>
+        <v>8</v>
+      </c>
+      <c r="Q131" s="133">
+        <v>0.6</v>
+      </c>
+      <c r="R131" s="14"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="14"/>
+    </row>
+    <row r="132" ht="20.05" customHeight="1">
+      <c r="A132" s="134"/>
+      <c r="B132" t="s" s="131">
+        <v>40</v>
+      </c>
+      <c r="C132" t="s" s="131">
+        <v>41</v>
+      </c>
+      <c r="D132" s="135">
+        <v>1</v>
+      </c>
+      <c r="E132" s="135">
+        <v>1</v>
+      </c>
+      <c r="F132" s="135">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G132" s="132">
+        <v>0.65</v>
+      </c>
+      <c r="H132" s="132">
+        <v>0.68</v>
+      </c>
+      <c r="I132" s="132">
+        <v>1</v>
+      </c>
+      <c r="J132" s="132">
+        <f>I132*5</f>
+        <v>5</v>
+      </c>
+      <c r="K132" s="132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="132">
+        <f>K132*10</f>
+        <v>10</v>
+      </c>
+      <c r="M132" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="N132" s="132">
+        <f>M132*15</f>
+        <v>12</v>
+      </c>
+      <c r="O132" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="P132" s="132">
+        <f>O132*20</f>
+        <v>12</v>
+      </c>
+      <c r="Q132" s="133">
+        <v>0.68</v>
+      </c>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
+      <c r="T132" s="14"/>
+    </row>
+    <row r="133" ht="20.05" customHeight="1">
+      <c r="A133" s="142"/>
+      <c r="B133" t="s" s="131">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s" s="131">
+        <v>43</v>
+      </c>
+      <c r="D133" s="135">
+        <v>0.8</v>
+      </c>
+      <c r="E133" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="F133" s="136">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G133" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="H133" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="I133" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="J133" s="132">
+        <f>I133*5</f>
+        <v>4</v>
+      </c>
+      <c r="K133" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="L133" s="132">
+        <f>K133*10</f>
+        <v>7</v>
+      </c>
+      <c r="M133" s="132">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N133" s="132">
+        <f>M133*15</f>
+        <v>10</v>
+      </c>
+      <c r="O133" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="P133" s="132">
+        <f>O133*20</f>
+        <v>14</v>
+      </c>
+      <c r="Q133" s="133">
+        <v>0.7</v>
+      </c>
+      <c r="R133" s="14"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="14"/>
+    </row>
+    <row r="134" ht="20.05" customHeight="1">
+      <c r="A134" s="137"/>
+      <c r="B134" t="s" s="131">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s" s="131">
+        <v>45</v>
+      </c>
+      <c r="D134" s="135">
+        <v>1</v>
+      </c>
+      <c r="E134" s="135">
+        <v>0.7</v>
+      </c>
+      <c r="F134" s="135">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="G134" s="132">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="H134" s="132">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="I134" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="J134" s="132">
+        <f>I134*5</f>
+        <v>3</v>
+      </c>
+      <c r="K134" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="L134" s="132">
+        <f>K134*10</f>
+        <v>7</v>
+      </c>
+      <c r="M134" s="132">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="N134" s="132">
+        <f>M134*15</f>
+        <v>7</v>
+      </c>
+      <c r="O134" s="132">
+        <v>0.35</v>
+      </c>
+      <c r="P134" s="132">
+        <f>O134*20</f>
+        <v>7</v>
+      </c>
+      <c r="Q134" s="133">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="R134" s="14"/>
+      <c r="S134" s="14"/>
+      <c r="T134" s="14"/>
+    </row>
+    <row r="135" ht="20.05" customHeight="1">
+      <c r="A135" s="137"/>
+      <c r="B135" t="s" s="131">
+        <v>46</v>
+      </c>
+      <c r="C135" t="s" s="131">
+        <v>47</v>
+      </c>
+      <c r="D135" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="E135" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="F135" s="143">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G135" s="132">
+        <v>0.9</v>
+      </c>
+      <c r="H135" s="132">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="I135" s="132">
+        <v>0.4</v>
+      </c>
+      <c r="J135" s="132">
+        <f>I135*5</f>
+        <v>2</v>
+      </c>
+      <c r="K135" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="L135" s="132">
+        <f>K135*10</f>
+        <v>6</v>
+      </c>
+      <c r="M135" s="132">
+        <v>0.6</v>
+      </c>
+      <c r="N135" s="132">
+        <f>M135*15</f>
+        <v>9</v>
+      </c>
+      <c r="O135" s="132">
+        <v>0.7</v>
+      </c>
+      <c r="P135" s="132">
+        <f>O135*20</f>
+        <v>14</v>
+      </c>
+      <c r="Q135" s="133">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="R135" s="14"/>
+      <c r="S135" s="14"/>
+      <c r="T135" s="14"/>
+    </row>
+    <row r="136" ht="20.05" customHeight="1">
+      <c r="A136" s="137"/>
+      <c r="B136" t="s" s="131">
+        <v>48</v>
+      </c>
+      <c r="C136" t="s" s="131">
+        <v>49</v>
+      </c>
+      <c r="D136" s="135">
+        <v>1</v>
+      </c>
+      <c r="E136" s="135">
+        <v>1</v>
+      </c>
+      <c r="F136" s="135">
+        <v>1</v>
+      </c>
+      <c r="G136" s="132">
+        <v>1</v>
+      </c>
+      <c r="H136" s="132">
+        <v>0.5</v>
+      </c>
+      <c r="I136" s="132">
+        <v>1</v>
+      </c>
+      <c r="J136" s="132">
+        <f>I136*5</f>
+        <v>5</v>
+      </c>
+      <c r="K136" s="132">
+        <v>1</v>
+      </c>
+      <c r="L136" s="132">
+        <f>K136*10</f>
+        <v>10</v>
+      </c>
+      <c r="M136" s="132">
+        <v>1</v>
+      </c>
+      <c r="N136" s="132">
+        <f>M136*15</f>
+        <v>15</v>
+      </c>
+      <c r="O136" s="132">
+        <v>1</v>
+      </c>
+      <c r="P136" s="132">
+        <f>O136*20</f>
+        <v>20</v>
+      </c>
+      <c r="Q136" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="R136" s="14"/>
+      <c r="S136" s="14"/>
+      <c r="T136" s="14"/>
+    </row>
+    <row r="137" ht="20.05" customHeight="1">
+      <c r="A137" s="144"/>
+      <c r="B137" s="145"/>
+      <c r="C137" s="145"/>
+      <c r="D137" s="146">
+        <f>AVERAGE(D131,D132,D133,D134,D135,D136)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E137" s="146">
+        <f>AVERAGE(E131,E132,E133,E134,E135,E136)</f>
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="F137" s="146">
+        <f>AVERAGE(F131,F132,F133,F134,F135,F136)</f>
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="G137" s="146">
+        <f>AVERAGE(G131,G132,G133,G134,G135,G136)</f>
+        <v>0.7277777777777779</v>
+      </c>
+      <c r="H137" s="146">
+        <f>AVERAGE(H131,H132,H133,H134,H135,H136)</f>
+        <v>0.6507692307692308</v>
+      </c>
+      <c r="I137" s="146">
+        <f>AVERAGE(I131,I132,I133,I134,I135,I136)</f>
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="J137" s="146">
+        <f>AVERAGE(J131,J132,J133,J134,J135,J136)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K137" s="146">
+        <f>AVERAGE(K131,K132,K133,K134,K135,K136)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L137" s="146">
+        <f>AVERAGE(L131,L132,L133,L134,L135,L136)</f>
+        <v>7.5</v>
+      </c>
+      <c r="M137" s="146">
+        <f>AVERAGE(M131,M132,M133,M134,M135,M136)</f>
+        <v>0.6777777777777777</v>
+      </c>
+      <c r="N137" s="146">
+        <f>AVERAGE(N131,N132,N133,N134,N135,N136)</f>
+        <v>10.16666666666667</v>
+      </c>
+      <c r="O137" s="146">
+        <f>AVERAGE(O131,O132,O133,O134,O135,O136)</f>
+        <v>0.625</v>
+      </c>
+      <c r="P137" s="146">
+        <f>AVERAGE(P131,P132,P133,P134,P135,P136)</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q137" s="147">
+        <f>AVERAGE(Q131,Q132,Q133,Q134,Q135,Q136)</f>
+        <v>0.5916959064327486</v>
+      </c>
+      <c r="R137" s="14"/>
+      <c r="S137" s="14"/>
+      <c r="T137" s="14"/>
+    </row>
+    <row r="138" ht="20.05" customHeight="1">
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="14"/>
+      <c r="Q138" s="14"/>
+      <c r="R138" s="14"/>
+      <c r="S138" s="14"/>
+      <c r="T138" s="14"/>
+    </row>
+    <row r="139" ht="20.05" customHeight="1">
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="I122:Q122"/>
+    <mergeCell ref="D122:H122"/>
     <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -10550,7 +11640,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -10590,10 +11680,8 @@
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
-      <c r="I1" s="42"/>
-      <c r="J1" t="s" s="43">
-        <v>31</v>
-      </c>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
@@ -10605,7 +11693,7 @@
     </row>
     <row r="2" ht="17" customHeight="1">
       <c r="A2" t="s" s="45">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="45">
         <v>6</v>
@@ -10614,386 +11702,302 @@
         <v>7</v>
       </c>
       <c r="D2" t="s" s="45">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="E2" t="s" s="45">
+      <c r="F2" t="s" s="45">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="45">
+      <c r="G2" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s" s="45">
         <v>35</v>
       </c>
-      <c r="G2" t="s" s="45">
+      <c r="I2" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s" s="45">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="45">
+      <c r="K2" t="s" s="45">
+        <v>33</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" t="s" s="48">
         <v>37</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" t="s" s="45">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s" s="45">
+      <c r="B3" t="s" s="49">
         <v>38</v>
       </c>
-      <c r="L2" t="s" s="45">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s" s="45">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s" s="45">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s" s="45">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s" s="45">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s" s="45">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s" s="45">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="47">
+      <c r="C3" t="s" s="50">
         <v>39</v>
       </c>
-      <c r="B3" t="s" s="48">
+      <c r="D3" s="51">
+        <v>1</v>
+      </c>
+      <c r="E3" s="51">
+        <f>D3*5</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="51">
+        <f>F3*10</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="51">
+        <f>H3*15</f>
+        <v>12</v>
+      </c>
+      <c r="J3" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="51">
+        <f>J3*20</f>
+        <v>16</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+    </row>
+    <row r="4" ht="16.8" customHeight="1">
+      <c r="A4" s="53"/>
+      <c r="B4" t="s" s="54">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="49">
+      <c r="C4" t="s" s="55">
         <v>41</v>
       </c>
-      <c r="D3" s="50">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="50">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="50">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G3" s="50">
-        <v>0.65</v>
-      </c>
-      <c r="H3" s="50">
-        <v>0.6938775510204082</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50">
+      <c r="D4" s="56">
         <v>1</v>
       </c>
-      <c r="K3" s="50">
-        <f>J3*5</f>
+      <c r="E4" s="56">
+        <f>D4*5</f>
         <v>5</v>
       </c>
-      <c r="L3" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="M3" s="50">
-        <f>L3*10</f>
-        <v>8</v>
-      </c>
-      <c r="N3" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="O3" s="50">
-        <f>N3*15</f>
-        <v>12</v>
-      </c>
-      <c r="P3" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="Q3" s="50">
-        <f>P3*20</f>
-        <v>16</v>
-      </c>
-      <c r="R3" s="50">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="4" ht="16.8" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" t="s" s="52">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s" s="53">
-        <v>43</v>
-      </c>
-      <c r="D4" s="54">
+      <c r="F4" s="56">
         <v>1</v>
       </c>
-      <c r="E4" s="54">
+      <c r="G4" s="56">
+        <f>F4*10</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="56">
         <v>1</v>
       </c>
-      <c r="F4" s="55">
-        <v>1</v>
-      </c>
-      <c r="G4" s="56">
-        <v>1</v>
-      </c>
-      <c r="H4" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="56"/>
+      <c r="I4" s="56">
+        <f>H4*15</f>
+        <v>15</v>
+      </c>
       <c r="J4" s="56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="56">
-        <f>J4*5</f>
-        <v>5</v>
-      </c>
-      <c r="L4" s="56">
-        <v>1</v>
-      </c>
-      <c r="M4" s="56">
-        <f>L4*10</f>
-        <v>10</v>
-      </c>
-      <c r="N4" s="56">
-        <v>1</v>
-      </c>
-      <c r="O4" s="56">
-        <f>N4*15</f>
-        <v>15</v>
-      </c>
-      <c r="P4" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="Q4" s="56">
-        <f>P4*20</f>
+        <f>J4*20</f>
         <v>19</v>
       </c>
-      <c r="R4" s="56">
-        <v>0.9</v>
-      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" ht="16.8" customHeight="1">
       <c r="A5" s="57"/>
-      <c r="B5" t="s" s="52">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s" s="53">
-        <v>45</v>
-      </c>
-      <c r="D5" s="54">
+      <c r="B5" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s" s="55">
+        <v>43</v>
+      </c>
+      <c r="D5" s="56">
         <v>1</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="56">
+        <f>D5*5</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="56">
         <v>1</v>
       </c>
-      <c r="F5" s="54">
+      <c r="G5" s="56">
+        <f>F5*10</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="56">
         <v>0.8</v>
       </c>
-      <c r="G5" s="56">
+      <c r="I5" s="56">
+        <f>H5*15</f>
+        <v>12</v>
+      </c>
+      <c r="J5" s="56">
         <v>0.85</v>
       </c>
-      <c r="H5" s="56">
-        <v>0.84</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56">
-        <v>1</v>
-      </c>
       <c r="K5" s="56">
-        <f>J5*5</f>
-        <v>5</v>
-      </c>
-      <c r="L5" s="56">
-        <v>1</v>
-      </c>
-      <c r="M5" s="56">
-        <f>L5*10</f>
-        <v>10</v>
-      </c>
-      <c r="N5" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="56">
-        <f>N5*15</f>
-        <v>12</v>
-      </c>
-      <c r="P5" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="Q5" s="56">
-        <f>P5*20</f>
+        <f>J5*20</f>
         <v>17</v>
       </c>
-      <c r="R5" s="56">
-        <v>0.86</v>
-      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" ht="16.8" customHeight="1">
       <c r="A6" s="57"/>
-      <c r="B6" t="s" s="52">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s" s="53">
-        <v>47</v>
-      </c>
-      <c r="D6" s="54">
+      <c r="B6" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s" s="55">
+        <v>45</v>
+      </c>
+      <c r="D6" s="56">
         <v>1</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="56">
+        <f>D6*5</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="56">
         <v>0.7</v>
       </c>
-      <c r="F6" s="56">
+      <c r="G6" s="56">
+        <f>F6*10</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="56">
         <v>0.7333333333333333</v>
       </c>
-      <c r="G6" s="56">
+      <c r="I6" s="56">
+        <f>H6*15</f>
+        <v>11</v>
+      </c>
+      <c r="J6" s="56">
         <v>0.7</v>
       </c>
-      <c r="H6" s="56">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56">
-        <v>1</v>
-      </c>
       <c r="K6" s="56">
-        <f>J6*5</f>
-        <v>5</v>
-      </c>
-      <c r="L6" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="M6" s="56">
-        <f>L6*10</f>
-        <v>7</v>
-      </c>
-      <c r="N6" s="56">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="O6" s="56">
-        <f>N6*15</f>
-        <v>11</v>
-      </c>
-      <c r="P6" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="Q6" s="56">
-        <f>P6*20</f>
+        <f>J6*20</f>
         <v>14</v>
       </c>
-      <c r="R6" s="56">
-        <v>0.7142857142857143</v>
-      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" ht="16.8" customHeight="1">
       <c r="A7" s="57"/>
-      <c r="B7" t="s" s="52">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s" s="53">
-        <v>49</v>
+      <c r="B7" t="s" s="54">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="55">
+        <v>47</v>
       </c>
       <c r="D7" s="56">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="56">
-        <v>0.7</v>
+        <f>D7*5</f>
+        <v>3</v>
       </c>
       <c r="F7" s="56">
         <v>0.8</v>
       </c>
       <c r="G7" s="56">
-        <v>0.85</v>
+        <f>F7*10</f>
+        <v>8</v>
       </c>
       <c r="H7" s="56">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="I7" s="56">
+        <f>H7*15</f>
+        <v>13</v>
+      </c>
+      <c r="J7" s="56">
         <v>0.8</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56">
-        <v>0.6</v>
-      </c>
       <c r="K7" s="56">
-        <f>J7*5</f>
-        <v>3</v>
-      </c>
-      <c r="L7" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="M7" s="56">
-        <f>L7*10</f>
-        <v>8</v>
-      </c>
-      <c r="N7" s="56">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="O7" s="56">
-        <f>N7*15</f>
-        <v>13</v>
-      </c>
-      <c r="P7" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="56">
-        <f>P7*20</f>
+        <f>J7*20</f>
         <v>16</v>
       </c>
-      <c r="R7" s="56">
-        <v>0.78</v>
-      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
     </row>
     <row r="8" ht="16.8" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" t="s" s="52">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s" s="53">
-        <v>51</v>
+      <c r="A8" s="53"/>
+      <c r="B8" t="s" s="54">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s" s="55">
+        <v>49</v>
       </c>
       <c r="D8" s="56">
         <v>0.8</v>
       </c>
       <c r="E8" s="56">
-        <v>0.7</v>
+        <f>D8*5</f>
+        <v>4</v>
       </c>
       <c r="F8" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="56">
+        <f>F8*10</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="56">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8" s="56">
-        <v>0.65</v>
-      </c>
-      <c r="H8" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="I8" s="56"/>
+      <c r="I8" s="56">
+        <f>H8*15</f>
+        <v>10</v>
+      </c>
       <c r="J8" s="56">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="K8" s="56">
-        <f>J8*5</f>
-        <v>4</v>
-      </c>
-      <c r="L8" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="56">
-        <f>L8*10</f>
-        <v>8</v>
-      </c>
-      <c r="N8" s="56">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O8" s="56">
-        <f>N8*15</f>
-        <v>10</v>
-      </c>
-      <c r="P8" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="Q8" s="56">
-        <f>P8*20</f>
+        <f>J8*20</f>
         <v>15</v>
       </c>
-      <c r="R8" s="56">
-        <v>0.7407407407407407</v>
-      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" ht="16.8" customHeight="1">
       <c r="A9" s="58"/>
@@ -11001,835 +12005,556 @@
       <c r="C9" s="60"/>
       <c r="D9" s="61">
         <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
-        <v>0.8666666666666667</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E9" s="61">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
-        <v>0.8000000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="F9" s="61">
         <f>AVERAGE(F3,F4,F5,F6,F7,F8)</f>
-        <v>0.7777777777777778</v>
+        <v>0.85</v>
       </c>
       <c r="G9" s="61">
         <f>AVERAGE(G3,G4,G5,G6,G7,G8)</f>
-        <v>0.7833333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="H9" s="61">
         <f>AVERAGE(H3,H4,H5,H6,H7,H8)</f>
-        <v>0.7445351473922902</v>
-      </c>
-      <c r="I9" s="62"/>
+        <v>0.8111111111111112</v>
+      </c>
+      <c r="I9" s="61">
+        <f>AVERAGE(I3,I4,I5,I6,I7,I8)</f>
+        <v>12.16666666666667</v>
+      </c>
       <c r="J9" s="61">
         <f>AVERAGE(J3,J4,J5,J6,J7,J8)</f>
-        <v>0.8999999999999999</v>
+        <v>0.8083333333333332</v>
       </c>
       <c r="K9" s="61">
         <f>AVERAGE(K3,K4,K5,K6,K7,K8)</f>
-        <v>4.5</v>
-      </c>
-      <c r="L9" s="61">
-        <f>AVERAGE(L3,L4,L5,L6,L7,L8)</f>
-        <v>0.85</v>
-      </c>
-      <c r="M9" s="61">
-        <f>AVERAGE(M3,M4,M5,M6,M7,M8)</f>
-        <v>8.5</v>
-      </c>
-      <c r="N9" s="61">
-        <f>AVERAGE(N3,N4,N5,N6,N7,N8)</f>
-        <v>0.8111111111111112</v>
-      </c>
-      <c r="O9" s="61">
-        <f>AVERAGE(O3,O4,O5,O6,O7,O8)</f>
-        <v>12.16666666666667</v>
-      </c>
-      <c r="P9" s="61">
-        <f>AVERAGE(P3,P4,P5,P6,P7,P8)</f>
-        <v>0.8083333333333332</v>
-      </c>
-      <c r="Q9" s="61">
-        <f>AVERAGE(Q3,Q4,Q5,Q6,Q7,Q8)</f>
         <v>16.16666666666667</v>
       </c>
-      <c r="R9" s="61">
-        <f>AVERAGE(R3,R4,R5,R6,R7,R8)</f>
-        <v>0.7925044091710758</v>
-      </c>
+      <c r="L9" s="61"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" ht="16.8" customHeight="1">
-      <c r="A10" t="s" s="63">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s" s="52">
+      <c r="A10" s="53"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" t="s" s="64">
+        <v>3</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+    </row>
+    <row r="11" ht="16.8" customHeight="1">
+      <c r="A11" t="s" s="65">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="54">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="55">
+        <v>39</v>
+      </c>
+      <c r="D11" s="56">
+        <v>1</v>
+      </c>
+      <c r="E11" s="56">
+        <v>5</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="56">
+        <v>6</v>
+      </c>
+      <c r="H11" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="56">
+        <v>9</v>
+      </c>
+      <c r="J11" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="56">
+        <v>10</v>
+      </c>
+      <c r="L11" s="56"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+    </row>
+    <row r="12" ht="16.8" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" t="s" s="54">
         <v>40</v>
       </c>
-      <c r="C10" t="s" s="53">
+      <c r="C12" t="s" s="55">
         <v>41</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D12" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="56">
+        <v>3</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="56">
+        <v>5</v>
+      </c>
+      <c r="H12" s="56">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="I12" s="56">
+        <v>8</v>
+      </c>
+      <c r="J12" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="K12" s="56">
+        <v>13</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+    </row>
+    <row r="13" ht="16.8" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" t="s" s="54">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="55">
+        <v>43</v>
+      </c>
+      <c r="D13" s="56">
+        <v>1</v>
+      </c>
+      <c r="E13" s="56">
+        <v>5</v>
+      </c>
+      <c r="F13" s="56">
         <v>0.8</v>
       </c>
-      <c r="E10" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="55">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="G10" s="56">
-        <v>0.65</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0.84</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="K10" s="56">
-        <f>J10*5</f>
-        <v>2</v>
-      </c>
-      <c r="L10" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="56">
-        <f>L10*10</f>
-        <v>5</v>
-      </c>
-      <c r="N10" s="56">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="O10" s="56">
-        <f>N10*15</f>
+      <c r="G13" s="56">
         <v>8</v>
       </c>
-      <c r="P10" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="Q10" s="56">
-        <f>P10*20</f>
-        <v>8</v>
-      </c>
-      <c r="R10" s="56">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" ht="16.8" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" t="s" s="52">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s" s="53">
-        <v>43</v>
-      </c>
-      <c r="D11" s="54">
-        <v>1</v>
-      </c>
-      <c r="E11" s="54">
-        <v>1</v>
-      </c>
-      <c r="F11" s="54">
+      <c r="H13" s="56">
         <v>0.8666666666666667</v>
       </c>
-      <c r="G11" s="56">
-        <v>0.65</v>
-      </c>
-      <c r="H11" s="56">
-        <v>0.68</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56">
-        <v>1</v>
-      </c>
-      <c r="K11" s="56">
-        <f>J11*5</f>
-        <v>5</v>
-      </c>
-      <c r="L11" s="56">
-        <v>1</v>
-      </c>
-      <c r="M11" s="56">
-        <f>L11*10</f>
-        <v>10</v>
-      </c>
-      <c r="N11" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="56">
-        <f>N11*15</f>
-        <v>12</v>
-      </c>
-      <c r="P11" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="Q11" s="56">
-        <f>P11*20</f>
-        <v>12</v>
-      </c>
-      <c r="R11" s="56">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="12" ht="16.8" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" t="s" s="52">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="53">
-        <v>45</v>
-      </c>
-      <c r="D12" s="54">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="F12" s="55">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="H12" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="K12" s="56">
-        <f>J12*5</f>
-        <v>4</v>
-      </c>
-      <c r="L12" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="M12" s="56">
-        <f>L12*10</f>
-        <v>7</v>
-      </c>
-      <c r="N12" s="56">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="O12" s="56">
-        <f>N12*15</f>
-        <v>10</v>
-      </c>
-      <c r="P12" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="Q12" s="56">
-        <f>P12*20</f>
-        <v>14</v>
-      </c>
-      <c r="R12" s="56">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" ht="16.8" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" t="s" s="52">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s" s="53">
-        <v>47</v>
-      </c>
-      <c r="D13" s="54">
-        <v>1</v>
-      </c>
-      <c r="E13" s="54">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="54">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="G13" s="56">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="H13" s="56">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="I13" s="56"/>
+      <c r="I13" s="56">
+        <v>13</v>
+      </c>
       <c r="J13" s="56">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K13" s="56">
-        <f>J13*5</f>
-        <v>3</v>
-      </c>
-      <c r="L13" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="M13" s="56">
-        <f>L13*10</f>
-        <v>7</v>
-      </c>
-      <c r="N13" s="56">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="O13" s="56">
-        <f>N13*15</f>
-        <v>7</v>
-      </c>
-      <c r="P13" s="56">
-        <v>0.35</v>
-      </c>
-      <c r="Q13" s="56">
-        <f>P13*20</f>
-        <v>7</v>
-      </c>
-      <c r="R13" s="56">
-        <v>0.3333333333333333</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L13" s="56"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
     </row>
     <row r="14" ht="16.8" customHeight="1">
       <c r="A14" s="57"/>
-      <c r="B14" t="s" s="52">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s" s="53">
-        <v>49</v>
+      <c r="B14" t="s" s="54">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s" s="55">
+        <v>45</v>
       </c>
       <c r="D14" s="56">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E14" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="65">
-        <v>0.8666666666666667</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0.4</v>
       </c>
       <c r="G14" s="56">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H14" s="56">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="I14" s="56"/>
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="56">
+        <v>6</v>
+      </c>
       <c r="J14" s="56">
-        <v>0.4</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K14" s="56">
-        <f>J14*5</f>
-        <v>2</v>
-      </c>
-      <c r="L14" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="M14" s="56">
-        <f>L14*10</f>
         <v>6</v>
       </c>
-      <c r="N14" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="O14" s="56">
-        <f>N14*15</f>
-        <v>9</v>
-      </c>
-      <c r="P14" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="Q14" s="56">
-        <f>P14*20</f>
-        <v>14</v>
-      </c>
-      <c r="R14" s="56">
-        <v>0.7368421052631579</v>
-      </c>
+      <c r="L14" s="56"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
     </row>
     <row r="15" ht="16.8" customHeight="1">
       <c r="A15" s="57"/>
-      <c r="B15" t="s" s="52">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s" s="53">
-        <v>51</v>
-      </c>
-      <c r="D15" s="54">
+      <c r="B15" t="s" s="54">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s" s="55">
+        <v>47</v>
+      </c>
+      <c r="D15" s="56">
         <v>1</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="56">
+        <v>5</v>
+      </c>
+      <c r="F15" s="56">
         <v>1</v>
       </c>
-      <c r="F15" s="54">
+      <c r="G15" s="56">
+        <v>10</v>
+      </c>
+      <c r="H15" s="56">
         <v>1</v>
       </c>
-      <c r="G15" s="56">
+      <c r="I15" s="56">
+        <v>15</v>
+      </c>
+      <c r="J15" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="56">
+        <v>18</v>
+      </c>
+      <c r="L15" s="56"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+    </row>
+    <row r="16" ht="16.8" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" t="s" s="54">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s" s="55">
+        <v>49</v>
+      </c>
+      <c r="D16" s="56">
         <v>1</v>
       </c>
-      <c r="H15" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56">
-        <v>1</v>
-      </c>
-      <c r="K15" s="56">
-        <f>J15*5</f>
+      <c r="E16" s="56">
         <v>5</v>
       </c>
-      <c r="L15" s="56">
-        <v>1</v>
-      </c>
-      <c r="M15" s="56">
-        <f>L15*10</f>
-        <v>10</v>
-      </c>
-      <c r="N15" s="56">
-        <v>1</v>
-      </c>
-      <c r="O15" s="56">
-        <f>N15*15</f>
-        <v>15</v>
-      </c>
-      <c r="P15" s="56">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="56">
-        <f>P15*20</f>
-        <v>20</v>
-      </c>
-      <c r="R15" s="56">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" ht="16.8" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61">
-        <f>AVERAGE(D10,D11,D12,D13,D14,D15)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="E16" s="61">
-        <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
-        <v>0.7833333333333333</v>
-      </c>
-      <c r="F16" s="61">
-        <f>AVERAGE(F10,F11,F12,F13,F14,F15)</f>
-        <v>0.7333333333333334</v>
-      </c>
-      <c r="G16" s="61">
-        <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
-        <v>0.7277777777777779</v>
-      </c>
-      <c r="H16" s="61">
-        <f>AVERAGE(H10,H11,H12,H13,H14,H15)</f>
-        <v>0.6507692307692308</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="61">
-        <f>AVERAGE(J10,J11,J12,J13,J14,J15)</f>
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="K16" s="61">
-        <f>AVERAGE(K10,K11,K12,K13,K14,K15)</f>
-        <v>3.5</v>
-      </c>
-      <c r="L16" s="61">
-        <f>AVERAGE(L10,L11,L12,L13,L14,L15)</f>
-        <v>0.75</v>
-      </c>
-      <c r="M16" s="61">
-        <f>AVERAGE(M10,M11,M12,M13,M14,M15)</f>
-        <v>7.5</v>
-      </c>
-      <c r="N16" s="61">
-        <f>AVERAGE(N10,N11,N12,N13,N14,N15)</f>
-        <v>0.6777777777777777</v>
-      </c>
-      <c r="O16" s="61">
-        <f>AVERAGE(O10,O11,O12,O13,O14,O15)</f>
-        <v>10.16666666666667</v>
-      </c>
-      <c r="P16" s="61">
-        <f>AVERAGE(P10,P11,P12,P13,P14,P15)</f>
-        <v>0.625</v>
-      </c>
-      <c r="Q16" s="61">
-        <f>AVERAGE(Q10,Q11,Q12,Q13,Q14,Q15)</f>
-        <v>12.5</v>
-      </c>
-      <c r="R16" s="61">
-        <f>AVERAGE(R10,R11,R12,R13,R14,R15)</f>
-        <v>0.5916959064327486</v>
-      </c>
+      <c r="F16" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="56">
+        <v>8</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="I16" s="56">
+        <v>11</v>
+      </c>
+      <c r="J16" s="56">
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="56">
+        <v>14</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
     </row>
     <row r="17" ht="16.8" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61">
+        <f>AVERAGE(D11,D12,D13,D14,D15,D16)</f>
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E17" s="61">
+        <f>AVERAGE(E11,E12,E13,E14,E15,E16)</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F17" s="61">
+        <f>AVERAGE(F11,F12,F13,F14,F15,F16)</f>
+        <v>0.6833333333333335</v>
+      </c>
+      <c r="G17" s="61">
+        <f>AVERAGE(G11,G12,G13,G14,G15,G16)</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="H17" s="61">
+        <f>AVERAGE(H11,H12,H13,H14,H15,H16)</f>
+        <v>0.6888888888888888</v>
+      </c>
+      <c r="I17" s="61">
+        <f>AVERAGE(I11,I12,I13,I14,I15,I16)</f>
+        <v>10.33333333333333</v>
+      </c>
+      <c r="J17" s="61">
+        <f>AVERAGE(J11,J12,J13,J14,J15,J16)</f>
+        <v>0.642156862745098</v>
+      </c>
+      <c r="K17" s="61">
+        <f>AVERAGE(K11,K12,K13,K14,K15,K16)</f>
+        <v>12.66666666666667</v>
+      </c>
+      <c r="L17" s="61"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
     </row>
     <row r="18" ht="16.8" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="33"/>
-      <c r="H18" t="s" s="68">
-        <v>52</v>
-      </c>
+      <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" t="s" s="69">
-        <v>3</v>
-      </c>
+      <c r="J18" s="33"/>
       <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" ht="16.8" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" t="s" s="68">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s" s="68">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s" s="68">
-        <v>33</v>
-      </c>
-      <c r="K19" t="s" s="68">
-        <v>38</v>
-      </c>
-      <c r="L19" t="s" s="68">
-        <v>34</v>
-      </c>
-      <c r="M19" t="s" s="68">
-        <v>38</v>
-      </c>
-      <c r="N19" t="s" s="68">
-        <v>35</v>
-      </c>
-      <c r="O19" t="s" s="68">
-        <v>38</v>
-      </c>
-      <c r="P19" t="s" s="68">
-        <v>36</v>
-      </c>
-      <c r="Q19" t="s" s="68">
-        <v>38</v>
-      </c>
-      <c r="R19" s="56"/>
-    </row>
-    <row r="20" ht="31.8" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+    </row>
+    <row r="20" ht="16.8" customHeight="1">
+      <c r="A20" s="53"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
-      <c r="H20" t="s" s="53">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s" s="53">
-        <v>41</v>
-      </c>
-      <c r="J20" s="56">
-        <v>1</v>
-      </c>
-      <c r="K20" s="56">
-        <v>5</v>
-      </c>
-      <c r="L20" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="M20" s="56">
-        <v>6</v>
-      </c>
-      <c r="N20" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="O20" s="56">
-        <v>9</v>
-      </c>
-      <c r="P20" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="Q20" s="56">
-        <v>10</v>
-      </c>
-      <c r="R20" s="56"/>
-    </row>
-    <row r="21" ht="31.8" customHeight="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" ht="16.8" customHeight="1">
+      <c r="A21" s="57"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
-      <c r="H21" t="s" s="53">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s" s="53">
-        <v>43</v>
-      </c>
-      <c r="J21" s="56">
-        <v>0.6</v>
-      </c>
-      <c r="K21" s="56">
-        <v>3</v>
-      </c>
-      <c r="L21" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="56">
-        <v>5</v>
-      </c>
-      <c r="N21" s="56">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="O21" s="56">
-        <v>8</v>
-      </c>
-      <c r="P21" s="56">
-        <v>0.65</v>
-      </c>
-      <c r="Q21" s="56">
-        <v>13</v>
-      </c>
-      <c r="R21" s="56"/>
-    </row>
-    <row r="22" ht="31.8" customHeight="1">
-      <c r="A22" s="64"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+    </row>
+    <row r="22" ht="16.8" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
-      <c r="H22" t="s" s="53">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s" s="53">
-        <v>45</v>
-      </c>
-      <c r="J22" s="56">
-        <v>1</v>
-      </c>
-      <c r="K22" s="56">
-        <v>5</v>
-      </c>
-      <c r="L22" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="M22" s="56">
-        <v>8</v>
-      </c>
-      <c r="N22" s="56">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="O22" s="56">
-        <v>13</v>
-      </c>
-      <c r="P22" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="Q22" s="56">
-        <v>15</v>
-      </c>
-      <c r="R22" s="56"/>
-    </row>
-    <row r="23" ht="31.8" customHeight="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+    </row>
+    <row r="23" ht="16.8" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
-      <c r="H23" t="s" s="53">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="53">
-        <v>47</v>
-      </c>
-      <c r="J23" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="K23" s="56">
-        <v>2</v>
-      </c>
-      <c r="L23" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="M23" s="56">
-        <v>4</v>
-      </c>
-      <c r="N23" s="56">
-        <v>0.4</v>
-      </c>
-      <c r="O23" s="56">
-        <v>6</v>
-      </c>
-      <c r="P23" s="56">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="Q23" s="56">
-        <v>6</v>
-      </c>
-      <c r="R23" s="56"/>
-    </row>
-    <row r="24" ht="31.8" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+    </row>
+    <row r="24" ht="16.8" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
-      <c r="H24" t="s" s="53">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s" s="53">
-        <v>49</v>
-      </c>
-      <c r="J24" s="56">
-        <v>1</v>
-      </c>
-      <c r="K24" s="56">
-        <v>5</v>
-      </c>
-      <c r="L24" s="54">
-        <v>1</v>
-      </c>
-      <c r="M24" s="56">
-        <v>10</v>
-      </c>
-      <c r="N24" s="56">
-        <v>1</v>
-      </c>
-      <c r="O24" s="56">
-        <v>15</v>
-      </c>
-      <c r="P24" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="Q24" s="56">
-        <v>18</v>
-      </c>
-      <c r="R24" s="56"/>
-    </row>
-    <row r="25" ht="31.8" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+    </row>
+    <row r="25" ht="16.8" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
       <c r="G25" s="56"/>
-      <c r="H25" t="s" s="53">
-        <v>50</v>
-      </c>
-      <c r="I25" t="s" s="53">
-        <v>51</v>
-      </c>
-      <c r="J25" s="56">
-        <v>1</v>
-      </c>
-      <c r="K25" s="56">
-        <v>5</v>
-      </c>
-      <c r="L25" s="56">
-        <v>0.8</v>
-      </c>
-      <c r="M25" s="56">
-        <v>8</v>
-      </c>
-      <c r="N25" s="56">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="O25" s="56">
-        <v>11</v>
-      </c>
-      <c r="P25" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="Q25" s="56">
-        <v>14</v>
-      </c>
-      <c r="R25" s="56"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
     </row>
     <row r="26" ht="16.8" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="56">
-        <f>AVERAGE(J20,J21,J22,J23,J24,J25)</f>
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="K26" s="56">
-        <f>AVERAGE(K20,K21,K22,K23,K24,K25)</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="L26" s="56">
-        <f>AVERAGE(L20,L21,L22,L23,L24,L25)</f>
-        <v>0.6833333333333335</v>
-      </c>
-      <c r="M26" s="56">
-        <f>AVERAGE(M20,M21,M22,M23,M24,M25)</f>
-        <v>6.833333333333333</v>
-      </c>
-      <c r="N26" s="56">
-        <f>AVERAGE(N20,N21,N22,N23,N24,N25)</f>
-        <v>0.6888888888888888</v>
-      </c>
-      <c r="O26" s="56">
-        <f>AVERAGE(O20,O21,O22,O23,O24,O25)</f>
-        <v>10.33333333333333</v>
-      </c>
-      <c r="P26" s="56">
-        <f>AVERAGE(P20,P21,P22,P23,P24,P25)</f>
-        <v>0.642156862745098</v>
-      </c>
-      <c r="Q26" s="56">
-        <f>AVERAGE(Q20,Q21,Q22,Q23,Q24,Q25)</f>
-        <v>12.66666666666667</v>
-      </c>
-      <c r="R26" s="56"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+    </row>
+    <row r="27" ht="16.8" customHeight="1">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J18:R18"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="D1:H1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D1:L1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -11852,36 +12577,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.9688" style="73" customWidth="1"/>
-    <col min="2" max="2" width="13.6719" style="73" customWidth="1"/>
-    <col min="3" max="3" width="14.8828" style="73" customWidth="1"/>
-    <col min="4" max="4" width="14.8828" style="73" customWidth="1"/>
-    <col min="5" max="5" width="14.8828" style="73" customWidth="1"/>
-    <col min="6" max="6" width="11.0781" style="73" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="73" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="73" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="73" customWidth="1"/>
-    <col min="10" max="10" width="14.8828" style="73" customWidth="1"/>
-    <col min="11" max="11" width="14.8828" style="73" customWidth="1"/>
-    <col min="12" max="12" width="14.8828" style="73" customWidth="1"/>
-    <col min="13" max="13" width="5.90625" style="73" customWidth="1"/>
-    <col min="14" max="14" width="14.8828" style="73" customWidth="1"/>
-    <col min="15" max="15" width="14.8828" style="73" customWidth="1"/>
-    <col min="16" max="16" width="14.8828" style="73" customWidth="1"/>
-    <col min="17" max="17" width="5.07812" style="73" customWidth="1"/>
-    <col min="18" max="18" width="14.8828" style="73" customWidth="1"/>
-    <col min="19" max="19" width="14.8828" style="73" customWidth="1"/>
-    <col min="20" max="20" width="5.07812" style="73" customWidth="1"/>
-    <col min="21" max="21" width="14.8828" style="73" customWidth="1"/>
-    <col min="22" max="22" width="14.8828" style="73" customWidth="1"/>
-    <col min="23" max="23" width="14.8828" style="73" customWidth="1"/>
-    <col min="24" max="24" width="5.07812" style="73" customWidth="1"/>
-    <col min="25" max="25" width="14.8828" style="73" customWidth="1"/>
-    <col min="26" max="26" width="14.8828" style="73" customWidth="1"/>
-    <col min="27" max="27" width="14.8828" style="73" customWidth="1"/>
-    <col min="28" max="28" width="14.8828" style="73" customWidth="1"/>
-    <col min="29" max="29" width="14.8828" style="73" customWidth="1"/>
-    <col min="30" max="256" width="16.3516" style="73" customWidth="1"/>
+    <col min="1" max="1" width="30.9688" style="71" customWidth="1"/>
+    <col min="2" max="2" width="13.6719" style="71" customWidth="1"/>
+    <col min="3" max="3" width="14.8828" style="71" customWidth="1"/>
+    <col min="4" max="4" width="14.8828" style="71" customWidth="1"/>
+    <col min="5" max="5" width="14.8828" style="71" customWidth="1"/>
+    <col min="6" max="6" width="11.0781" style="71" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="71" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="71" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="71" customWidth="1"/>
+    <col min="10" max="10" width="14.8828" style="71" customWidth="1"/>
+    <col min="11" max="11" width="14.8828" style="71" customWidth="1"/>
+    <col min="12" max="12" width="14.8828" style="71" customWidth="1"/>
+    <col min="13" max="13" width="5.90625" style="71" customWidth="1"/>
+    <col min="14" max="14" width="14.8828" style="71" customWidth="1"/>
+    <col min="15" max="15" width="14.8828" style="71" customWidth="1"/>
+    <col min="16" max="16" width="14.8828" style="71" customWidth="1"/>
+    <col min="17" max="17" width="5.07812" style="71" customWidth="1"/>
+    <col min="18" max="18" width="14.8828" style="71" customWidth="1"/>
+    <col min="19" max="19" width="14.8828" style="71" customWidth="1"/>
+    <col min="20" max="20" width="5.07812" style="71" customWidth="1"/>
+    <col min="21" max="21" width="14.8828" style="71" customWidth="1"/>
+    <col min="22" max="22" width="14.8828" style="71" customWidth="1"/>
+    <col min="23" max="23" width="14.8828" style="71" customWidth="1"/>
+    <col min="24" max="24" width="5.07812" style="71" customWidth="1"/>
+    <col min="25" max="25" width="14.8828" style="71" customWidth="1"/>
+    <col min="26" max="26" width="14.8828" style="71" customWidth="1"/>
+    <col min="27" max="27" width="14.8828" style="71" customWidth="1"/>
+    <col min="28" max="28" width="14.8828" style="71" customWidth="1"/>
+    <col min="29" max="29" width="14.8828" style="71" customWidth="1"/>
+    <col min="30" max="256" width="16.3516" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.2" customHeight="1">
@@ -11891,47 +12616,47 @@
       <c r="B1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="74">
+      <c r="C1" t="s" s="72">
+        <v>51</v>
+      </c>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" t="s" s="74">
+        <v>52</v>
+      </c>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" t="s" s="74">
         <v>53</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" t="s" s="76">
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" t="s" s="74">
         <v>54</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" t="s" s="76">
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" t="s" s="74">
         <v>55</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" t="s" s="76">
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" t="s" s="74">
         <v>56</v>
       </c>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" t="s" s="76">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" t="s" s="74">
         <v>57</v>
       </c>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" t="s" s="76">
-        <v>58</v>
-      </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" t="s" s="76">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
     </row>
     <row r="2" ht="31.2" customHeight="1">
       <c r="A2" t="s" s="8">
@@ -11940,73 +12665,73 @@
       <c r="B2" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="75">
         <v>0.677</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="51">
         <v>0.356</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="51">
         <v>0.467</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="50">
+      <c r="F2" s="52"/>
+      <c r="G2" s="51">
         <v>0.674</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="51">
         <v>0.525</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="51">
         <v>0.59</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="50">
+      <c r="J2" s="52"/>
+      <c r="K2" s="51">
         <v>0.694</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="51">
         <v>0.576</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="51">
         <v>0.63</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="50">
+      <c r="N2" s="52"/>
+      <c r="O2" s="51">
         <v>0.702</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="51">
         <v>0.5590000000000001</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="51">
         <v>0.623</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="50">
+      <c r="R2" s="52"/>
+      <c r="S2" s="51">
         <v>0.768</v>
       </c>
-      <c r="T2" s="50">
+      <c r="T2" s="51">
         <v>0.729</v>
       </c>
-      <c r="U2" s="50">
+      <c r="U2" s="51">
         <v>0.748</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="50">
+      <c r="V2" s="52"/>
+      <c r="W2" s="51">
         <v>0.764</v>
       </c>
-      <c r="X2" s="50">
+      <c r="X2" s="51">
         <v>0.712</v>
       </c>
-      <c r="Y2" s="50">
+      <c r="Y2" s="51">
         <v>0.737</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="50">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="51">
         <v>0.759</v>
       </c>
-      <c r="AB2" s="50">
+      <c r="AB2" s="51">
         <v>0.695</v>
       </c>
-      <c r="AC2" s="50">
+      <c r="AC2" s="51">
         <v>0.726</v>
       </c>
     </row>
@@ -12017,7 +12742,7 @@
       <c r="B3" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="76">
         <v>0.833</v>
       </c>
       <c r="D3" s="56">
@@ -12094,7 +12819,7 @@
       <c r="B4" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="76">
         <v>0.614</v>
       </c>
       <c r="D4" s="56">
@@ -12171,7 +12896,7 @@
       <c r="B5" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="76">
         <v>0.696</v>
       </c>
       <c r="D5" s="56">
@@ -12248,7 +12973,7 @@
       <c r="B6" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="76">
         <v>0.658</v>
       </c>
       <c r="D6" s="56">
@@ -12325,7 +13050,7 @@
       <c r="B7" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="76">
         <v>0.7</v>
       </c>
       <c r="D7" s="56">
@@ -12396,8 +13121,8 @@
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="61">
         <f>AVERAGE(C2,C3,C4,C5,C6,C7)</f>
         <v>0.6963333333333334</v>
@@ -12410,7 +13135,7 @@
         <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
         <v>0.5781666666666666</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="61">
         <f>AVERAGE(G2,G3,G4,G5,G6,G7)</f>
         <v>0.6535000000000001</v>
@@ -12423,7 +13148,7 @@
         <f>AVERAGE(I2,I3,I4,I5,I6,I7)</f>
         <v>0.6219999999999999</v>
       </c>
-      <c r="J8" s="62"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="61">
         <f>AVERAGE(K2,K3,K4,K5,K6,K7)</f>
         <v>0.6826666666666666</v>
@@ -12436,7 +13161,7 @@
         <f>AVERAGE(M2,M3,M4,M5,M6,M7)</f>
         <v>0.6395000000000001</v>
       </c>
-      <c r="N8" s="62"/>
+      <c r="N8" s="67"/>
       <c r="O8" s="61">
         <f>AVERAGE(O2,O3,O4,O5,O6,O7)</f>
         <v>0.7301666666666667</v>
@@ -12449,7 +13174,7 @@
         <f>AVERAGE(Q2,Q3,Q4,Q5,Q6,Q7)</f>
         <v>0.6830000000000002</v>
       </c>
-      <c r="R8" s="62"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="61">
         <f>AVERAGE(S2,S3,S4,S5,S6,S7)</f>
         <v>0.7451666666666665</v>
@@ -12462,7 +13187,7 @@
         <f>AVERAGE(U2,U3,U4,U5,U6,U7)</f>
         <v>0.6828333333333334</v>
       </c>
-      <c r="V8" s="62"/>
+      <c r="V8" s="67"/>
       <c r="W8" s="61">
         <f>AVERAGE(W2,W3,W4,W5,W6,W7)</f>
         <v>0.7383333333333334</v>
@@ -12475,7 +13200,7 @@
         <f>AVERAGE(Y2,Y3,Y4,Y5,Y6,Y7)</f>
         <v>0.6838333333333334</v>
       </c>
-      <c r="Z8" s="62"/>
+      <c r="Z8" s="67"/>
       <c r="AA8" s="61">
         <f>AVERAGE(AA2,AA3,AA4,AA5,AA6,AA7)</f>
         <v>0.7341666666666665</v>
@@ -12490,44 +13215,44 @@
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1" hidden="1">
-      <c r="A9" t="s" s="82">
+      <c r="A9" t="s" s="79">
         <v>25</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" t="s" s="84">
-        <v>57</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" t="s" s="86">
+      <c r="B9" s="80"/>
+      <c r="C9" t="s" s="81">
         <v>55</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" t="s" s="83">
+        <v>53</v>
+      </c>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
     </row>
     <row r="10" ht="30.75" customHeight="1" hidden="1">
-      <c r="A10" s="88"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="32"/>
       <c r="C10" s="56">
         <v>0.727</v>
@@ -12538,7 +13263,7 @@
       <c r="E10" s="56">
         <v>0.621</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="22">
         <v>0.6830000000000001</v>
       </c>
@@ -12570,7 +13295,7 @@
       <c r="AC10" s="33"/>
     </row>
     <row r="11" ht="30.75" customHeight="1" hidden="1">
-      <c r="A11" s="88"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="32"/>
       <c r="C11" s="56">
         <v>0.806</v>
@@ -12581,7 +13306,7 @@
       <c r="E11" s="56">
         <v>0.806</v>
       </c>
-      <c r="F11" s="89"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="22">
         <v>0.736</v>
       </c>
@@ -12613,7 +13338,7 @@
       <c r="AC11" s="33"/>
     </row>
     <row r="12" ht="30.75" customHeight="1" hidden="1">
-      <c r="A12" s="88"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="32"/>
       <c r="C12" s="56">
         <v>0.667</v>
@@ -12624,7 +13349,7 @@
       <c r="E12" s="56">
         <v>0.603</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="22">
         <v>0.6919999999999999</v>
       </c>
@@ -12656,7 +13381,7 @@
       <c r="AC12" s="33"/>
     </row>
     <row r="13" ht="30.75" customHeight="1" hidden="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="32"/>
       <c r="C13" s="56">
         <v>0.6919999999999999</v>
@@ -12667,7 +13392,7 @@
       <c r="E13" s="56">
         <v>0.632</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="22">
         <v>0.8080000000000001</v>
       </c>
@@ -12699,7 +13424,7 @@
       <c r="AC13" s="33"/>
     </row>
     <row r="14" ht="30.75" customHeight="1" hidden="1">
-      <c r="A14" s="88"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="32"/>
       <c r="C14" s="56">
         <v>0.582</v>
@@ -12710,7 +13435,7 @@
       <c r="E14" s="56">
         <v>0.63</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="22">
         <v>0.632</v>
       </c>
@@ -12742,7 +13467,7 @@
       <c r="AC14" s="33"/>
     </row>
     <row r="15" ht="30.75" customHeight="1" hidden="1">
-      <c r="A15" s="88"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="32"/>
       <c r="C15" s="56">
         <v>0.8129999999999999</v>
@@ -12753,7 +13478,7 @@
       <c r="E15" s="56">
         <v>0.743</v>
       </c>
-      <c r="F15" s="89"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="22">
         <v>0.774</v>
       </c>
@@ -12785,8 +13510,8 @@
       <c r="AC15" s="33"/>
     </row>
     <row r="16" ht="30.75" customHeight="1" hidden="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="61">
         <f>AVERAGE(C10,C11,C12,C13,C14,C15)</f>
         <v>0.7145</v>
@@ -12799,7 +13524,7 @@
         <f>AVERAGE(E10,E11,E12,E13,E14,E15)</f>
         <v>0.6725</v>
       </c>
-      <c r="F16" s="92"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="24">
         <f>AVERAGE(G10,G11,G12,G13,G14,G15)</f>
         <v>0.7208333333333332</v>
@@ -12812,30 +13537,30 @@
         <f>AVERAGE(I10,I11,I12,I13,I14,I15)</f>
         <v>0.6896666666666667</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
     </row>
     <row r="17" ht="30.75" customHeight="1" hidden="1">
-      <c r="A17" t="s" s="82">
-        <v>60</v>
+      <c r="A17" t="s" s="79">
+        <v>58</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="56">
@@ -12847,7 +13572,7 @@
       <c r="E17" s="56">
         <v>0.636</v>
       </c>
-      <c r="F17" s="89"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="22">
         <v>0.654</v>
       </c>
@@ -12879,7 +13604,7 @@
       <c r="AC17" s="33"/>
     </row>
     <row r="18" ht="30.75" customHeight="1" hidden="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="32"/>
       <c r="C18" s="56">
         <v>0.74</v>
@@ -12890,7 +13615,7 @@
       <c r="E18" s="56">
         <v>0.745</v>
       </c>
-      <c r="F18" s="89"/>
+      <c r="F18" s="86"/>
       <c r="G18" s="22">
         <v>0.733</v>
       </c>
@@ -12922,7 +13647,7 @@
       <c r="AC18" s="33"/>
     </row>
     <row r="19" ht="30.75" customHeight="1" hidden="1">
-      <c r="A19" s="88"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="32"/>
       <c r="C19" s="56">
         <v>0.571</v>
@@ -12933,7 +13658,7 @@
       <c r="E19" s="56">
         <v>0.234</v>
       </c>
-      <c r="F19" s="89"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="22">
         <v>0.433</v>
       </c>
@@ -12965,7 +13690,7 @@
       <c r="AC19" s="33"/>
     </row>
     <row r="20" ht="30.75" customHeight="1" hidden="1">
-      <c r="A20" s="88"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="32"/>
       <c r="C20" s="56">
         <v>0.667</v>
@@ -12976,7 +13701,7 @@
       <c r="E20" s="56">
         <v>0.538</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="22">
         <v>0.68</v>
       </c>
@@ -13008,7 +13733,7 @@
       <c r="AC20" s="33"/>
     </row>
     <row r="21" ht="30.75" customHeight="1" hidden="1">
-      <c r="A21" s="88"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="32"/>
       <c r="C21" s="56">
         <v>0.67</v>
@@ -13019,7 +13744,7 @@
       <c r="E21" s="56">
         <v>0.742</v>
       </c>
-      <c r="F21" s="89"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="22">
         <v>0.722</v>
       </c>
@@ -13051,7 +13776,7 @@
       <c r="AC21" s="33"/>
     </row>
     <row r="22" ht="30.75" customHeight="1" hidden="1">
-      <c r="A22" s="88"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="32"/>
       <c r="C22" s="56">
         <v>0.735</v>
@@ -13062,7 +13787,7 @@
       <c r="E22" s="56">
         <v>0.694</v>
       </c>
-      <c r="F22" s="89"/>
+      <c r="F22" s="86"/>
       <c r="G22" s="22">
         <v>0.833</v>
       </c>
@@ -13094,8 +13819,8 @@
       <c r="AC22" s="33"/>
     </row>
     <row r="23" ht="30.75" customHeight="1" hidden="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="61">
         <f>AVERAGE(C17,C18,C19,C20,C21,C22)</f>
         <v>0.6818333333333334</v>
@@ -13108,7 +13833,7 @@
         <f>AVERAGE(E17,E18,E19,E20,E21,E22)</f>
         <v>0.5981666666666666</v>
       </c>
-      <c r="F23" s="92"/>
+      <c r="F23" s="89"/>
       <c r="G23" s="24">
         <f>AVERAGE(G17,G18,G19,G20,G21,G22)</f>
         <v>0.6758333333333333</v>
@@ -13121,29 +13846,29 @@
         <f>AVERAGE(I17,I18,I19,I20,I21,I22)</f>
         <v>0.5896666666666667</v>
       </c>
-      <c r="J23" s="93"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
     </row>
     <row r="24" ht="30.75" customHeight="1" hidden="1">
-      <c r="A24" t="s" s="82">
+      <c r="A24" t="s" s="79">
         <v>27</v>
       </c>
       <c r="B24" s="32"/>
@@ -13156,7 +13881,7 @@
       <c r="E24" s="56">
         <v>0.754</v>
       </c>
-      <c r="F24" s="89"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="22">
         <v>0.745</v>
       </c>
@@ -13188,7 +13913,7 @@
       <c r="AC24" s="33"/>
     </row>
     <row r="25" ht="30.75" customHeight="1" hidden="1">
-      <c r="A25" s="88"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="32"/>
       <c r="C25" s="56">
         <v>0.738</v>
@@ -13199,7 +13924,7 @@
       <c r="E25" s="56">
         <v>0.795</v>
       </c>
-      <c r="F25" s="89"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="22">
         <v>0.747</v>
       </c>
@@ -13231,7 +13956,7 @@
       <c r="AC25" s="33"/>
     </row>
     <row r="26" ht="30.75" customHeight="1" hidden="1">
-      <c r="A26" s="88"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="32"/>
       <c r="C26" s="56">
         <v>0.742</v>
@@ -13242,7 +13967,7 @@
       <c r="E26" s="56">
         <v>0.667</v>
       </c>
-      <c r="F26" s="89"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="22">
         <v>0.727</v>
       </c>
@@ -13274,7 +13999,7 @@
       <c r="AC26" s="33"/>
     </row>
     <row r="27" ht="30.75" customHeight="1" hidden="1">
-      <c r="A27" s="88"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="32"/>
       <c r="C27" s="56">
         <v>0.652</v>
@@ -13285,7 +14010,7 @@
       <c r="E27" s="56">
         <v>0.556</v>
       </c>
-      <c r="F27" s="89"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="22">
         <v>0.6820000000000001</v>
       </c>
@@ -13317,7 +14042,7 @@
       <c r="AC27" s="33"/>
     </row>
     <row r="28" ht="30.75" customHeight="1" hidden="1">
-      <c r="A28" s="88"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="32"/>
       <c r="C28" s="56">
         <v>0.621</v>
@@ -13328,7 +14053,7 @@
       <c r="E28" s="56">
         <v>0.663</v>
       </c>
-      <c r="F28" s="89"/>
+      <c r="F28" s="86"/>
       <c r="G28" s="22">
         <v>0.654</v>
       </c>
@@ -13360,7 +14085,7 @@
       <c r="AC28" s="33"/>
     </row>
     <row r="29" ht="30.75" customHeight="1" hidden="1">
-      <c r="A29" s="88"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="32"/>
       <c r="C29" s="56">
         <v>0.6820000000000001</v>
@@ -13371,7 +14096,7 @@
       <c r="E29" s="56">
         <v>0.5</v>
       </c>
-      <c r="F29" s="89"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="22">
         <v>0.75</v>
       </c>
@@ -13403,8 +14128,8 @@
       <c r="AC29" s="33"/>
     </row>
     <row r="30" ht="30.75" customHeight="1" hidden="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="61">
         <f>AVERAGE(C24,C25,C26,C27,C28,C29)</f>
         <v>0.7028333333333334</v>
@@ -13417,7 +14142,7 @@
         <f>AVERAGE(E24,E25,E26,E27,E28,E29)</f>
         <v>0.6558333333333334</v>
       </c>
-      <c r="F30" s="92"/>
+      <c r="F30" s="89"/>
       <c r="G30" s="24">
         <f>AVERAGE(G24,G25,G26,G27,G28,G29)</f>
         <v>0.7174999999999999</v>
@@ -13430,29 +14155,29 @@
         <f>AVERAGE(I24,I25,I26,I27,I28,I29)</f>
         <v>0.6731666666666666</v>
       </c>
-      <c r="J30" s="93"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
     </row>
     <row r="31" ht="30.75" customHeight="1" hidden="1">
-      <c r="A31" t="s" s="82">
+      <c r="A31" t="s" s="79">
         <v>28</v>
       </c>
       <c r="B31" s="32"/>
@@ -13465,7 +14190,7 @@
       <c r="E31" s="56">
         <v>0.606</v>
       </c>
-      <c r="F31" s="89"/>
+      <c r="F31" s="86"/>
       <c r="G31" s="22">
         <v>0.711</v>
       </c>
@@ -13497,7 +14222,7 @@
       <c r="AC31" s="33"/>
     </row>
     <row r="32" ht="30.75" customHeight="1" hidden="1">
-      <c r="A32" s="88"/>
+      <c r="A32" s="85"/>
       <c r="B32" s="32"/>
       <c r="C32" s="56">
         <v>0.695</v>
@@ -13508,7 +14233,7 @@
       <c r="E32" s="56">
         <v>0.74</v>
       </c>
-      <c r="F32" s="89"/>
+      <c r="F32" s="86"/>
       <c r="G32" s="22">
         <v>0.716</v>
       </c>
@@ -13540,7 +14265,7 @@
       <c r="AC32" s="33"/>
     </row>
     <row r="33" ht="30.75" customHeight="1" hidden="1">
-      <c r="A33" s="88"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="32"/>
       <c r="C33" s="56">
         <v>0.619</v>
@@ -13551,7 +14276,7 @@
       <c r="E33" s="56">
         <v>0.643</v>
       </c>
-      <c r="F33" s="89"/>
+      <c r="F33" s="86"/>
       <c r="G33" s="22">
         <v>0.635</v>
       </c>
@@ -13583,7 +14308,7 @@
       <c r="AC33" s="33"/>
     </row>
     <row r="34" ht="30.75" customHeight="1" hidden="1">
-      <c r="A34" s="88"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="32"/>
       <c r="C34" s="56">
         <v>0.522</v>
@@ -13594,7 +14319,7 @@
       <c r="E34" s="56">
         <v>0.444</v>
       </c>
-      <c r="F34" s="89"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="22">
         <v>0.515</v>
       </c>
@@ -13626,7 +14351,7 @@
       <c r="AC34" s="33"/>
     </row>
     <row r="35" ht="30.75" customHeight="1" hidden="1">
-      <c r="A35" s="88"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="32"/>
       <c r="C35" s="56">
         <v>0.6870000000000001</v>
@@ -13637,7 +14362,7 @@
       <c r="E35" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="F35" s="89"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="22">
         <v>0.747</v>
       </c>
@@ -13669,7 +14394,7 @@
       <c r="AC35" s="33"/>
     </row>
     <row r="36" ht="30.75" customHeight="1" hidden="1">
-      <c r="A36" s="88"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="32"/>
       <c r="C36" s="56">
         <v>0.724</v>
@@ -13680,7 +14405,7 @@
       <c r="E36" s="56">
         <v>0.627</v>
       </c>
-      <c r="F36" s="89"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="22">
         <v>0.724</v>
       </c>
@@ -13712,8 +14437,8 @@
       <c r="AC36" s="33"/>
     </row>
     <row r="37" ht="30.75" customHeight="1" hidden="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="61">
         <f>AVERAGE(C31,C32,C33,C34,C35,C36)</f>
         <v>0.6661666666666668</v>
@@ -13726,7 +14451,7 @@
         <f>AVERAGE(E31,E32,E33,E34,E35,E36)</f>
         <v>0.6244999999999999</v>
       </c>
-      <c r="F37" s="92"/>
+      <c r="F37" s="89"/>
       <c r="G37" s="24">
         <f>AVERAGE(G31,G32,G33,G34,G35,G36)</f>
         <v>0.6746666666666666</v>
@@ -13739,29 +14464,29 @@
         <f>AVERAGE(I31,I32,I33,I34,I35,I36)</f>
         <v>0.6578333333333334</v>
       </c>
-      <c r="J37" s="93"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
     </row>
     <row r="38" ht="30.75" customHeight="1" hidden="1">
-      <c r="A38" t="s" s="82">
+      <c r="A38" t="s" s="79">
         <v>29</v>
       </c>
       <c r="B38" s="32"/>
@@ -13774,7 +14499,7 @@
       <c r="E38" s="56">
         <v>0.744</v>
       </c>
-      <c r="F38" s="89"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="22">
         <v>0.833</v>
       </c>
@@ -13806,7 +14531,7 @@
       <c r="AC38" s="33"/>
     </row>
     <row r="39" ht="30.75" customHeight="1" hidden="1">
-      <c r="A39" s="88"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="32"/>
       <c r="C39" s="56">
         <v>0.767</v>
@@ -13817,7 +14542,7 @@
       <c r="E39" s="56">
         <v>0.772</v>
       </c>
-      <c r="F39" s="89"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="22">
         <v>0.781</v>
       </c>
@@ -13849,7 +14574,7 @@
       <c r="AC39" s="33"/>
     </row>
     <row r="40" ht="30.75" customHeight="1" hidden="1">
-      <c r="A40" s="88"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="32"/>
       <c r="C40" s="56">
         <v>0.756</v>
@@ -13860,7 +14585,7 @@
       <c r="E40" s="56">
         <v>0.667</v>
       </c>
-      <c r="F40" s="89"/>
+      <c r="F40" s="86"/>
       <c r="G40" s="22">
         <v>0.6840000000000001</v>
       </c>
@@ -13892,7 +14617,7 @@
       <c r="AC40" s="33"/>
     </row>
     <row r="41" ht="30.75" customHeight="1" hidden="1">
-      <c r="A41" s="88"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="32"/>
       <c r="C41" s="56">
         <v>0.72</v>
@@ -13903,7 +14628,7 @@
       <c r="E41" s="56">
         <v>0.643</v>
       </c>
-      <c r="F41" s="89"/>
+      <c r="F41" s="86"/>
       <c r="G41" s="22">
         <v>0.6919999999999999</v>
       </c>
@@ -13935,7 +14660,7 @@
       <c r="AC41" s="33"/>
     </row>
     <row r="42" ht="30.75" customHeight="1" hidden="1">
-      <c r="A42" s="88"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="32"/>
       <c r="C42" s="56">
         <v>0.655</v>
@@ -13946,7 +14671,7 @@
       <c r="E42" s="56">
         <v>0.671</v>
       </c>
-      <c r="F42" s="89"/>
+      <c r="F42" s="86"/>
       <c r="G42" s="22">
         <v>0.663</v>
       </c>
@@ -13978,7 +14703,7 @@
       <c r="AC42" s="33"/>
     </row>
     <row r="43" ht="30.75" customHeight="1" hidden="1">
-      <c r="A43" s="88"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="32"/>
       <c r="C43" s="56">
         <v>0.652</v>
@@ -13989,7 +14714,7 @@
       <c r="E43" s="56">
         <v>0.492</v>
       </c>
-      <c r="F43" s="89"/>
+      <c r="F43" s="86"/>
       <c r="G43" s="22">
         <v>0.727</v>
       </c>
@@ -14021,8 +14746,8 @@
       <c r="AC43" s="33"/>
     </row>
     <row r="44" ht="30.75" customHeight="1" hidden="1">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="61">
         <f>AVERAGE(C38,C39,C40,C41,C42,C43)</f>
         <v>0.7126666666666667</v>
@@ -14035,7 +14760,7 @@
         <f>AVERAGE(E38,E39,E40,E41,E42,E43)</f>
         <v>0.6648333333333333</v>
       </c>
-      <c r="F44" s="92"/>
+      <c r="F44" s="89"/>
       <c r="G44" s="24">
         <f>AVERAGE(G38,G39,G40,G41,G42,G43)</f>
         <v>0.7300000000000001</v>
@@ -14048,30 +14773,30 @@
         <f>AVERAGE(I38,I39,I40,I41,I42,I43)</f>
         <v>0.7021666666666667</v>
       </c>
-      <c r="J44" s="93"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="67"/>
     </row>
     <row r="45" ht="30.75" customHeight="1" hidden="1">
-      <c r="A45" t="s" s="82">
-        <v>52</v>
+      <c r="A45" t="s" s="79">
+        <v>50</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="56">
@@ -14083,7 +14808,7 @@
       <c r="E45" s="56">
         <v>0.5</v>
       </c>
-      <c r="F45" s="89"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="22">
         <v>0.519</v>
       </c>
@@ -14115,7 +14840,7 @@
       <c r="AC45" s="33"/>
     </row>
     <row r="46" ht="30.75" customHeight="1" hidden="1">
-      <c r="A46" s="88"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="32"/>
       <c r="C46" s="56">
         <v>0.6899999999999999</v>
@@ -14126,7 +14851,7 @@
       <c r="E46" s="56">
         <v>0.6850000000000001</v>
       </c>
-      <c r="F46" s="89"/>
+      <c r="F46" s="86"/>
       <c r="G46" s="22">
         <v>0.642</v>
       </c>
@@ -14158,7 +14883,7 @@
       <c r="AC46" s="33"/>
     </row>
     <row r="47" ht="30.75" customHeight="1" hidden="1">
-      <c r="A47" s="88"/>
+      <c r="A47" s="85"/>
       <c r="B47" s="32"/>
       <c r="C47" s="56">
         <v>0.466</v>
@@ -14169,7 +14894,7 @@
       <c r="E47" s="56">
         <v>0.48</v>
       </c>
-      <c r="F47" s="89"/>
+      <c r="F47" s="86"/>
       <c r="G47" s="22">
         <v>0.496</v>
       </c>
@@ -14201,7 +14926,7 @@
       <c r="AC47" s="33"/>
     </row>
     <row r="48" ht="30.75" customHeight="1" hidden="1">
-      <c r="A48" s="88"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="32"/>
       <c r="C48" s="56">
         <v>0.333</v>
@@ -14212,7 +14937,7 @@
       <c r="E48" s="56">
         <v>0.269</v>
       </c>
-      <c r="F48" s="89"/>
+      <c r="F48" s="86"/>
       <c r="G48" s="22">
         <v>0.467</v>
       </c>
@@ -14244,7 +14969,7 @@
       <c r="AC48" s="33"/>
     </row>
     <row r="49" ht="30.75" customHeight="1" hidden="1">
-      <c r="A49" s="88"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="32"/>
       <c r="C49" s="56">
         <v>0.737</v>
@@ -14255,7 +14980,7 @@
       <c r="E49" s="56">
         <v>0.463</v>
       </c>
-      <c r="F49" s="89"/>
+      <c r="F49" s="86"/>
       <c r="G49" s="22">
         <v>0.718</v>
       </c>
@@ -14287,7 +15012,7 @@
       <c r="AC49" s="33"/>
     </row>
     <row r="50" ht="30.75" customHeight="1" hidden="1">
-      <c r="A50" s="88"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="32"/>
       <c r="C50" s="56">
         <v>0.5</v>
@@ -14298,7 +15023,7 @@
       <c r="E50" s="56">
         <v>0.548</v>
       </c>
-      <c r="F50" s="89"/>
+      <c r="F50" s="86"/>
       <c r="G50" s="22">
         <v>0.5</v>
       </c>
@@ -14330,8 +15055,8 @@
       <c r="AC50" s="33"/>
     </row>
     <row r="51" ht="30.75" customHeight="1" hidden="1">
-      <c r="A51" s="90"/>
-      <c r="B51" s="91"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="61">
         <f>AVERAGE(C45,C46,C47,C48,C49,C50)</f>
         <v>0.5363333333333333</v>
@@ -14344,7 +15069,7 @@
         <f>AVERAGE(E45,E46,E47,E48,E49,E50)</f>
         <v>0.4908333333333334</v>
       </c>
-      <c r="F51" s="92"/>
+      <c r="F51" s="89"/>
       <c r="G51" s="24">
         <f>AVERAGE(G45,G46,G47,G48,G49,G50)</f>
         <v>0.5570000000000001</v>
@@ -14357,29 +15082,29 @@
         <f>AVERAGE(I45,I46,I47,I48,I49,I50)</f>
         <v>0.5195</v>
       </c>
-      <c r="J51" s="93"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
     </row>
     <row r="52" ht="30.75" customHeight="1" hidden="1">
-      <c r="A52" s="88"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="32"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -14410,7 +15135,7 @@
       <c r="AC52" s="33"/>
     </row>
     <row r="53" ht="30.75" customHeight="1" hidden="1">
-      <c r="A53" s="88"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
@@ -14441,7 +15166,7 @@
       <c r="AC53" s="33"/>
     </row>
     <row r="54" ht="30.75" customHeight="1" hidden="1">
-      <c r="A54" s="88"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="32"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
@@ -14472,7 +15197,7 @@
       <c r="AC54" s="33"/>
     </row>
     <row r="55" ht="30.75" customHeight="1" hidden="1">
-      <c r="A55" s="88"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="32"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
@@ -14503,7 +15228,7 @@
       <c r="AC55" s="33"/>
     </row>
     <row r="56" ht="30.75" customHeight="1" hidden="1">
-      <c r="A56" s="88"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="32"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -14534,7 +15259,7 @@
       <c r="AC56" s="33"/>
     </row>
     <row r="57" ht="30.75" customHeight="1" hidden="1">
-      <c r="A57" s="88"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="32"/>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
@@ -14565,7 +15290,7 @@
       <c r="AC57" s="33"/>
     </row>
     <row r="58" ht="30.75" customHeight="1" hidden="1">
-      <c r="A58" s="88"/>
+      <c r="A58" s="85"/>
       <c r="B58" s="32"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
@@ -14596,7 +15321,7 @@
       <c r="AC58" s="33"/>
     </row>
     <row r="59" ht="30.75" customHeight="1" hidden="1">
-      <c r="A59" s="88"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="32"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
@@ -14627,7 +15352,7 @@
       <c r="AC59" s="33"/>
     </row>
     <row r="60" ht="30.75" customHeight="1" hidden="1">
-      <c r="A60" s="88"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="32"/>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
@@ -14658,7 +15383,7 @@
       <c r="AC60" s="33"/>
     </row>
     <row r="61" ht="30.75" customHeight="1" hidden="1">
-      <c r="A61" s="88"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="32"/>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
@@ -14689,7 +15414,7 @@
       <c r="AC61" s="33"/>
     </row>
     <row r="62" ht="30.75" customHeight="1" hidden="1">
-      <c r="A62" s="88"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="32"/>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
@@ -14720,7 +15445,7 @@
       <c r="AC62" s="33"/>
     </row>
     <row r="63" ht="30.75" customHeight="1" hidden="1">
-      <c r="A63" s="88"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="32"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
@@ -14751,7 +15476,7 @@
       <c r="AC63" s="33"/>
     </row>
     <row r="64" ht="30.75" customHeight="1" hidden="1">
-      <c r="A64" s="88"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -14782,7 +15507,7 @@
       <c r="AC64" s="33"/>
     </row>
     <row r="65" ht="30.75" customHeight="1" hidden="1">
-      <c r="A65" s="88"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="32"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -14813,7 +15538,7 @@
       <c r="AC65" s="33"/>
     </row>
     <row r="66" ht="30.75" customHeight="1" hidden="1">
-      <c r="A66" s="88"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="32"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
@@ -14844,7 +15569,7 @@
       <c r="AC66" s="33"/>
     </row>
     <row r="67" ht="30.75" customHeight="1" hidden="1">
-      <c r="A67" s="88"/>
+      <c r="A67" s="85"/>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
@@ -14875,7 +15600,7 @@
       <c r="AC67" s="33"/>
     </row>
     <row r="68" ht="30.75" customHeight="1" hidden="1">
-      <c r="A68" s="88"/>
+      <c r="A68" s="85"/>
       <c r="B68" s="32"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -14906,7 +15631,7 @@
       <c r="AC68" s="33"/>
     </row>
     <row r="69" ht="30.75" customHeight="1" hidden="1">
-      <c r="A69" s="88"/>
+      <c r="A69" s="85"/>
       <c r="B69" s="32"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
@@ -14958,33 +15683,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="94" customWidth="1"/>
-    <col min="2" max="2" width="25.4453" style="94" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="94" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="94" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="94" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="94" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="94" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="91" customWidth="1"/>
+    <col min="2" max="2" width="25.4453" style="91" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="91" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="91" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="91" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="91" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.35" customHeight="1">
-      <c r="A1" t="s" s="76">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s" s="95">
+      <c r="A1" t="s" s="74">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s" s="92">
         <v>6</v>
       </c>
-      <c r="C1" t="s" s="95">
+      <c r="C1" t="s" s="92">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="76">
-        <v>57</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="D1" t="s" s="74">
+        <v>55</v>
+      </c>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" ht="26.7" customHeight="1">
-      <c r="A2" t="s" s="96">
+      <c r="A2" t="s" s="93">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="8">
@@ -14993,25 +15718,25 @@
       <c r="C2" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="75">
         <v>0.768</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="51">
         <v>0.729</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="51">
         <v>0.748</v>
       </c>
     </row>
     <row r="3" ht="26.7" customHeight="1">
-      <c r="A3" s="97"/>
+      <c r="A3" s="94"/>
       <c r="B3" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C3" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="76">
         <v>0.866</v>
       </c>
       <c r="E3" s="56">
@@ -15022,14 +15747,14 @@
       </c>
     </row>
     <row r="4" ht="26.7" customHeight="1">
-      <c r="A4" s="97"/>
+      <c r="A4" s="94"/>
       <c r="B4" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C4" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="76">
         <v>0.756</v>
       </c>
       <c r="E4" s="56">
@@ -15040,14 +15765,14 @@
       </c>
     </row>
     <row r="5" ht="26.7" customHeight="1">
-      <c r="A5" s="97"/>
+      <c r="A5" s="94"/>
       <c r="B5" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C5" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="76">
         <v>0.714</v>
       </c>
       <c r="E5" s="56">
@@ -15058,14 +15783,14 @@
       </c>
     </row>
     <row r="6" ht="26.7" customHeight="1">
-      <c r="A6" s="97"/>
+      <c r="A6" s="94"/>
       <c r="B6" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C6" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="76">
         <v>0.626</v>
       </c>
       <c r="E6" s="56">
@@ -15076,14 +15801,14 @@
       </c>
     </row>
     <row r="7" ht="38.7" customHeight="1">
-      <c r="A7" s="97"/>
+      <c r="A7" s="94"/>
       <c r="B7" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C7" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="76">
         <v>0.741</v>
       </c>
       <c r="E7" s="56">
@@ -15094,7 +15819,7 @@
       </c>
     </row>
     <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" s="88"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="61">
@@ -15111,7 +15836,7 @@
       </c>
     </row>
     <row r="9" ht="26.7" customHeight="1">
-      <c r="A9" t="s" s="98">
+      <c r="A9" t="s" s="95">
         <v>25</v>
       </c>
       <c r="B9" t="s" s="8">
@@ -15120,7 +15845,7 @@
       <c r="C9" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="76">
         <v>0.727</v>
       </c>
       <c r="E9" s="56">
@@ -15131,14 +15856,14 @@
       </c>
     </row>
     <row r="10" ht="26.7" customHeight="1">
-      <c r="A10" s="97"/>
+      <c r="A10" s="94"/>
       <c r="B10" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C10" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="76">
         <v>0.806</v>
       </c>
       <c r="E10" s="56">
@@ -15149,14 +15874,14 @@
       </c>
     </row>
     <row r="11" ht="26.7" customHeight="1">
-      <c r="A11" s="97"/>
+      <c r="A11" s="94"/>
       <c r="B11" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C11" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="76">
         <v>0.667</v>
       </c>
       <c r="E11" s="56">
@@ -15167,14 +15892,14 @@
       </c>
     </row>
     <row r="12" ht="26.7" customHeight="1">
-      <c r="A12" s="97"/>
+      <c r="A12" s="94"/>
       <c r="B12" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C12" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="76">
         <v>0.6919999999999999</v>
       </c>
       <c r="E12" s="56">
@@ -15185,14 +15910,14 @@
       </c>
     </row>
     <row r="13" ht="26.7" customHeight="1">
-      <c r="A13" s="97"/>
+      <c r="A13" s="94"/>
       <c r="B13" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C13" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="76">
         <v>0.582</v>
       </c>
       <c r="E13" s="56">
@@ -15203,14 +15928,14 @@
       </c>
     </row>
     <row r="14" ht="38.7" customHeight="1">
-      <c r="A14" s="97"/>
+      <c r="A14" s="94"/>
       <c r="B14" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C14" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D14" s="79">
+      <c r="D14" s="76">
         <v>0.8129999999999999</v>
       </c>
       <c r="E14" s="56">
@@ -15221,9 +15946,9 @@
       </c>
     </row>
     <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="61">
         <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
         <v>0.7145</v>
@@ -15238,8 +15963,8 @@
       </c>
     </row>
     <row r="16" ht="26.7" customHeight="1">
-      <c r="A16" t="s" s="98">
-        <v>62</v>
+      <c r="A16" t="s" s="95">
+        <v>60</v>
       </c>
       <c r="B16" t="s" s="8">
         <v>11</v>
@@ -15247,7 +15972,7 @@
       <c r="C16" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="76">
         <v>0.708</v>
       </c>
       <c r="E16" s="56">
@@ -15258,14 +15983,14 @@
       </c>
     </row>
     <row r="17" ht="26.7" customHeight="1">
-      <c r="A17" s="97"/>
+      <c r="A17" s="94"/>
       <c r="B17" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C17" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="76">
         <v>0.74</v>
       </c>
       <c r="E17" s="56">
@@ -15276,14 +16001,14 @@
       </c>
     </row>
     <row r="18" ht="26.7" customHeight="1">
-      <c r="A18" s="97"/>
+      <c r="A18" s="94"/>
       <c r="B18" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C18" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D18" s="79">
+      <c r="D18" s="76">
         <v>0.571</v>
       </c>
       <c r="E18" s="56">
@@ -15294,14 +16019,14 @@
       </c>
     </row>
     <row r="19" ht="26.7" customHeight="1">
-      <c r="A19" s="97"/>
+      <c r="A19" s="94"/>
       <c r="B19" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C19" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="76">
         <v>0.667</v>
       </c>
       <c r="E19" s="56">
@@ -15312,14 +16037,14 @@
       </c>
     </row>
     <row r="20" ht="26.7" customHeight="1">
-      <c r="A20" s="97"/>
+      <c r="A20" s="94"/>
       <c r="B20" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C20" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="76">
         <v>0.67</v>
       </c>
       <c r="E20" s="56">
@@ -15330,14 +16055,14 @@
       </c>
     </row>
     <row r="21" ht="38.7" customHeight="1">
-      <c r="A21" s="97"/>
+      <c r="A21" s="94"/>
       <c r="B21" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C21" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="76">
         <v>0.735</v>
       </c>
       <c r="E21" s="56">
@@ -15348,9 +16073,9 @@
       </c>
     </row>
     <row r="22" ht="14.7" customHeight="1">
-      <c r="A22" s="90"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="61">
         <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
         <v>0.6818333333333334</v>
@@ -15365,7 +16090,7 @@
       </c>
     </row>
     <row r="23" ht="26.7" customHeight="1">
-      <c r="A23" t="s" s="98">
+      <c r="A23" t="s" s="95">
         <v>27</v>
       </c>
       <c r="B23" t="s" s="8">
@@ -15374,7 +16099,7 @@
       <c r="C23" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="76">
         <v>0.782</v>
       </c>
       <c r="E23" s="56">
@@ -15385,14 +16110,14 @@
       </c>
     </row>
     <row r="24" ht="26.7" customHeight="1">
-      <c r="A24" s="97"/>
+      <c r="A24" s="94"/>
       <c r="B24" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C24" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D24" s="79">
+      <c r="D24" s="76">
         <v>0.738</v>
       </c>
       <c r="E24" s="56">
@@ -15403,14 +16128,14 @@
       </c>
     </row>
     <row r="25" ht="26.7" customHeight="1">
-      <c r="A25" s="97"/>
+      <c r="A25" s="94"/>
       <c r="B25" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C25" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D25" s="79">
+      <c r="D25" s="76">
         <v>0.742</v>
       </c>
       <c r="E25" s="56">
@@ -15421,14 +16146,14 @@
       </c>
     </row>
     <row r="26" ht="26.7" customHeight="1">
-      <c r="A26" s="97"/>
+      <c r="A26" s="94"/>
       <c r="B26" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C26" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D26" s="79">
+      <c r="D26" s="76">
         <v>0.652</v>
       </c>
       <c r="E26" s="56">
@@ -15439,14 +16164,14 @@
       </c>
     </row>
     <row r="27" ht="26.7" customHeight="1">
-      <c r="A27" s="97"/>
+      <c r="A27" s="94"/>
       <c r="B27" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C27" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D27" s="79">
+      <c r="D27" s="76">
         <v>0.621</v>
       </c>
       <c r="E27" s="56">
@@ -15457,14 +16182,14 @@
       </c>
     </row>
     <row r="28" ht="38.7" customHeight="1">
-      <c r="A28" s="97"/>
+      <c r="A28" s="94"/>
       <c r="B28" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C28" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D28" s="79">
+      <c r="D28" s="76">
         <v>0.6820000000000001</v>
       </c>
       <c r="E28" s="56">
@@ -15475,9 +16200,9 @@
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="61">
         <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
         <v>0.7028333333333334</v>
@@ -15492,7 +16217,7 @@
       </c>
     </row>
     <row r="30" ht="26.7" customHeight="1">
-      <c r="A30" t="s" s="98">
+      <c r="A30" t="s" s="95">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="8">
@@ -15501,7 +16226,7 @@
       <c r="C30" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D30" s="79">
+      <c r="D30" s="76">
         <v>0.75</v>
       </c>
       <c r="E30" s="56">
@@ -15512,14 +16237,14 @@
       </c>
     </row>
     <row r="31" ht="26.7" customHeight="1">
-      <c r="A31" s="97"/>
+      <c r="A31" s="94"/>
       <c r="B31" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C31" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D31" s="79">
+      <c r="D31" s="76">
         <v>0.695</v>
       </c>
       <c r="E31" s="56">
@@ -15530,14 +16255,14 @@
       </c>
     </row>
     <row r="32" ht="26.7" customHeight="1">
-      <c r="A32" s="97"/>
+      <c r="A32" s="94"/>
       <c r="B32" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C32" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D32" s="79">
+      <c r="D32" s="76">
         <v>0.619</v>
       </c>
       <c r="E32" s="56">
@@ -15548,14 +16273,14 @@
       </c>
     </row>
     <row r="33" ht="26.7" customHeight="1">
-      <c r="A33" s="97"/>
+      <c r="A33" s="94"/>
       <c r="B33" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C33" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D33" s="79">
+      <c r="D33" s="76">
         <v>0.522</v>
       </c>
       <c r="E33" s="56">
@@ -15566,14 +16291,14 @@
       </c>
     </row>
     <row r="34" ht="26.7" customHeight="1">
-      <c r="A34" s="97"/>
+      <c r="A34" s="94"/>
       <c r="B34" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C34" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D34" s="79">
+      <c r="D34" s="76">
         <v>0.6870000000000001</v>
       </c>
       <c r="E34" s="56">
@@ -15584,14 +16309,14 @@
       </c>
     </row>
     <row r="35" ht="38.7" customHeight="1">
-      <c r="A35" s="97"/>
+      <c r="A35" s="94"/>
       <c r="B35" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C35" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="76">
         <v>0.724</v>
       </c>
       <c r="E35" s="56">
@@ -15602,9 +16327,9 @@
       </c>
     </row>
     <row r="36" ht="14.7" customHeight="1">
-      <c r="A36" s="90"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="61">
         <f>AVERAGE(D30,D31,D32,D33,D34,D35)</f>
         <v>0.6661666666666668</v>
@@ -15619,7 +16344,7 @@
       </c>
     </row>
     <row r="37" ht="26.7" customHeight="1">
-      <c r="A37" t="s" s="98">
+      <c r="A37" t="s" s="95">
         <v>29</v>
       </c>
       <c r="B37" t="s" s="8">
@@ -15628,7 +16353,7 @@
       <c r="C37" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="D37" s="79">
+      <c r="D37" s="76">
         <v>0.726</v>
       </c>
       <c r="E37" s="56">
@@ -15639,14 +16364,14 @@
       </c>
     </row>
     <row r="38" ht="26.7" customHeight="1">
-      <c r="A38" s="97"/>
+      <c r="A38" s="94"/>
       <c r="B38" t="s" s="8">
         <v>13</v>
       </c>
       <c r="C38" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="D38" s="79">
+      <c r="D38" s="76">
         <v>0.767</v>
       </c>
       <c r="E38" s="56">
@@ -15657,14 +16382,14 @@
       </c>
     </row>
     <row r="39" ht="26.7" customHeight="1">
-      <c r="A39" s="97"/>
+      <c r="A39" s="94"/>
       <c r="B39" t="s" s="8">
         <v>15</v>
       </c>
       <c r="C39" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="D39" s="79">
+      <c r="D39" s="76">
         <v>0.756</v>
       </c>
       <c r="E39" s="56">
@@ -15675,14 +16400,14 @@
       </c>
     </row>
     <row r="40" ht="26.7" customHeight="1">
-      <c r="A40" s="97"/>
+      <c r="A40" s="94"/>
       <c r="B40" t="s" s="8">
         <v>17</v>
       </c>
       <c r="C40" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D40" s="79">
+      <c r="D40" s="76">
         <v>0.72</v>
       </c>
       <c r="E40" s="56">
@@ -15693,14 +16418,14 @@
       </c>
     </row>
     <row r="41" ht="26.7" customHeight="1">
-      <c r="A41" s="97"/>
+      <c r="A41" s="94"/>
       <c r="B41" t="s" s="8">
         <v>19</v>
       </c>
       <c r="C41" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="D41" s="79">
+      <c r="D41" s="76">
         <v>0.655</v>
       </c>
       <c r="E41" s="56">
@@ -15711,14 +16436,14 @@
       </c>
     </row>
     <row r="42" ht="38.7" customHeight="1">
-      <c r="A42" s="97"/>
+      <c r="A42" s="94"/>
       <c r="B42" t="s" s="8">
         <v>21</v>
       </c>
       <c r="C42" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="D42" s="79">
+      <c r="D42" s="76">
         <v>0.652</v>
       </c>
       <c r="E42" s="56">
@@ -15729,9 +16454,9 @@
       </c>
     </row>
     <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" s="90"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="101"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="61">
         <f>AVERAGE(D37,D38,D39,D40,D41,D42)</f>
         <v>0.7126666666666667</v>
@@ -15767,15 +16492,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="102" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="102" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="102" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="102" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="102" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="102" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="102" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="102" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="102" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="99" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="99" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="99" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="99" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="99" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="99" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="99" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="99" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -15827,13 +16552,13 @@
       <c r="B3" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="100">
         <v>0.492</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="101">
         <v>0.508</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="102">
         <v>0.5</v>
       </c>
       <c r="F3" s="22">
@@ -15853,13 +16578,13 @@
       <c r="B4" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="76">
         <v>0.6899999999999999</v>
       </c>
       <c r="D4" s="56">
         <v>0.681</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="103">
         <v>0.6850000000000001</v>
       </c>
       <c r="F4" s="22">
@@ -15879,13 +16604,13 @@
       <c r="B5" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="76">
         <v>0.466</v>
       </c>
       <c r="D5" s="56">
         <v>0.495</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="103">
         <v>0.48</v>
       </c>
       <c r="F5" s="22">
@@ -15905,13 +16630,13 @@
       <c r="B6" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="76">
         <v>0.333</v>
       </c>
       <c r="D6" s="56">
         <v>0.226</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="103">
         <v>0.269</v>
       </c>
       <c r="F6" s="22">
@@ -15931,13 +16656,13 @@
       <c r="B7" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="76">
         <v>0.737</v>
       </c>
       <c r="D7" s="56">
         <v>0.337</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="103">
         <v>0.463</v>
       </c>
       <c r="F7" s="22">
@@ -15957,13 +16682,13 @@
       <c r="B8" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="76">
         <v>0.5</v>
       </c>
       <c r="D8" s="56">
         <v>0.605</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="103">
         <v>0.548</v>
       </c>
       <c r="F8" s="22">
@@ -15979,7 +16704,7 @@
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="107">
+      <c r="C9" s="104">
         <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
         <v>0.5363333333333333</v>
       </c>
@@ -15987,7 +16712,7 @@
         <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
         <v>0.4753333333333334</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="105">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
         <v>0.4908333333333334</v>
       </c>
@@ -16007,9 +16732,9 @@
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -16063,13 +16788,13 @@
       <c r="B13" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="100">
         <v>0.768</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="101">
         <v>0.729</v>
       </c>
-      <c r="E13" s="105">
+      <c r="E13" s="102">
         <v>0.748</v>
       </c>
       <c r="F13" s="22">
@@ -16089,13 +16814,13 @@
       <c r="B14" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="76">
         <v>0.866</v>
       </c>
       <c r="D14" s="56">
         <v>0.806</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="103">
         <v>0.835</v>
       </c>
       <c r="F14" s="22">
@@ -16115,13 +16840,13 @@
       <c r="B15" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="76">
         <v>0.756</v>
       </c>
       <c r="D15" s="56">
         <v>0.596</v>
       </c>
-      <c r="E15" s="106">
+      <c r="E15" s="103">
         <v>0.667</v>
       </c>
       <c r="F15" s="22">
@@ -16141,13 +16866,13 @@
       <c r="B16" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="76">
         <v>0.714</v>
       </c>
       <c r="D16" s="56">
         <v>0.484</v>
       </c>
-      <c r="E16" s="106">
+      <c r="E16" s="103">
         <v>0.577</v>
       </c>
       <c r="F16" s="22">
@@ -16167,13 +16892,13 @@
       <c r="B17" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="76">
         <v>0.626</v>
       </c>
       <c r="D17" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="E17" s="106">
+      <c r="E17" s="103">
         <v>0.655</v>
       </c>
       <c r="F17" s="22">
@@ -16193,13 +16918,13 @@
       <c r="B18" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="76">
         <v>0.741</v>
       </c>
       <c r="D18" s="56">
         <v>0.526</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="103">
         <v>0.615</v>
       </c>
       <c r="F18" s="22">
@@ -16215,7 +16940,7 @@
     <row r="19" ht="14.7" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="107">
+      <c r="C19" s="104">
         <f>AVERAGE(C13,C14,C15,C16,C17,C18)</f>
         <v>0.7451666666666665</v>
       </c>
@@ -16223,7 +16948,7 @@
         <f>AVERAGE(D13,D14,D15,D16,D17,D18)</f>
         <v>0.638</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="105">
         <f>AVERAGE(E13,E14,E15,E16,E17,E18)</f>
         <v>0.6828333333333334</v>
       </c>
@@ -16282,24 +17007,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="110" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="110" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="110" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="110" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="110" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="110" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="110" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="110" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="110" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="110" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="110" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="110" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="110" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="110" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="110" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="110" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="110" customWidth="1"/>
-    <col min="18" max="256" width="16.3516" style="110" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="107" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="107" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="107" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="107" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="107" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="107" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="107" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="107" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="107" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="107" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="107" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="107" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="107" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="107" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="107" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="107" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="107" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="107" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -16393,13 +17118,13 @@
       <c r="B3" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="100">
         <v>0.768</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="101">
         <v>0.729</v>
       </c>
-      <c r="E3" s="105">
+      <c r="E3" s="102">
         <v>0.748</v>
       </c>
       <c r="F3" s="22">
@@ -16446,13 +17171,13 @@
       <c r="B4" t="s" s="21">
         <v>14</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="76">
         <v>0.866</v>
       </c>
       <c r="D4" s="56">
         <v>0.806</v>
       </c>
-      <c r="E4" s="106">
+      <c r="E4" s="103">
         <v>0.835</v>
       </c>
       <c r="F4" s="22">
@@ -16499,13 +17224,13 @@
       <c r="B5" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="76">
         <v>0.756</v>
       </c>
       <c r="D5" s="56">
         <v>0.596</v>
       </c>
-      <c r="E5" s="106">
+      <c r="E5" s="103">
         <v>0.667</v>
       </c>
       <c r="F5" s="22">
@@ -16552,13 +17277,13 @@
       <c r="B6" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="76">
         <v>0.714</v>
       </c>
       <c r="D6" s="56">
         <v>0.484</v>
       </c>
-      <c r="E6" s="106">
+      <c r="E6" s="103">
         <v>0.577</v>
       </c>
       <c r="F6" s="22">
@@ -16605,13 +17330,13 @@
       <c r="B7" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="76">
         <v>0.626</v>
       </c>
       <c r="D7" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="103">
         <v>0.655</v>
       </c>
       <c r="F7" s="22">
@@ -16658,13 +17383,13 @@
       <c r="B8" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="76">
         <v>0.741</v>
       </c>
       <c r="D8" s="56">
         <v>0.526</v>
       </c>
-      <c r="E8" s="106">
+      <c r="E8" s="103">
         <v>0.615</v>
       </c>
       <c r="F8" s="22">
@@ -16707,7 +17432,7 @@
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="107">
+      <c r="C9" s="104">
         <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
         <v>0.7451666666666665</v>
       </c>
@@ -16715,7 +17440,7 @@
         <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
         <v>0.638</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="105">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
         <v>0.6828333333333334</v>
       </c>
@@ -16845,57 +17570,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="111" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="111" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="111" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="111" customWidth="1"/>
-    <col min="5" max="5" width="12.3516" style="111" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="111" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="111" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="111" customWidth="1"/>
-    <col min="9" max="9" width="12.1719" style="111" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="111" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="111" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="111" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="111" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="111" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="108" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="108" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="108" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="108" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="108" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="108" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="108" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="108" customWidth="1"/>
+    <col min="9" max="9" width="12.1719" style="108" customWidth="1"/>
+    <col min="10" max="10" width="12.1719" style="108" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="108" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="108" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="108" customWidth="1"/>
+    <col min="14" max="256" width="16.3516" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="112">
+      <c r="A1" t="s" s="109">
         <v>24</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="111"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s" s="112">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s" s="113">
         <v>63</v>
       </c>
-      <c r="B2" t="s" s="115">
+      <c r="D2" t="s" s="113">
         <v>64</v>
       </c>
-      <c r="C2" t="s" s="116">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s" s="116">
-        <v>66</v>
-      </c>
-      <c r="E2" s="117"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -16905,7 +17630,7 @@
       <c r="A3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="115">
         <v>38</v>
       </c>
       <c r="C3" s="10">
@@ -16914,11 +17639,11 @@
       <c r="D3" s="10">
         <v>8</v>
       </c>
-      <c r="E3" s="117"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -16928,7 +17653,7 @@
       <c r="A4" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="115">
         <v>83</v>
       </c>
       <c r="C4" s="10">
@@ -16937,11 +17662,11 @@
       <c r="D4" s="10">
         <v>17</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -16951,7 +17676,7 @@
       <c r="A5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="115">
         <v>31</v>
       </c>
       <c r="C5" s="10">
@@ -16960,11 +17685,11 @@
       <c r="D5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -16974,7 +17699,7 @@
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="115">
         <v>109</v>
       </c>
       <c r="C6" s="10">
@@ -16983,11 +17708,11 @@
       <c r="D6" s="10">
         <v>15</v>
       </c>
-      <c r="E6" s="117"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -16997,7 +17722,7 @@
       <c r="A7" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="115">
         <v>72</v>
       </c>
       <c r="C7" s="10">
@@ -17006,11 +17731,11 @@
       <c r="D7" s="10">
         <v>11</v>
       </c>
-      <c r="E7" s="117"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -17020,7 +17745,7 @@
       <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="115">
         <v>59</v>
       </c>
       <c r="C8" s="10">
@@ -17029,11 +17754,11 @@
       <c r="D8" s="10">
         <v>13</v>
       </c>
-      <c r="E8" s="117"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -17041,9 +17766,9 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B9" s="118">
+        <v>65</v>
+      </c>
+      <c r="B9" s="115">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -17055,11 +17780,11 @@
         <f>SUM(D3,D4,D5,D6,D7,D8)</f>
         <v>71</v>
       </c>
-      <c r="E9" s="117"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -17067,9 +17792,9 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="B10" s="118">
+        <v>66</v>
+      </c>
+      <c r="B10" s="115">
         <v>21</v>
       </c>
       <c r="C10" s="10">
@@ -17078,11 +17803,11 @@
       <c r="D10" s="10">
         <v>10</v>
       </c>
-      <c r="E10" s="117"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -17090,9 +17815,9 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="B11" s="118">
+        <v>67</v>
+      </c>
+      <c r="B11" s="115">
         <v>17</v>
       </c>
       <c r="C11" s="10">
@@ -17101,11 +17826,11 @@
       <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="117"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -17113,9 +17838,9 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="B12" s="118">
+        <v>68</v>
+      </c>
+      <c r="B12" s="115">
         <v>4</v>
       </c>
       <c r="C12" s="10">
@@ -17124,11 +17849,11 @@
       <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="117"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -17136,7 +17861,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="118">
+      <c r="B13" s="115">
         <f>B11/(B12+B11)</f>
         <v>0.8095238095238095</v>
       </c>
@@ -17147,11 +17872,11 @@
       <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="117"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>

--- a/Experiment/实验结果.xlsx
+++ b/Experiment/实验结果.xlsx
@@ -987,7 +987,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1271,6 +1271,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3399,52 +3402,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="116" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="116" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="116" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="116" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="116" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="116" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="116" customWidth="1"/>
-    <col min="8" max="8" width="15.6719" style="116" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="116" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="116" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="116" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="116" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="116" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="116" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="116" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="116" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="116" customWidth="1"/>
-    <col min="18" max="18" width="16.3516" style="116" customWidth="1"/>
-    <col min="19" max="19" width="16.3516" style="116" customWidth="1"/>
-    <col min="20" max="20" width="16.3516" style="116" customWidth="1"/>
-    <col min="21" max="256" width="16.3516" style="116" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="117" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="117" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="117" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="117" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="117" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="117" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="117" customWidth="1"/>
+    <col min="8" max="8" width="15.6719" style="117" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="117" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="117" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="117" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="117" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="117" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="117" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="117" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="117" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="117" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="117" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="117" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="117" customWidth="1"/>
+    <col min="21" max="256" width="16.3516" style="117" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="109">
+      <c r="A1" t="s" s="110">
         <v>24</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="19">
@@ -3478,7 +3481,7 @@
       <c r="A3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>38</v>
       </c>
       <c r="C3" s="10">
@@ -3506,7 +3509,7 @@
       <c r="A4" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="116">
         <v>83</v>
       </c>
       <c r="C4" s="10">
@@ -3534,7 +3537,7 @@
       <c r="A5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="116">
         <v>31</v>
       </c>
       <c r="C5" s="10">
@@ -3542,10 +3545,10 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" t="s" s="113">
+      <c r="F5" t="s" s="114">
         <v>71</v>
       </c>
-      <c r="G5" t="s" s="113">
+      <c r="G5" t="s" s="114">
         <v>72</v>
       </c>
       <c r="H5" s="14"/>
@@ -3566,7 +3569,7 @@
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="116">
         <v>109</v>
       </c>
       <c r="C6" s="10">
@@ -3574,10 +3577,10 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" t="s" s="113">
+      <c r="F6" t="s" s="114">
         <v>73</v>
       </c>
-      <c r="G6" t="s" s="113">
+      <c r="G6" t="s" s="114">
         <v>74</v>
       </c>
       <c r="H6" s="14"/>
@@ -3598,7 +3601,7 @@
       <c r="A7" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="116">
         <v>72</v>
       </c>
       <c r="C7" s="10">
@@ -3606,7 +3609,7 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
-      <c r="F7" t="s" s="113">
+      <c r="F7" t="s" s="114">
         <v>75</v>
       </c>
       <c r="G7" s="14"/>
@@ -3628,7 +3631,7 @@
       <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>59</v>
       </c>
       <c r="C8" s="10">
@@ -3636,10 +3639,10 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" t="s" s="113">
+      <c r="F8" t="s" s="114">
         <v>76</v>
       </c>
-      <c r="G8" t="s" s="113">
+      <c r="G8" t="s" s="114">
         <v>77</v>
       </c>
       <c r="H8" s="14"/>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="115">
+      <c r="B9" s="116">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -3736,32 +3739,32 @@
         <v>0</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" t="s" s="117">
+      <c r="C12" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" t="s" s="117">
+      <c r="F12" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" t="s" s="117">
+      <c r="I12" t="s" s="118">
         <v>3</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" t="s" s="117">
+      <c r="L12" t="s" s="118">
         <v>4</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" t="s" s="117">
+      <c r="O12" t="s" s="118">
         <v>5</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" t="s" s="117">
+      <c r="R12" t="s" s="118">
         <v>78</v>
       </c>
       <c r="S12" s="14"/>
@@ -4304,12 +4307,12 @@
         <v>25</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" t="s" s="117">
+      <c r="C22" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" t="s" s="117">
+      <c r="F22" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G22" s="14"/>
@@ -4636,10 +4639,10 @@
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="118"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="118"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -4660,12 +4663,12 @@
         <v>26</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" t="s" s="117">
+      <c r="C32" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" t="s" s="117">
+      <c r="F32" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G32" s="14"/>
@@ -5016,12 +5019,12 @@
         <v>79</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" t="s" s="117">
+      <c r="C42" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
-      <c r="F42" t="s" s="117">
+      <c r="F42" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G42" s="14"/>
@@ -5372,12 +5375,12 @@
         <v>27</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" t="s" s="117">
+      <c r="C52" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" t="s" s="117">
+      <c r="F52" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G52" s="14"/>
@@ -5704,10 +5707,10 @@
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="118"/>
+      <c r="C61" s="119"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="118"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -5728,12 +5731,12 @@
         <v>28</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" t="s" s="117">
+      <c r="C62" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" t="s" s="117">
+      <c r="F62" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G62" s="14"/>
@@ -6084,12 +6087,12 @@
         <v>29</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="C72" t="s" s="117">
+      <c r="C72" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="F72" t="s" s="117">
+      <c r="F72" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G72" s="14"/>
@@ -6440,12 +6443,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" t="s" s="117">
+      <c r="C82" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
-      <c r="F82" t="s" s="117">
+      <c r="F82" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G82" s="14"/>
@@ -6796,17 +6799,17 @@
         <v>23</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" t="s" s="117">
+      <c r="C92" t="s" s="118">
         <v>1</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
-      <c r="F92" t="s" s="117">
+      <c r="F92" t="s" s="118">
         <v>2</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
-      <c r="I92" t="s" s="117">
+      <c r="I92" t="s" s="118">
         <v>3</v>
       </c>
       <c r="J92" s="14"/>
@@ -7336,34 +7339,34 @@
       <c r="A108" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B108" t="s" s="112">
+      <c r="B108" t="s" s="113">
         <v>62</v>
       </c>
       <c r="C108" s="14"/>
-      <c r="D108" t="s" s="119">
+      <c r="D108" t="s" s="120">
         <v>81</v>
       </c>
-      <c r="E108" t="s" s="119">
+      <c r="E108" t="s" s="120">
         <v>82</v>
       </c>
-      <c r="F108" t="s" s="113">
+      <c r="F108" t="s" s="114">
         <v>63</v>
       </c>
       <c r="G108" s="14"/>
-      <c r="H108" t="s" s="119">
+      <c r="H108" t="s" s="120">
         <v>81</v>
       </c>
-      <c r="I108" t="s" s="119">
+      <c r="I108" t="s" s="120">
         <v>82</v>
       </c>
-      <c r="J108" t="s" s="113">
+      <c r="J108" t="s" s="114">
         <v>64</v>
       </c>
       <c r="K108" s="14"/>
-      <c r="L108" t="s" s="113">
+      <c r="L108" t="s" s="114">
         <v>81</v>
       </c>
-      <c r="M108" t="s" s="113">
+      <c r="M108" t="s" s="114">
         <v>82</v>
       </c>
       <c r="N108" s="14"/>
@@ -7378,17 +7381,17 @@
       <c r="A109" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B109" s="115">
+      <c r="B109" s="116">
         <v>38</v>
       </c>
       <c r="C109" s="10">
         <f>B120*B109</f>
         <v>2.035714285714286</v>
       </c>
-      <c r="D109" s="120">
+      <c r="D109" s="121">
         <v>89</v>
       </c>
-      <c r="E109" s="120">
+      <c r="E109" s="121">
         <v>55</v>
       </c>
       <c r="F109" s="10">
@@ -7398,10 +7401,10 @@
         <f>F120*F109</f>
         <v>2.013422818791946</v>
       </c>
-      <c r="H109" s="120">
+      <c r="H109" s="121">
         <v>67</v>
       </c>
-      <c r="I109" s="120">
+      <c r="I109" s="121">
         <v>92</v>
       </c>
       <c r="J109" s="10">
@@ -7427,17 +7430,17 @@
       <c r="A110" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B110" s="115">
+      <c r="B110" s="116">
         <v>83</v>
       </c>
       <c r="C110" s="10">
         <f>B120*B110</f>
         <v>4.446428571428571</v>
       </c>
-      <c r="D110" t="s" s="121">
+      <c r="D110" t="s" s="122">
         <v>83</v>
       </c>
-      <c r="E110" s="120">
+      <c r="E110" s="121">
         <v>45</v>
       </c>
       <c r="F110" s="10">
@@ -7447,10 +7450,10 @@
         <f>F120*F110</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H110" t="s" s="121">
+      <c r="H110" t="s" s="122">
         <v>84</v>
       </c>
-      <c r="I110" s="114"/>
+      <c r="I110" s="115"/>
       <c r="J110" s="10">
         <v>17</v>
       </c>
@@ -7458,7 +7461,7 @@
         <f>J120*J110</f>
         <v>2.394366197183099</v>
       </c>
-      <c r="L110" t="s" s="113">
+      <c r="L110" t="s" s="114">
         <v>85</v>
       </c>
       <c r="M110" s="14"/>
@@ -7474,17 +7477,17 @@
       <c r="A111" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B111" s="115">
+      <c r="B111" s="116">
         <v>31</v>
       </c>
       <c r="C111" s="10">
         <f>B120*B111</f>
         <v>1.660714285714286</v>
       </c>
-      <c r="D111" t="s" s="121">
+      <c r="D111" t="s" s="122">
         <v>86</v>
       </c>
-      <c r="E111" s="114"/>
+      <c r="E111" s="115"/>
       <c r="F111" s="10">
         <v>10</v>
       </c>
@@ -7492,10 +7495,10 @@
         <f>F120*F111</f>
         <v>1.006711409395973</v>
       </c>
-      <c r="H111" s="120">
+      <c r="H111" s="121">
         <v>32</v>
       </c>
-      <c r="I111" s="114"/>
+      <c r="I111" s="115"/>
       <c r="J111" s="10">
         <v>7</v>
       </c>
@@ -7519,17 +7522,17 @@
       <c r="A112" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B112" s="115">
+      <c r="B112" s="116">
         <v>109</v>
       </c>
       <c r="C112" s="10">
         <f>B120*B112</f>
         <v>5.839285714285714</v>
       </c>
-      <c r="D112" t="s" s="121">
+      <c r="D112" t="s" s="122">
         <v>87</v>
       </c>
-      <c r="E112" s="114"/>
+      <c r="E112" s="115"/>
       <c r="F112" s="10">
         <v>36</v>
       </c>
@@ -7537,10 +7540,10 @@
         <f>F120*F112</f>
         <v>3.624161073825503</v>
       </c>
-      <c r="H112" t="s" s="121">
+      <c r="H112" t="s" s="122">
         <v>88</v>
       </c>
-      <c r="I112" s="120">
+      <c r="I112" s="121">
         <v>11</v>
       </c>
       <c r="J112" s="10">
@@ -7550,7 +7553,7 @@
         <f>J120*J112</f>
         <v>2.112676056338028</v>
       </c>
-      <c r="L112" t="s" s="113">
+      <c r="L112" t="s" s="114">
         <v>89</v>
       </c>
       <c r="M112" s="14"/>
@@ -7566,17 +7569,17 @@
       <c r="A113" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B113" s="115">
+      <c r="B113" s="116">
         <v>72</v>
       </c>
       <c r="C113" s="10">
         <f>B120*B113</f>
         <v>3.857142857142857</v>
       </c>
-      <c r="D113" t="s" s="121">
+      <c r="D113" t="s" s="122">
         <v>90</v>
       </c>
-      <c r="E113" s="120">
+      <c r="E113" s="121">
         <v>148</v>
       </c>
       <c r="F113" s="10">
@@ -7586,10 +7589,10 @@
         <f>F120*F113</f>
         <v>3.322147651006711</v>
       </c>
-      <c r="H113" t="s" s="121">
+      <c r="H113" t="s" s="122">
         <v>91</v>
       </c>
-      <c r="I113" s="114"/>
+      <c r="I113" s="115"/>
       <c r="J113" s="10">
         <v>11</v>
       </c>
@@ -7597,7 +7600,7 @@
         <f>J120*J113</f>
         <v>1.549295774647887</v>
       </c>
-      <c r="L113" t="s" s="113">
+      <c r="L113" t="s" s="114">
         <v>92</v>
       </c>
       <c r="M113" s="14"/>
@@ -7613,17 +7616,17 @@
       <c r="A114" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B114" s="115">
+      <c r="B114" s="116">
         <v>59</v>
       </c>
       <c r="C114" s="10">
         <f>B120*B114</f>
         <v>3.160714285714286</v>
       </c>
-      <c r="D114" t="s" s="121">
+      <c r="D114" t="s" s="122">
         <v>93</v>
       </c>
-      <c r="E114" s="120">
+      <c r="E114" s="121">
         <v>13</v>
       </c>
       <c r="F114" s="10">
@@ -7633,10 +7636,10 @@
         <f>F120*F114</f>
         <v>2.516778523489933</v>
       </c>
-      <c r="H114" t="s" s="121">
+      <c r="H114" t="s" s="122">
         <v>94</v>
       </c>
-      <c r="I114" s="120">
+      <c r="I114" s="121">
         <v>7</v>
       </c>
       <c r="J114" s="10">
@@ -7646,7 +7649,7 @@
         <f>J120*J114</f>
         <v>1.830985915492958</v>
       </c>
-      <c r="L114" t="s" s="113">
+      <c r="L114" t="s" s="114">
         <v>95</v>
       </c>
       <c r="M114" s="14"/>
@@ -7660,20 +7663,20 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" s="11"/>
-      <c r="B115" s="115">
+      <c r="B115" s="116">
         <f>SUM(B109,B110,B111,B112,B113,B114)</f>
         <v>392</v>
       </c>
       <c r="C115" s="14"/>
-      <c r="D115" s="114"/>
-      <c r="E115" s="114"/>
+      <c r="D115" s="115"/>
+      <c r="E115" s="115"/>
       <c r="F115" s="10">
         <f>SUM(F109,F110,F111,F112,F113,F114)</f>
         <v>149</v>
       </c>
       <c r="G115" s="14"/>
-      <c r="H115" s="114"/>
-      <c r="I115" s="114"/>
+      <c r="H115" s="115"/>
+      <c r="I115" s="115"/>
       <c r="J115" s="10">
         <f>SUM(J109,J110,J111,J112,J113,J114)</f>
         <v>71</v>
@@ -7693,18 +7696,18 @@
       <c r="A116" t="s" s="8">
         <v>66</v>
       </c>
-      <c r="B116" s="115">
+      <c r="B116" s="116">
         <v>21</v>
       </c>
       <c r="C116" s="14"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="114"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="115"/>
       <c r="F116" s="10">
         <v>15</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="114"/>
-      <c r="I116" s="114"/>
+      <c r="H116" s="115"/>
+      <c r="I116" s="115"/>
       <c r="J116" s="10">
         <v>10</v>
       </c>
@@ -7723,18 +7726,18 @@
       <c r="A117" t="s" s="8">
         <v>67</v>
       </c>
-      <c r="B117" s="115">
+      <c r="B117" s="116">
         <v>17</v>
       </c>
       <c r="C117" s="14"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="114"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="115"/>
       <c r="F117" s="10">
         <v>13</v>
       </c>
       <c r="G117" s="14"/>
-      <c r="H117" s="114"/>
-      <c r="I117" s="114"/>
+      <c r="H117" s="115"/>
+      <c r="I117" s="115"/>
       <c r="J117" s="10">
         <v>10</v>
       </c>
@@ -7753,18 +7756,18 @@
       <c r="A118" t="s" s="8">
         <v>68</v>
       </c>
-      <c r="B118" s="115">
+      <c r="B118" s="116">
         <v>4</v>
       </c>
       <c r="C118" s="14"/>
-      <c r="D118" s="114"/>
-      <c r="E118" s="114"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="115"/>
       <c r="F118" s="10">
         <v>3</v>
       </c>
       <c r="G118" s="14"/>
-      <c r="H118" s="114"/>
-      <c r="I118" s="114"/>
+      <c r="H118" s="115"/>
+      <c r="I118" s="115"/>
       <c r="J118" s="10">
         <v>0</v>
       </c>
@@ -7781,20 +7784,20 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" s="11"/>
-      <c r="B119" s="115">
+      <c r="B119" s="116">
         <f>B117/(B118+B117)</f>
         <v>0.8095238095238095</v>
       </c>
       <c r="C119" s="14"/>
-      <c r="D119" s="114"/>
-      <c r="E119" s="114"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
       <c r="F119" s="10">
         <f>F117/(F117+F118)</f>
         <v>0.8125</v>
       </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="114"/>
-      <c r="I119" s="114"/>
+      <c r="H119" s="115"/>
+      <c r="I119" s="115"/>
       <c r="J119" s="10">
         <v>1</v>
       </c>
@@ -7811,20 +7814,20 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" s="11"/>
-      <c r="B120" s="115">
+      <c r="B120" s="116">
         <f>B116/B115</f>
         <v>0.05357142857142857</v>
       </c>
       <c r="C120" s="14"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
       <c r="F120" s="10">
         <f>F116/F115</f>
         <v>0.1006711409395973</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="114"/>
+      <c r="H120" s="115"/>
+      <c r="I120" s="115"/>
       <c r="J120" s="10">
         <f>J116/J115</f>
         <v>0.1408450704225352</v>
@@ -7844,12 +7847,12 @@
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="14"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
-      <c r="H121" s="114"/>
-      <c r="I121" s="114"/>
+      <c r="H121" s="115"/>
+      <c r="I121" s="115"/>
       <c r="J121" s="14"/>
       <c r="K121" s="14"/>
       <c r="L121" s="14"/>
@@ -7863,81 +7866,81 @@
       <c r="T121" s="14"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
-      <c r="A122" s="122"/>
-      <c r="B122" s="123"/>
-      <c r="C122" s="123"/>
-      <c r="D122" t="s" s="124">
+      <c r="A122" s="123"/>
+      <c r="B122" s="124"/>
+      <c r="C122" s="124"/>
+      <c r="D122" t="s" s="125">
         <v>96</v>
       </c>
-      <c r="E122" s="125"/>
-      <c r="F122" s="125"/>
-      <c r="G122" s="125"/>
-      <c r="H122" s="125"/>
-      <c r="I122" t="s" s="124">
+      <c r="E122" s="126"/>
+      <c r="F122" s="126"/>
+      <c r="G122" s="126"/>
+      <c r="H122" s="126"/>
+      <c r="I122" t="s" s="125">
         <v>30</v>
       </c>
-      <c r="J122" s="125"/>
-      <c r="K122" s="125"/>
-      <c r="L122" s="125"/>
-      <c r="M122" s="125"/>
-      <c r="N122" s="125"/>
-      <c r="O122" s="125"/>
-      <c r="P122" s="125"/>
-      <c r="Q122" s="126"/>
+      <c r="J122" s="126"/>
+      <c r="K122" s="126"/>
+      <c r="L122" s="126"/>
+      <c r="M122" s="126"/>
+      <c r="N122" s="126"/>
+      <c r="O122" s="126"/>
+      <c r="P122" s="126"/>
+      <c r="Q122" s="127"/>
       <c r="R122" s="14"/>
       <c r="S122" s="14"/>
       <c r="T122" s="14"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
-      <c r="A123" t="s" s="127">
+      <c r="A123" t="s" s="128">
         <v>31</v>
       </c>
-      <c r="B123" t="s" s="128">
+      <c r="B123" t="s" s="129">
         <v>6</v>
       </c>
-      <c r="C123" t="s" s="128">
+      <c r="C123" t="s" s="129">
         <v>7</v>
       </c>
-      <c r="D123" t="s" s="128">
+      <c r="D123" t="s" s="129">
         <v>32</v>
       </c>
-      <c r="E123" t="s" s="128">
+      <c r="E123" t="s" s="129">
         <v>34</v>
       </c>
-      <c r="F123" t="s" s="128">
+      <c r="F123" t="s" s="129">
         <v>35</v>
       </c>
-      <c r="G123" t="s" s="128">
+      <c r="G123" t="s" s="129">
         <v>36</v>
       </c>
-      <c r="H123" t="s" s="128">
+      <c r="H123" t="s" s="129">
         <v>97</v>
       </c>
-      <c r="I123" t="s" s="128">
+      <c r="I123" t="s" s="129">
         <v>32</v>
       </c>
-      <c r="J123" t="s" s="128">
+      <c r="J123" t="s" s="129">
         <v>33</v>
       </c>
-      <c r="K123" t="s" s="128">
+      <c r="K123" t="s" s="129">
         <v>34</v>
       </c>
-      <c r="L123" t="s" s="128">
+      <c r="L123" t="s" s="129">
         <v>33</v>
       </c>
-      <c r="M123" t="s" s="128">
+      <c r="M123" t="s" s="129">
         <v>35</v>
       </c>
-      <c r="N123" t="s" s="128">
+      <c r="N123" t="s" s="129">
         <v>33</v>
       </c>
-      <c r="O123" t="s" s="128">
+      <c r="O123" t="s" s="129">
         <v>36</v>
       </c>
-      <c r="P123" t="s" s="128">
+      <c r="P123" t="s" s="129">
         <v>33</v>
       </c>
-      <c r="Q123" t="s" s="129">
+      <c r="Q123" t="s" s="130">
         <v>97</v>
       </c>
       <c r="R123" s="14"/>
@@ -7945,59 +7948,59 @@
       <c r="T123" s="14"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
-      <c r="A124" t="s" s="130">
+      <c r="A124" t="s" s="131">
         <v>37</v>
       </c>
-      <c r="B124" t="s" s="131">
+      <c r="B124" t="s" s="132">
         <v>38</v>
       </c>
-      <c r="C124" t="s" s="131">
+      <c r="C124" t="s" s="132">
         <v>39</v>
       </c>
-      <c r="D124" s="132">
+      <c r="D124" s="133">
         <v>0.6</v>
       </c>
-      <c r="E124" s="132">
+      <c r="E124" s="133">
         <v>0.7</v>
       </c>
-      <c r="F124" s="132">
+      <c r="F124" s="133">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G124" s="132">
+      <c r="G124" s="133">
         <v>0.65</v>
       </c>
-      <c r="H124" s="132">
+      <c r="H124" s="133">
         <v>0.6938775510204082</v>
       </c>
-      <c r="I124" s="132">
+      <c r="I124" s="133">
         <v>1</v>
       </c>
-      <c r="J124" s="132">
+      <c r="J124" s="133">
         <f>I124*5</f>
         <v>5</v>
       </c>
-      <c r="K124" s="132">
+      <c r="K124" s="133">
         <v>0.8</v>
       </c>
-      <c r="L124" s="132">
+      <c r="L124" s="133">
         <f>K124*10</f>
         <v>8</v>
       </c>
-      <c r="M124" s="132">
+      <c r="M124" s="133">
         <v>0.8</v>
       </c>
-      <c r="N124" s="132">
+      <c r="N124" s="133">
         <f>M124*15</f>
         <v>12</v>
       </c>
-      <c r="O124" s="132">
+      <c r="O124" s="133">
         <v>0.8</v>
       </c>
-      <c r="P124" s="132">
+      <c r="P124" s="133">
         <f>O124*20</f>
         <v>16</v>
       </c>
-      <c r="Q124" s="133">
+      <c r="Q124" s="134">
         <v>0.76</v>
       </c>
       <c r="R124" s="14"/>
@@ -8005,57 +8008,57 @@
       <c r="T124" s="14"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
-      <c r="A125" s="134"/>
-      <c r="B125" t="s" s="131">
+      <c r="A125" s="135"/>
+      <c r="B125" t="s" s="132">
         <v>40</v>
       </c>
-      <c r="C125" t="s" s="131">
+      <c r="C125" t="s" s="132">
         <v>41</v>
       </c>
-      <c r="D125" s="135">
+      <c r="D125" s="136">
         <v>1</v>
       </c>
-      <c r="E125" s="135">
+      <c r="E125" s="136">
         <v>1</v>
       </c>
-      <c r="F125" s="136">
+      <c r="F125" s="137">
         <v>1</v>
       </c>
-      <c r="G125" s="132">
+      <c r="G125" s="133">
         <v>1</v>
       </c>
-      <c r="H125" s="132">
+      <c r="H125" s="133">
         <v>0.9</v>
       </c>
-      <c r="I125" s="132">
+      <c r="I125" s="133">
         <v>1</v>
       </c>
-      <c r="J125" s="132">
+      <c r="J125" s="133">
         <f>I125*5</f>
         <v>5</v>
       </c>
-      <c r="K125" s="132">
+      <c r="K125" s="133">
         <v>1</v>
       </c>
-      <c r="L125" s="132">
+      <c r="L125" s="133">
         <f>K125*10</f>
         <v>10</v>
       </c>
-      <c r="M125" s="132">
+      <c r="M125" s="133">
         <v>1</v>
       </c>
-      <c r="N125" s="132">
+      <c r="N125" s="133">
         <f>M125*15</f>
         <v>15</v>
       </c>
-      <c r="O125" s="132">
+      <c r="O125" s="133">
         <v>0.95</v>
       </c>
-      <c r="P125" s="132">
+      <c r="P125" s="133">
         <f>O125*20</f>
         <v>19</v>
       </c>
-      <c r="Q125" s="133">
+      <c r="Q125" s="134">
         <v>0.9</v>
       </c>
       <c r="R125" s="14"/>
@@ -8063,57 +8066,57 @@
       <c r="T125" s="14"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
-      <c r="A126" s="137"/>
-      <c r="B126" t="s" s="131">
+      <c r="A126" s="138"/>
+      <c r="B126" t="s" s="132">
         <v>42</v>
       </c>
-      <c r="C126" t="s" s="131">
+      <c r="C126" t="s" s="132">
         <v>43</v>
       </c>
-      <c r="D126" s="135">
+      <c r="D126" s="136">
         <v>1</v>
       </c>
-      <c r="E126" s="135">
+      <c r="E126" s="136">
         <v>1</v>
       </c>
-      <c r="F126" s="135">
+      <c r="F126" s="136">
         <v>0.8</v>
       </c>
-      <c r="G126" s="132">
+      <c r="G126" s="133">
         <v>0.85</v>
       </c>
-      <c r="H126" s="132">
+      <c r="H126" s="133">
         <v>0.84</v>
       </c>
-      <c r="I126" s="132">
+      <c r="I126" s="133">
         <v>1</v>
       </c>
-      <c r="J126" s="132">
+      <c r="J126" s="133">
         <f>I126*5</f>
         <v>5</v>
       </c>
-      <c r="K126" s="132">
+      <c r="K126" s="133">
         <v>1</v>
       </c>
-      <c r="L126" s="132">
+      <c r="L126" s="133">
         <f>K126*10</f>
         <v>10</v>
       </c>
-      <c r="M126" s="132">
+      <c r="M126" s="133">
         <v>0.8</v>
       </c>
-      <c r="N126" s="132">
+      <c r="N126" s="133">
         <f>M126*15</f>
         <v>12</v>
       </c>
-      <c r="O126" s="132">
+      <c r="O126" s="133">
         <v>0.85</v>
       </c>
-      <c r="P126" s="132">
+      <c r="P126" s="133">
         <f>O126*20</f>
         <v>17</v>
       </c>
-      <c r="Q126" s="133">
+      <c r="Q126" s="134">
         <v>0.86</v>
       </c>
       <c r="R126" s="14"/>
@@ -8121,57 +8124,57 @@
       <c r="T126" s="14"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
-      <c r="A127" s="137"/>
-      <c r="B127" t="s" s="131">
+      <c r="A127" s="138"/>
+      <c r="B127" t="s" s="132">
         <v>44</v>
       </c>
-      <c r="C127" t="s" s="131">
+      <c r="C127" t="s" s="132">
         <v>45</v>
       </c>
-      <c r="D127" s="135">
+      <c r="D127" s="136">
         <v>1</v>
       </c>
-      <c r="E127" s="135">
+      <c r="E127" s="136">
         <v>0.7</v>
       </c>
-      <c r="F127" s="132">
+      <c r="F127" s="133">
         <v>0.7333333333333333</v>
       </c>
-      <c r="G127" s="132">
+      <c r="G127" s="133">
         <v>0.7</v>
       </c>
-      <c r="H127" s="132">
+      <c r="H127" s="133">
         <v>0.6333333333333333</v>
       </c>
-      <c r="I127" s="132">
+      <c r="I127" s="133">
         <v>1</v>
       </c>
-      <c r="J127" s="132">
+      <c r="J127" s="133">
         <f>I127*5</f>
         <v>5</v>
       </c>
-      <c r="K127" s="132">
+      <c r="K127" s="133">
         <v>0.7</v>
       </c>
-      <c r="L127" s="132">
+      <c r="L127" s="133">
         <f>K127*10</f>
         <v>7</v>
       </c>
-      <c r="M127" s="132">
+      <c r="M127" s="133">
         <v>0.7333333333333333</v>
       </c>
-      <c r="N127" s="132">
+      <c r="N127" s="133">
         <f>M127*15</f>
         <v>11</v>
       </c>
-      <c r="O127" s="132">
+      <c r="O127" s="133">
         <v>0.7</v>
       </c>
-      <c r="P127" s="132">
+      <c r="P127" s="133">
         <f>O127*20</f>
         <v>14</v>
       </c>
-      <c r="Q127" s="133">
+      <c r="Q127" s="134">
         <v>0.7142857142857143</v>
       </c>
       <c r="R127" s="14"/>
@@ -8179,57 +8182,57 @@
       <c r="T127" s="14"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
-      <c r="A128" s="137"/>
-      <c r="B128" t="s" s="131">
+      <c r="A128" s="138"/>
+      <c r="B128" t="s" s="132">
         <v>46</v>
       </c>
-      <c r="C128" t="s" s="131">
+      <c r="C128" t="s" s="132">
         <v>47</v>
       </c>
-      <c r="D128" s="132">
+      <c r="D128" s="133">
         <v>0.8</v>
       </c>
-      <c r="E128" s="132">
+      <c r="E128" s="133">
         <v>0.7</v>
       </c>
-      <c r="F128" s="132">
+      <c r="F128" s="133">
         <v>0.8</v>
       </c>
-      <c r="G128" s="132">
+      <c r="G128" s="133">
         <v>0.85</v>
       </c>
-      <c r="H128" s="132">
+      <c r="H128" s="133">
         <v>0.8</v>
       </c>
-      <c r="I128" s="132">
+      <c r="I128" s="133">
         <v>0.6</v>
       </c>
-      <c r="J128" s="132">
+      <c r="J128" s="133">
         <f>I128*5</f>
         <v>3</v>
       </c>
-      <c r="K128" s="132">
+      <c r="K128" s="133">
         <v>0.8</v>
       </c>
-      <c r="L128" s="132">
+      <c r="L128" s="133">
         <f>K128*10</f>
         <v>8</v>
       </c>
-      <c r="M128" s="132">
+      <c r="M128" s="133">
         <v>0.8666666666666667</v>
       </c>
-      <c r="N128" s="132">
+      <c r="N128" s="133">
         <f>M128*15</f>
         <v>13</v>
       </c>
-      <c r="O128" s="132">
+      <c r="O128" s="133">
         <v>0.8</v>
       </c>
-      <c r="P128" s="132">
+      <c r="P128" s="133">
         <f>O128*20</f>
         <v>16</v>
       </c>
-      <c r="Q128" s="133">
+      <c r="Q128" s="134">
         <v>0.78</v>
       </c>
       <c r="R128" s="14"/>
@@ -8237,57 +8240,57 @@
       <c r="T128" s="14"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
-      <c r="A129" s="134"/>
-      <c r="B129" t="s" s="131">
+      <c r="A129" s="135"/>
+      <c r="B129" t="s" s="132">
         <v>48</v>
       </c>
-      <c r="C129" t="s" s="131">
+      <c r="C129" t="s" s="132">
         <v>49</v>
       </c>
-      <c r="D129" s="132">
+      <c r="D129" s="133">
         <v>0.8</v>
       </c>
-      <c r="E129" s="132">
+      <c r="E129" s="133">
         <v>0.7</v>
       </c>
-      <c r="F129" s="132">
+      <c r="F129" s="133">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G129" s="132">
+      <c r="G129" s="133">
         <v>0.65</v>
       </c>
-      <c r="H129" s="132">
+      <c r="H129" s="133">
         <v>0.6</v>
       </c>
-      <c r="I129" s="132">
+      <c r="I129" s="133">
         <v>0.8</v>
       </c>
-      <c r="J129" s="132">
+      <c r="J129" s="133">
         <f>I129*5</f>
         <v>4</v>
       </c>
-      <c r="K129" s="132">
+      <c r="K129" s="133">
         <v>0.8</v>
       </c>
-      <c r="L129" s="132">
+      <c r="L129" s="133">
         <f>K129*10</f>
         <v>8</v>
       </c>
-      <c r="M129" s="132">
+      <c r="M129" s="133">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N129" s="132">
+      <c r="N129" s="133">
         <f>M129*15</f>
         <v>10</v>
       </c>
-      <c r="O129" s="132">
+      <c r="O129" s="133">
         <v>0.75</v>
       </c>
-      <c r="P129" s="132">
+      <c r="P129" s="133">
         <f>O129*20</f>
         <v>15</v>
       </c>
-      <c r="Q129" s="133">
+      <c r="Q129" s="134">
         <v>0.7407407407407407</v>
       </c>
       <c r="R129" s="14"/>
@@ -8295,62 +8298,62 @@
       <c r="T129" s="14"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
-      <c r="A130" s="138"/>
-      <c r="B130" s="139"/>
-      <c r="C130" s="139"/>
-      <c r="D130" s="140">
+      <c r="A130" s="139"/>
+      <c r="B130" s="140"/>
+      <c r="C130" s="140"/>
+      <c r="D130" s="141">
         <f>AVERAGE(D124,D125,D126,D127,D128,D129)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E130" s="140">
+      <c r="E130" s="141">
         <f>AVERAGE(E124,E125,E126,E127,E128,E129)</f>
         <v>0.8000000000000002</v>
       </c>
-      <c r="F130" s="140">
+      <c r="F130" s="141">
         <f>AVERAGE(F124,F125,F126,F127,F128,F129)</f>
         <v>0.7777777777777778</v>
       </c>
-      <c r="G130" s="140">
+      <c r="G130" s="141">
         <f>AVERAGE(G124,G125,G126,G127,G128,G129)</f>
         <v>0.7833333333333333</v>
       </c>
-      <c r="H130" s="140">
+      <c r="H130" s="141">
         <f>AVERAGE(H124,H125,H126,H127,H128,H129)</f>
         <v>0.7445351473922902</v>
       </c>
-      <c r="I130" s="140">
+      <c r="I130" s="141">
         <f>AVERAGE(I124,I125,I126,I127,I128,I129)</f>
         <v>0.8999999999999999</v>
       </c>
-      <c r="J130" s="140">
+      <c r="J130" s="141">
         <f>AVERAGE(J124,J125,J126,J127,J128,J129)</f>
         <v>4.5</v>
       </c>
-      <c r="K130" s="140">
+      <c r="K130" s="141">
         <f>AVERAGE(K124,K125,K126,K127,K128,K129)</f>
         <v>0.85</v>
       </c>
-      <c r="L130" s="140">
+      <c r="L130" s="141">
         <f>AVERAGE(L124,L125,L126,L127,L128,L129)</f>
         <v>8.5</v>
       </c>
-      <c r="M130" s="140">
+      <c r="M130" s="141">
         <f>AVERAGE(M124,M125,M126,M127,M128,M129)</f>
         <v>0.8111111111111112</v>
       </c>
-      <c r="N130" s="140">
+      <c r="N130" s="141">
         <f>AVERAGE(N124,N125,N126,N127,N128,N129)</f>
         <v>12.16666666666667</v>
       </c>
-      <c r="O130" s="140">
+      <c r="O130" s="141">
         <f>AVERAGE(O124,O125,O126,O127,O128,O129)</f>
         <v>0.8083333333333332</v>
       </c>
-      <c r="P130" s="140">
+      <c r="P130" s="141">
         <f>AVERAGE(P124,P125,P126,P127,P128,P129)</f>
         <v>16.16666666666667</v>
       </c>
-      <c r="Q130" s="141">
+      <c r="Q130" s="142">
         <f>AVERAGE(Q124,Q125,Q126,Q127,Q128,Q129)</f>
         <v>0.7925044091710758</v>
       </c>
@@ -8359,59 +8362,59 @@
       <c r="T130" s="14"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
-      <c r="A131" t="s" s="130">
+      <c r="A131" t="s" s="131">
         <v>50</v>
       </c>
-      <c r="B131" t="s" s="131">
+      <c r="B131" t="s" s="132">
         <v>38</v>
       </c>
-      <c r="C131" t="s" s="131">
+      <c r="C131" t="s" s="132">
         <v>39</v>
       </c>
-      <c r="D131" s="132">
+      <c r="D131" s="133">
         <v>0.8</v>
       </c>
-      <c r="E131" s="132">
+      <c r="E131" s="133">
         <v>0.5</v>
       </c>
-      <c r="F131" s="136">
+      <c r="F131" s="137">
         <v>0.5333333333333333</v>
       </c>
-      <c r="G131" s="132">
+      <c r="G131" s="133">
         <v>0.65</v>
       </c>
-      <c r="H131" s="132">
+      <c r="H131" s="133">
         <v>0.84</v>
       </c>
-      <c r="I131" s="132">
+      <c r="I131" s="133">
         <v>0.4</v>
       </c>
-      <c r="J131" s="132">
+      <c r="J131" s="133">
         <f>I131*5</f>
         <v>2</v>
       </c>
-      <c r="K131" s="132">
+      <c r="K131" s="133">
         <v>0.5</v>
       </c>
-      <c r="L131" s="132">
+      <c r="L131" s="133">
         <f>K131*10</f>
         <v>5</v>
       </c>
-      <c r="M131" s="132">
+      <c r="M131" s="133">
         <v>0.5333333333333333</v>
       </c>
-      <c r="N131" s="132">
+      <c r="N131" s="133">
         <f>M131*15</f>
         <v>8</v>
       </c>
-      <c r="O131" s="132">
+      <c r="O131" s="133">
         <v>0.4</v>
       </c>
-      <c r="P131" s="132">
+      <c r="P131" s="133">
         <f>O131*20</f>
         <v>8</v>
       </c>
-      <c r="Q131" s="133">
+      <c r="Q131" s="134">
         <v>0.6</v>
       </c>
       <c r="R131" s="14"/>
@@ -8419,57 +8422,57 @@
       <c r="T131" s="14"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
-      <c r="A132" s="134"/>
-      <c r="B132" t="s" s="131">
+      <c r="A132" s="135"/>
+      <c r="B132" t="s" s="132">
         <v>40</v>
       </c>
-      <c r="C132" t="s" s="131">
+      <c r="C132" t="s" s="132">
         <v>41</v>
       </c>
-      <c r="D132" s="135">
+      <c r="D132" s="136">
         <v>1</v>
       </c>
-      <c r="E132" s="135">
+      <c r="E132" s="136">
         <v>1</v>
       </c>
-      <c r="F132" s="135">
+      <c r="F132" s="136">
         <v>0.8666666666666667</v>
       </c>
-      <c r="G132" s="132">
+      <c r="G132" s="133">
         <v>0.65</v>
       </c>
-      <c r="H132" s="132">
+      <c r="H132" s="133">
         <v>0.68</v>
       </c>
-      <c r="I132" s="132">
+      <c r="I132" s="133">
         <v>1</v>
       </c>
-      <c r="J132" s="132">
+      <c r="J132" s="133">
         <f>I132*5</f>
         <v>5</v>
       </c>
-      <c r="K132" s="132">
+      <c r="K132" s="133">
         <v>1</v>
       </c>
-      <c r="L132" s="132">
+      <c r="L132" s="133">
         <f>K132*10</f>
         <v>10</v>
       </c>
-      <c r="M132" s="132">
+      <c r="M132" s="133">
         <v>0.8</v>
       </c>
-      <c r="N132" s="132">
+      <c r="N132" s="133">
         <f>M132*15</f>
         <v>12</v>
       </c>
-      <c r="O132" s="132">
+      <c r="O132" s="133">
         <v>0.6</v>
       </c>
-      <c r="P132" s="132">
+      <c r="P132" s="133">
         <f>O132*20</f>
         <v>12</v>
       </c>
-      <c r="Q132" s="133">
+      <c r="Q132" s="134">
         <v>0.68</v>
       </c>
       <c r="R132" s="14"/>
@@ -8477,57 +8480,57 @@
       <c r="T132" s="14"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
-      <c r="A133" s="142"/>
-      <c r="B133" t="s" s="131">
+      <c r="A133" s="143"/>
+      <c r="B133" t="s" s="132">
         <v>42</v>
       </c>
-      <c r="C133" t="s" s="131">
+      <c r="C133" t="s" s="132">
         <v>43</v>
       </c>
-      <c r="D133" s="135">
+      <c r="D133" s="136">
         <v>0.8</v>
       </c>
-      <c r="E133" s="132">
+      <c r="E133" s="133">
         <v>0.7</v>
       </c>
-      <c r="F133" s="136">
+      <c r="F133" s="137">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G133" s="132">
+      <c r="G133" s="133">
         <v>0.7</v>
       </c>
-      <c r="H133" s="132">
+      <c r="H133" s="133">
         <v>0.7</v>
       </c>
-      <c r="I133" s="132">
+      <c r="I133" s="133">
         <v>0.8</v>
       </c>
-      <c r="J133" s="132">
+      <c r="J133" s="133">
         <f>I133*5</f>
         <v>4</v>
       </c>
-      <c r="K133" s="132">
+      <c r="K133" s="133">
         <v>0.7</v>
       </c>
-      <c r="L133" s="132">
+      <c r="L133" s="133">
         <f>K133*10</f>
         <v>7</v>
       </c>
-      <c r="M133" s="132">
+      <c r="M133" s="133">
         <v>0.6666666666666666</v>
       </c>
-      <c r="N133" s="132">
+      <c r="N133" s="133">
         <f>M133*15</f>
         <v>10</v>
       </c>
-      <c r="O133" s="132">
+      <c r="O133" s="133">
         <v>0.7</v>
       </c>
-      <c r="P133" s="132">
+      <c r="P133" s="133">
         <f>O133*20</f>
         <v>14</v>
       </c>
-      <c r="Q133" s="133">
+      <c r="Q133" s="134">
         <v>0.7</v>
       </c>
       <c r="R133" s="14"/>
@@ -8535,57 +8538,57 @@
       <c r="T133" s="14"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
-      <c r="A134" s="137"/>
-      <c r="B134" t="s" s="131">
+      <c r="A134" s="138"/>
+      <c r="B134" t="s" s="132">
         <v>44</v>
       </c>
-      <c r="C134" t="s" s="131">
+      <c r="C134" t="s" s="132">
         <v>45</v>
       </c>
-      <c r="D134" s="135">
+      <c r="D134" s="136">
         <v>1</v>
       </c>
-      <c r="E134" s="135">
+      <c r="E134" s="136">
         <v>0.7</v>
       </c>
-      <c r="F134" s="135">
+      <c r="F134" s="136">
         <v>0.4666666666666667</v>
       </c>
-      <c r="G134" s="132">
+      <c r="G134" s="133">
         <v>0.4666666666666667</v>
       </c>
-      <c r="H134" s="132">
+      <c r="H134" s="133">
         <v>0.4666666666666667</v>
       </c>
-      <c r="I134" s="132">
+      <c r="I134" s="133">
         <v>0.6</v>
       </c>
-      <c r="J134" s="132">
+      <c r="J134" s="133">
         <f>I134*5</f>
         <v>3</v>
       </c>
-      <c r="K134" s="132">
+      <c r="K134" s="133">
         <v>0.7</v>
       </c>
-      <c r="L134" s="132">
+      <c r="L134" s="133">
         <f>K134*10</f>
         <v>7</v>
       </c>
-      <c r="M134" s="132">
+      <c r="M134" s="133">
         <v>0.4666666666666667</v>
       </c>
-      <c r="N134" s="132">
+      <c r="N134" s="133">
         <f>M134*15</f>
         <v>7</v>
       </c>
-      <c r="O134" s="132">
+      <c r="O134" s="133">
         <v>0.35</v>
       </c>
-      <c r="P134" s="132">
+      <c r="P134" s="133">
         <f>O134*20</f>
         <v>7</v>
       </c>
-      <c r="Q134" s="133">
+      <c r="Q134" s="134">
         <v>0.3333333333333333</v>
       </c>
       <c r="R134" s="14"/>
@@ -8593,57 +8596,57 @@
       <c r="T134" s="14"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
-      <c r="A135" s="137"/>
-      <c r="B135" t="s" s="131">
+      <c r="A135" s="138"/>
+      <c r="B135" t="s" s="132">
         <v>46</v>
       </c>
-      <c r="C135" t="s" s="131">
+      <c r="C135" t="s" s="132">
         <v>47</v>
       </c>
-      <c r="D135" s="132">
+      <c r="D135" s="133">
         <v>0.6</v>
       </c>
-      <c r="E135" s="132">
+      <c r="E135" s="133">
         <v>0.8</v>
       </c>
-      <c r="F135" s="143">
+      <c r="F135" s="144">
         <v>0.8666666666666667</v>
       </c>
-      <c r="G135" s="132">
+      <c r="G135" s="133">
         <v>0.9</v>
       </c>
-      <c r="H135" s="132">
+      <c r="H135" s="133">
         <v>0.717948717948718</v>
       </c>
-      <c r="I135" s="132">
+      <c r="I135" s="133">
         <v>0.4</v>
       </c>
-      <c r="J135" s="132">
+      <c r="J135" s="133">
         <f>I135*5</f>
         <v>2</v>
       </c>
-      <c r="K135" s="132">
+      <c r="K135" s="133">
         <v>0.6</v>
       </c>
-      <c r="L135" s="132">
+      <c r="L135" s="133">
         <f>K135*10</f>
         <v>6</v>
       </c>
-      <c r="M135" s="132">
+      <c r="M135" s="133">
         <v>0.6</v>
       </c>
-      <c r="N135" s="132">
+      <c r="N135" s="133">
         <f>M135*15</f>
         <v>9</v>
       </c>
-      <c r="O135" s="132">
+      <c r="O135" s="133">
         <v>0.7</v>
       </c>
-      <c r="P135" s="132">
+      <c r="P135" s="133">
         <f>O135*20</f>
         <v>14</v>
       </c>
-      <c r="Q135" s="133">
+      <c r="Q135" s="134">
         <v>0.7368421052631579</v>
       </c>
       <c r="R135" s="14"/>
@@ -8651,57 +8654,57 @@
       <c r="T135" s="14"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
-      <c r="A136" s="137"/>
-      <c r="B136" t="s" s="131">
+      <c r="A136" s="138"/>
+      <c r="B136" t="s" s="132">
         <v>48</v>
       </c>
-      <c r="C136" t="s" s="131">
+      <c r="C136" t="s" s="132">
         <v>49</v>
       </c>
-      <c r="D136" s="135">
+      <c r="D136" s="136">
         <v>1</v>
       </c>
-      <c r="E136" s="135">
+      <c r="E136" s="136">
         <v>1</v>
       </c>
-      <c r="F136" s="135">
+      <c r="F136" s="136">
         <v>1</v>
       </c>
-      <c r="G136" s="132">
+      <c r="G136" s="133">
         <v>1</v>
       </c>
-      <c r="H136" s="132">
+      <c r="H136" s="133">
         <v>0.5</v>
       </c>
-      <c r="I136" s="132">
+      <c r="I136" s="133">
         <v>1</v>
       </c>
-      <c r="J136" s="132">
+      <c r="J136" s="133">
         <f>I136*5</f>
         <v>5</v>
       </c>
-      <c r="K136" s="132">
+      <c r="K136" s="133">
         <v>1</v>
       </c>
-      <c r="L136" s="132">
+      <c r="L136" s="133">
         <f>K136*10</f>
         <v>10</v>
       </c>
-      <c r="M136" s="132">
+      <c r="M136" s="133">
         <v>1</v>
       </c>
-      <c r="N136" s="132">
+      <c r="N136" s="133">
         <f>M136*15</f>
         <v>15</v>
       </c>
-      <c r="O136" s="132">
+      <c r="O136" s="133">
         <v>1</v>
       </c>
-      <c r="P136" s="132">
+      <c r="P136" s="133">
         <f>O136*20</f>
         <v>20</v>
       </c>
-      <c r="Q136" s="133">
+      <c r="Q136" s="134">
         <v>0.5</v>
       </c>
       <c r="R136" s="14"/>
@@ -8709,62 +8712,62 @@
       <c r="T136" s="14"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
-      <c r="A137" s="144"/>
-      <c r="B137" s="145"/>
-      <c r="C137" s="145"/>
-      <c r="D137" s="146">
+      <c r="A137" s="145"/>
+      <c r="B137" s="146"/>
+      <c r="C137" s="146"/>
+      <c r="D137" s="147">
         <f>AVERAGE(D131,D132,D133,D134,D135,D136)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E137" s="146">
+      <c r="E137" s="147">
         <f>AVERAGE(E131,E132,E133,E134,E135,E136)</f>
         <v>0.7833333333333333</v>
       </c>
-      <c r="F137" s="146">
+      <c r="F137" s="147">
         <f>AVERAGE(F131,F132,F133,F134,F135,F136)</f>
         <v>0.7333333333333334</v>
       </c>
-      <c r="G137" s="146">
+      <c r="G137" s="147">
         <f>AVERAGE(G131,G132,G133,G134,G135,G136)</f>
         <v>0.7277777777777779</v>
       </c>
-      <c r="H137" s="146">
+      <c r="H137" s="147">
         <f>AVERAGE(H131,H132,H133,H134,H135,H136)</f>
         <v>0.6507692307692308</v>
       </c>
-      <c r="I137" s="146">
+      <c r="I137" s="147">
         <f>AVERAGE(I131,I132,I133,I134,I135,I136)</f>
         <v>0.7000000000000001</v>
       </c>
-      <c r="J137" s="146">
+      <c r="J137" s="147">
         <f>AVERAGE(J131,J132,J133,J134,J135,J136)</f>
         <v>3.5</v>
       </c>
-      <c r="K137" s="146">
+      <c r="K137" s="147">
         <f>AVERAGE(K131,K132,K133,K134,K135,K136)</f>
         <v>0.75</v>
       </c>
-      <c r="L137" s="146">
+      <c r="L137" s="147">
         <f>AVERAGE(L131,L132,L133,L134,L135,L136)</f>
         <v>7.5</v>
       </c>
-      <c r="M137" s="146">
+      <c r="M137" s="147">
         <f>AVERAGE(M131,M132,M133,M134,M135,M136)</f>
         <v>0.6777777777777777</v>
       </c>
-      <c r="N137" s="146">
+      <c r="N137" s="147">
         <f>AVERAGE(N131,N132,N133,N134,N135,N136)</f>
         <v>10.16666666666667</v>
       </c>
-      <c r="O137" s="146">
+      <c r="O137" s="147">
         <f>AVERAGE(O131,O132,O133,O134,O135,O136)</f>
         <v>0.625</v>
       </c>
-      <c r="P137" s="146">
+      <c r="P137" s="147">
         <f>AVERAGE(P131,P132,P133,P134,P135,P136)</f>
         <v>12.5</v>
       </c>
-      <c r="Q137" s="147">
+      <c r="Q137" s="148">
         <f>AVERAGE(Q131,Q132,Q133,Q134,Q135,Q136)</f>
         <v>0.5916959064327486</v>
       </c>
@@ -15708,42 +15711,42 @@
       <c r="E1" s="73"/>
       <c r="F1" s="73"/>
     </row>
-    <row r="2" ht="26.7" customHeight="1">
+    <row r="2" ht="38.7" customHeight="1">
       <c r="A2" t="s" s="93">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" s="75">
-        <v>0.768</v>
+        <v>0.741</v>
       </c>
       <c r="E2" s="51">
-        <v>0.729</v>
+        <v>0.526</v>
       </c>
       <c r="F2" s="51">
-        <v>0.748</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="3" ht="26.7" customHeight="1">
       <c r="A3" s="94"/>
       <c r="B3" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" s="76">
-        <v>0.866</v>
+        <v>0.626</v>
       </c>
       <c r="E3" s="56">
-        <v>0.806</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F3" s="56">
-        <v>0.835</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="4" ht="26.7" customHeight="1">
@@ -15767,55 +15770,55 @@
     <row r="5" ht="26.7" customHeight="1">
       <c r="A5" s="94"/>
       <c r="B5" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="76">
-        <v>0.714</v>
+        <v>0.866</v>
       </c>
       <c r="E5" s="56">
-        <v>0.484</v>
+        <v>0.806</v>
       </c>
       <c r="F5" s="56">
-        <v>0.577</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="6" ht="26.7" customHeight="1">
-      <c r="A6" s="94"/>
+      <c r="A6" s="95"/>
       <c r="B6" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" s="76">
-        <v>0.626</v>
+        <v>0.768</v>
       </c>
       <c r="E6" s="56">
-        <v>0.6870000000000001</v>
+        <v>0.729</v>
       </c>
       <c r="F6" s="56">
-        <v>0.655</v>
-      </c>
-    </row>
-    <row r="7" ht="38.7" customHeight="1">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="7" ht="26.7" customHeight="1">
       <c r="A7" s="94"/>
       <c r="B7" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="76">
-        <v>0.741</v>
+        <v>0.714</v>
       </c>
       <c r="E7" s="56">
-        <v>0.526</v>
+        <v>0.484</v>
       </c>
       <c r="F7" s="56">
-        <v>0.615</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="8" ht="14.7" customHeight="1">
@@ -15823,54 +15826,54 @@
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="61">
-        <f>AVERAGE(D2,D3,D4,D5,D6,D7)</f>
+        <f>AVERAGE(D6,D5,D4,D7,D3,D2)</f>
         <v>0.7451666666666665</v>
       </c>
       <c r="E8" s="61">
-        <f>AVERAGE(E2,E3,E4,E5,E6,E7)</f>
+        <f>AVERAGE(E6,E5,E4,E7,E3,E2)</f>
         <v>0.638</v>
       </c>
       <c r="F8" s="61">
-        <f>AVERAGE(F2,F3,F4,F5,F6,F7)</f>
+        <f>AVERAGE(F6,F5,F4,F7,F3,F2)</f>
         <v>0.6828333333333334</v>
       </c>
     </row>
-    <row r="9" ht="26.7" customHeight="1">
-      <c r="A9" t="s" s="95">
+    <row r="9" ht="38.7" customHeight="1">
+      <c r="A9" t="s" s="96">
         <v>25</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D9" s="76">
-        <v>0.727</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E9" s="56">
-        <v>0.542</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F9" s="56">
-        <v>0.621</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="10" ht="26.7" customHeight="1">
       <c r="A10" s="94"/>
       <c r="B10" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="76">
-        <v>0.806</v>
+        <v>0.582</v>
       </c>
       <c r="E10" s="56">
-        <v>0.806</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F10" s="56">
-        <v>0.806</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11" ht="26.7" customHeight="1">
@@ -15894,110 +15897,110 @@
     <row r="12" ht="26.7" customHeight="1">
       <c r="A12" s="94"/>
       <c r="B12" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="76">
-        <v>0.6919999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="E12" s="56">
-        <v>0.581</v>
+        <v>0.806</v>
       </c>
       <c r="F12" s="56">
-        <v>0.632</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="13" ht="26.7" customHeight="1">
-      <c r="A13" s="94"/>
+      <c r="A13" s="95"/>
       <c r="B13" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" s="76">
-        <v>0.582</v>
+        <v>0.727</v>
       </c>
       <c r="E13" s="56">
-        <v>0.6870000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="F13" s="56">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14" ht="38.7" customHeight="1">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="14" ht="26.7" customHeight="1">
       <c r="A14" s="94"/>
       <c r="B14" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s" s="21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="76">
-        <v>0.8129999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E14" s="56">
-        <v>0.6840000000000001</v>
+        <v>0.581</v>
       </c>
       <c r="F14" s="56">
-        <v>0.743</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="15" ht="14.7" customHeight="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="61">
-        <f>AVERAGE(D9,D10,D11,D12,D13,D14)</f>
+        <f>AVERAGE(D13,D12,D11,D14,D10,D9)</f>
         <v>0.7145</v>
       </c>
       <c r="E15" s="61">
-        <f>AVERAGE(E9,E10,E11,E12,E13,E14)</f>
+        <f>AVERAGE(E13,E12,E11,E14,E10,E9)</f>
         <v>0.6416666666666667</v>
       </c>
       <c r="F15" s="61">
-        <f>AVERAGE(F9,F10,F11,F12,F13,F14)</f>
+        <f>AVERAGE(F13,F12,F11,F14,F10,F9)</f>
         <v>0.6725</v>
       </c>
     </row>
-    <row r="16" ht="26.7" customHeight="1">
-      <c r="A16" t="s" s="95">
+    <row r="16" ht="38.7" customHeight="1">
+      <c r="A16" t="s" s="96">
         <v>60</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s" s="21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D16" s="76">
-        <v>0.708</v>
+        <v>0.735</v>
       </c>
       <c r="E16" s="56">
-        <v>0.576</v>
+        <v>0.658</v>
       </c>
       <c r="F16" s="56">
-        <v>0.636</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="17" ht="26.7" customHeight="1">
       <c r="A17" s="94"/>
       <c r="B17" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D17" s="76">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="E17" s="56">
-        <v>0.75</v>
+        <v>0.831</v>
       </c>
       <c r="F17" s="56">
-        <v>0.745</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="18" ht="26.7" customHeight="1">
@@ -16021,110 +16024,110 @@
     <row r="19" ht="26.7" customHeight="1">
       <c r="A19" s="94"/>
       <c r="B19" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="76">
-        <v>0.667</v>
+        <v>0.74</v>
       </c>
       <c r="E19" s="56">
-        <v>0.452</v>
+        <v>0.75</v>
       </c>
       <c r="F19" s="56">
-        <v>0.538</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="20" ht="26.7" customHeight="1">
-      <c r="A20" s="94"/>
+      <c r="A20" s="95"/>
       <c r="B20" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D20" s="76">
-        <v>0.67</v>
+        <v>0.708</v>
       </c>
       <c r="E20" s="56">
-        <v>0.831</v>
+        <v>0.576</v>
       </c>
       <c r="F20" s="56">
-        <v>0.742</v>
-      </c>
-    </row>
-    <row r="21" ht="38.7" customHeight="1">
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="21" ht="26.7" customHeight="1">
       <c r="A21" s="94"/>
       <c r="B21" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s" s="21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="76">
-        <v>0.735</v>
+        <v>0.667</v>
       </c>
       <c r="E21" s="56">
-        <v>0.658</v>
+        <v>0.452</v>
       </c>
       <c r="F21" s="56">
-        <v>0.694</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="22" ht="14.7" customHeight="1">
       <c r="A22" s="87"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="61">
-        <f>AVERAGE(D16,D17,D18,D19,D20,D21)</f>
+        <f>AVERAGE(D20,D19,D18,D21,D17,D16)</f>
         <v>0.6818333333333334</v>
       </c>
       <c r="E22" s="61">
-        <f>AVERAGE(E16,E17,E18,E19,E20,E21)</f>
+        <f>AVERAGE(E20,E19,E18,E21,E17,E16)</f>
         <v>0.5690000000000001</v>
       </c>
       <c r="F22" s="61">
-        <f>AVERAGE(F16,F17,F18,F19,F20,F21)</f>
+        <f>AVERAGE(F20,F19,F18,F21,F17,F16)</f>
         <v>0.5981666666666666</v>
       </c>
     </row>
-    <row r="23" ht="26.7" customHeight="1">
-      <c r="A23" t="s" s="95">
+    <row r="23" ht="38.7" customHeight="1">
+      <c r="A23" t="s" s="96">
         <v>27</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s" s="21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D23" s="76">
-        <v>0.782</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E23" s="56">
-        <v>0.729</v>
+        <v>0.395</v>
       </c>
       <c r="F23" s="56">
-        <v>0.754</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" ht="26.7" customHeight="1">
       <c r="A24" s="94"/>
       <c r="B24" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D24" s="76">
-        <v>0.738</v>
+        <v>0.621</v>
       </c>
       <c r="E24" s="56">
-        <v>0.861</v>
+        <v>0.711</v>
       </c>
       <c r="F24" s="56">
-        <v>0.795</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="25" ht="26.7" customHeight="1">
@@ -16148,110 +16151,110 @@
     <row r="26" ht="26.7" customHeight="1">
       <c r="A26" s="94"/>
       <c r="B26" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D26" s="76">
-        <v>0.652</v>
+        <v>0.738</v>
       </c>
       <c r="E26" s="56">
-        <v>0.484</v>
+        <v>0.861</v>
       </c>
       <c r="F26" s="56">
-        <v>0.556</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="27" ht="26.7" customHeight="1">
-      <c r="A27" s="94"/>
+      <c r="A27" s="95"/>
       <c r="B27" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="76">
-        <v>0.621</v>
+        <v>0.782</v>
       </c>
       <c r="E27" s="56">
-        <v>0.711</v>
+        <v>0.729</v>
       </c>
       <c r="F27" s="56">
-        <v>0.663</v>
-      </c>
-    </row>
-    <row r="28" ht="38.7" customHeight="1">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="28" ht="26.7" customHeight="1">
       <c r="A28" s="94"/>
       <c r="B28" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s" s="21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" s="76">
-        <v>0.6820000000000001</v>
+        <v>0.652</v>
       </c>
       <c r="E28" s="56">
-        <v>0.395</v>
+        <v>0.484</v>
       </c>
       <c r="F28" s="56">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="29" ht="14.7" customHeight="1">
       <c r="A29" s="87"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="61">
-        <f>AVERAGE(D23,D24,D25,D26,D27,D28)</f>
+        <f>AVERAGE(D27,D26,D25,D28,D24,D23)</f>
         <v>0.7028333333333334</v>
       </c>
       <c r="E29" s="61">
-        <f>AVERAGE(E23,E24,E25,E26,E27,E28)</f>
+        <f>AVERAGE(E27,E26,E25,E28,E24,E23)</f>
         <v>0.6309999999999999</v>
       </c>
       <c r="F29" s="61">
-        <f>AVERAGE(F23,F24,F25,F26,F27,F28)</f>
+        <f>AVERAGE(F27,F26,F25,F28,F24,F23)</f>
         <v>0.6558333333333334</v>
       </c>
     </row>
-    <row r="30" ht="26.7" customHeight="1">
-      <c r="A30" t="s" s="95">
+    <row r="30" ht="38.7" customHeight="1">
+      <c r="A30" t="s" s="96">
         <v>28</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D30" s="76">
-        <v>0.75</v>
+        <v>0.724</v>
       </c>
       <c r="E30" s="56">
-        <v>0.508</v>
+        <v>0.553</v>
       </c>
       <c r="F30" s="56">
-        <v>0.606</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="31" ht="26.7" customHeight="1">
       <c r="A31" s="94"/>
       <c r="B31" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D31" s="76">
-        <v>0.695</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="E31" s="56">
-        <v>0.792</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F31" s="56">
-        <v>0.74</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="32" ht="26.7" customHeight="1">
@@ -16275,110 +16278,110 @@
     <row r="33" ht="26.7" customHeight="1">
       <c r="A33" s="94"/>
       <c r="B33" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D33" s="76">
-        <v>0.522</v>
+        <v>0.695</v>
       </c>
       <c r="E33" s="56">
-        <v>0.387</v>
+        <v>0.792</v>
       </c>
       <c r="F33" s="56">
-        <v>0.444</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="34" ht="26.7" customHeight="1">
-      <c r="A34" s="94"/>
+      <c r="A34" s="95"/>
       <c r="B34" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D34" s="76">
-        <v>0.6870000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E34" s="56">
-        <v>0.6870000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="F34" s="56">
-        <v>0.6870000000000001</v>
-      </c>
-    </row>
-    <row r="35" ht="38.7" customHeight="1">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="35" ht="26.7" customHeight="1">
       <c r="A35" s="94"/>
       <c r="B35" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s" s="21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D35" s="76">
-        <v>0.724</v>
+        <v>0.522</v>
       </c>
       <c r="E35" s="56">
-        <v>0.553</v>
+        <v>0.387</v>
       </c>
       <c r="F35" s="56">
-        <v>0.627</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="36" ht="14.7" customHeight="1">
       <c r="A36" s="87"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="61">
-        <f>AVERAGE(D30,D31,D32,D33,D34,D35)</f>
+        <f>AVERAGE(D34,D33,D32,D35,D31,D30)</f>
         <v>0.6661666666666668</v>
       </c>
       <c r="E36" s="61">
-        <f>AVERAGE(E30,E31,E32,E33,E34,E35)</f>
+        <f>AVERAGE(E34,E33,E32,E35,E31,E30)</f>
         <v>0.5995</v>
       </c>
       <c r="F36" s="61">
-        <f>AVERAGE(F30,F31,F32,F33,F34,F35)</f>
+        <f>AVERAGE(F34,F33,F32,F35,F31,F30)</f>
         <v>0.6244999999999999</v>
       </c>
     </row>
-    <row r="37" ht="26.7" customHeight="1">
-      <c r="A37" t="s" s="95">
+    <row r="37" ht="38.7" customHeight="1">
+      <c r="A37" t="s" s="96">
         <v>29</v>
       </c>
       <c r="B37" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s" s="21">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D37" s="76">
-        <v>0.726</v>
+        <v>0.652</v>
       </c>
       <c r="E37" s="56">
-        <v>0.763</v>
+        <v>0.395</v>
       </c>
       <c r="F37" s="56">
-        <v>0.744</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="38" ht="26.7" customHeight="1">
       <c r="A38" s="94"/>
       <c r="B38" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D38" s="76">
-        <v>0.767</v>
+        <v>0.655</v>
       </c>
       <c r="E38" s="56">
-        <v>0.778</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F38" s="56">
-        <v>0.772</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="39" ht="26.7" customHeight="1">
@@ -16402,71 +16405,71 @@
     <row r="40" ht="26.7" customHeight="1">
       <c r="A40" s="94"/>
       <c r="B40" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D40" s="76">
-        <v>0.72</v>
+        <v>0.767</v>
       </c>
       <c r="E40" s="56">
-        <v>0.581</v>
+        <v>0.778</v>
       </c>
       <c r="F40" s="56">
-        <v>0.643</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="41" ht="26.7" customHeight="1">
-      <c r="A41" s="94"/>
+      <c r="A41" s="95"/>
       <c r="B41" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D41" s="76">
-        <v>0.655</v>
+        <v>0.726</v>
       </c>
       <c r="E41" s="56">
-        <v>0.6870000000000001</v>
+        <v>0.763</v>
       </c>
       <c r="F41" s="56">
-        <v>0.671</v>
-      </c>
-    </row>
-    <row r="42" ht="38.7" customHeight="1">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="42" ht="26.7" customHeight="1">
       <c r="A42" s="94"/>
       <c r="B42" t="s" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s" s="21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D42" s="76">
-        <v>0.652</v>
+        <v>0.72</v>
       </c>
       <c r="E42" s="56">
-        <v>0.395</v>
+        <v>0.581</v>
       </c>
       <c r="F42" s="56">
-        <v>0.492</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="43" ht="14.35" customHeight="1">
       <c r="A43" s="87"/>
       <c r="B43" s="78"/>
-      <c r="C43" s="98"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="61">
-        <f>AVERAGE(D37,D38,D39,D40,D41,D42)</f>
+        <f>AVERAGE(D41,D40,D39,D42,D38,D37)</f>
         <v>0.7126666666666667</v>
       </c>
       <c r="E43" s="61">
-        <f>AVERAGE(E37,E38,E39,E40,E41,E42)</f>
+        <f>AVERAGE(E41,E40,E39,E42,E38,E37)</f>
         <v>0.6333333333333334</v>
       </c>
       <c r="F43" s="61">
-        <f>AVERAGE(F37,F38,F39,F40,F41,F42)</f>
+        <f>AVERAGE(F41,F40,F39,F42,F38,F37)</f>
         <v>0.6648333333333333</v>
       </c>
     </row>
@@ -16492,15 +16495,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="99" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="99" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="99" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="99" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="99" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="99" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="99" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="99" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="99" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="100" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="100" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="100" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="100" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="100" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="100" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="100" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="100" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="100" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -16552,13 +16555,13 @@
       <c r="B3" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="101">
         <v>0.492</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="102">
         <v>0.508</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="103">
         <v>0.5</v>
       </c>
       <c r="F3" s="22">
@@ -16584,7 +16587,7 @@
       <c r="D4" s="56">
         <v>0.681</v>
       </c>
-      <c r="E4" s="103">
+      <c r="E4" s="104">
         <v>0.6850000000000001</v>
       </c>
       <c r="F4" s="22">
@@ -16610,7 +16613,7 @@
       <c r="D5" s="56">
         <v>0.495</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="104">
         <v>0.48</v>
       </c>
       <c r="F5" s="22">
@@ -16636,7 +16639,7 @@
       <c r="D6" s="56">
         <v>0.226</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="104">
         <v>0.269</v>
       </c>
       <c r="F6" s="22">
@@ -16662,7 +16665,7 @@
       <c r="D7" s="56">
         <v>0.337</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="104">
         <v>0.463</v>
       </c>
       <c r="F7" s="22">
@@ -16688,7 +16691,7 @@
       <c r="D8" s="56">
         <v>0.605</v>
       </c>
-      <c r="E8" s="103">
+      <c r="E8" s="104">
         <v>0.548</v>
       </c>
       <c r="F8" s="22">
@@ -16704,7 +16707,7 @@
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="104">
+      <c r="C9" s="105">
         <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
         <v>0.5363333333333333</v>
       </c>
@@ -16712,7 +16715,7 @@
         <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
         <v>0.4753333333333334</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="106">
         <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
         <v>0.4908333333333334</v>
       </c>
@@ -16732,9 +16735,9 @@
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -16788,13 +16791,13 @@
       <c r="B13" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="101">
         <v>0.768</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="102">
         <v>0.729</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="103">
         <v>0.748</v>
       </c>
       <c r="F13" s="22">
@@ -16820,7 +16823,7 @@
       <c r="D14" s="56">
         <v>0.806</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E14" s="104">
         <v>0.835</v>
       </c>
       <c r="F14" s="22">
@@ -16846,7 +16849,7 @@
       <c r="D15" s="56">
         <v>0.596</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E15" s="104">
         <v>0.667</v>
       </c>
       <c r="F15" s="22">
@@ -16872,7 +16875,7 @@
       <c r="D16" s="56">
         <v>0.484</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="104">
         <v>0.577</v>
       </c>
       <c r="F16" s="22">
@@ -16898,7 +16901,7 @@
       <c r="D17" s="56">
         <v>0.6870000000000001</v>
       </c>
-      <c r="E17" s="103">
+      <c r="E17" s="104">
         <v>0.655</v>
       </c>
       <c r="F17" s="22">
@@ -16924,7 +16927,7 @@
       <c r="D18" s="56">
         <v>0.526</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="104">
         <v>0.615</v>
       </c>
       <c r="F18" s="22">
@@ -16940,7 +16943,7 @@
     <row r="19" ht="14.7" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="104">
+      <c r="C19" s="105">
         <f>AVERAGE(C13,C14,C15,C16,C17,C18)</f>
         <v>0.7451666666666665</v>
       </c>
@@ -16948,7 +16951,7 @@
         <f>AVERAGE(D13,D14,D15,D16,D17,D18)</f>
         <v>0.638</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="106">
         <f>AVERAGE(E13,E14,E15,E16,E17,E18)</f>
         <v>0.6828333333333334</v>
       </c>
@@ -17007,24 +17010,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="107" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="107" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="107" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="107" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="107" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="107" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="107" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="107" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="107" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="107" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="107" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="107" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="107" customWidth="1"/>
-    <col min="14" max="14" width="16.3516" style="107" customWidth="1"/>
-    <col min="15" max="15" width="16.3516" style="107" customWidth="1"/>
-    <col min="16" max="16" width="16.3516" style="107" customWidth="1"/>
-    <col min="17" max="17" width="16.3516" style="107" customWidth="1"/>
-    <col min="18" max="256" width="16.3516" style="107" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="108" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="108" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="108" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="108" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="108" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="108" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="108" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="108" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="108" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="108" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="108" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="108" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="108" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="108" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="108" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="108" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="108" customWidth="1"/>
+    <col min="18" max="256" width="16.3516" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -17111,110 +17114,110 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="50.7" customHeight="1">
+    <row r="3" ht="62.7" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="21">
-        <v>12</v>
-      </c>
-      <c r="C3" s="100">
-        <v>0.768</v>
-      </c>
-      <c r="D3" s="101">
-        <v>0.729</v>
-      </c>
-      <c r="E3" s="102">
-        <v>0.748</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="101">
+        <v>0.741</v>
+      </c>
+      <c r="D3" s="102">
+        <v>0.526</v>
+      </c>
+      <c r="E3" s="103">
+        <v>0.615</v>
       </c>
       <c r="F3" s="22">
-        <v>0.769</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="G3" s="22">
-        <v>0.339</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H3" s="22">
-        <v>0.471</v>
+        <v>0.743</v>
       </c>
       <c r="I3" s="22">
-        <v>0.586</v>
+        <v>0.704</v>
       </c>
       <c r="J3" s="22">
-        <v>0.288</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="22">
-        <v>0.386</v>
+        <v>0.585</v>
       </c>
       <c r="L3" s="22">
-        <v>0.587</v>
+        <v>0.706</v>
       </c>
       <c r="M3" s="22">
-        <v>0.458</v>
+        <v>0.632</v>
       </c>
       <c r="N3" s="22">
-        <v>0.514</v>
+        <v>0.667</v>
       </c>
       <c r="O3" s="22">
-        <v>0.538</v>
+        <v>0.441</v>
       </c>
       <c r="P3" s="22">
-        <v>0.831</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Q3" s="22">
-        <v>0.653</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="4" ht="50.7" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="76">
-        <v>0.866</v>
+        <v>0.626</v>
       </c>
       <c r="D4" s="56">
-        <v>0.806</v>
-      </c>
-      <c r="E4" s="103">
-        <v>0.835</v>
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E4" s="104">
+        <v>0.655</v>
       </c>
       <c r="F4" s="22">
-        <v>0.796</v>
+        <v>0.641</v>
       </c>
       <c r="G4" s="22">
-        <v>0.597</v>
+        <v>0.602</v>
       </c>
       <c r="H4" s="22">
-        <v>0.6830000000000001</v>
+        <v>0.621</v>
       </c>
       <c r="I4" s="22">
-        <v>0.833</v>
+        <v>0.58</v>
       </c>
       <c r="J4" s="22">
-        <v>0.556</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="K4" s="22">
-        <v>0.667</v>
+        <v>0.573</v>
       </c>
       <c r="L4" s="22">
-        <v>0.8159999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="M4" s="22">
-        <v>0.556</v>
+        <v>0.699</v>
       </c>
       <c r="N4" s="22">
-        <v>0.661</v>
+        <v>0.652</v>
       </c>
       <c r="O4" s="22">
-        <v>0.46</v>
+        <v>0.548</v>
       </c>
       <c r="P4" s="22">
-        <v>0.792</v>
+        <v>0.964</v>
       </c>
       <c r="Q4" s="22">
-        <v>0.582</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="5" ht="38.7" customHeight="1">
@@ -17230,7 +17233,7 @@
       <c r="D5" s="56">
         <v>0.596</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="104">
         <v>0.667</v>
       </c>
       <c r="F5" s="22">
@@ -17272,224 +17275,224 @@
     </row>
     <row r="6" ht="50.7" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="76">
-        <v>0.714</v>
+        <v>0.866</v>
       </c>
       <c r="D6" s="56">
-        <v>0.484</v>
-      </c>
-      <c r="E6" s="103">
-        <v>0.577</v>
+        <v>0.806</v>
+      </c>
+      <c r="E6" s="104">
+        <v>0.835</v>
       </c>
       <c r="F6" s="22">
-        <v>0.643</v>
+        <v>0.796</v>
       </c>
       <c r="G6" s="22">
-        <v>0.29</v>
+        <v>0.597</v>
       </c>
       <c r="H6" s="22">
-        <v>0.4</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="I6" s="22">
-        <v>0.611</v>
+        <v>0.833</v>
       </c>
       <c r="J6" s="22">
-        <v>0.71</v>
+        <v>0.556</v>
       </c>
       <c r="K6" s="22">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="L6" s="22">
-        <v>0.571</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="M6" s="22">
-        <v>0.645</v>
+        <v>0.556</v>
       </c>
       <c r="N6" s="22">
-        <v>0.606</v>
+        <v>0.661</v>
       </c>
       <c r="O6" s="22">
-        <v>0.492</v>
+        <v>0.46</v>
       </c>
       <c r="P6" s="22">
-        <v>0.968</v>
+        <v>0.792</v>
       </c>
       <c r="Q6" s="22">
-        <v>0.652</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="7" ht="50.7" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="76">
-        <v>0.626</v>
+        <v>0.768</v>
       </c>
       <c r="D7" s="56">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="E7" s="103">
-        <v>0.655</v>
+        <v>0.729</v>
+      </c>
+      <c r="E7" s="104">
+        <v>0.748</v>
       </c>
       <c r="F7" s="22">
-        <v>0.641</v>
+        <v>0.769</v>
       </c>
       <c r="G7" s="22">
-        <v>0.602</v>
+        <v>0.339</v>
       </c>
       <c r="H7" s="22">
-        <v>0.621</v>
+        <v>0.471</v>
       </c>
       <c r="I7" s="22">
-        <v>0.58</v>
+        <v>0.586</v>
       </c>
       <c r="J7" s="22">
-        <v>0.5659999999999999</v>
+        <v>0.288</v>
       </c>
       <c r="K7" s="22">
-        <v>0.573</v>
+        <v>0.386</v>
       </c>
       <c r="L7" s="22">
+        <v>0.587</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0.458</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0.514</v>
+      </c>
+      <c r="O7" s="22">
+        <v>0.538</v>
+      </c>
+      <c r="P7" s="22">
+        <v>0.831</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="8" ht="50.7" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="C8" s="76">
+        <v>0.714</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0.484</v>
+      </c>
+      <c r="E8" s="104">
+        <v>0.577</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.643</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.29</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="22">
         <v>0.611</v>
       </c>
-      <c r="M7" s="22">
-        <v>0.699</v>
-      </c>
-      <c r="N7" s="22">
+      <c r="J8" s="22">
+        <v>0.71</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.657</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0.571</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0.645</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0.606</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0.492</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0.968</v>
+      </c>
+      <c r="Q8" s="22">
         <v>0.652</v>
-      </c>
-      <c r="O7" s="22">
-        <v>0.548</v>
-      </c>
-      <c r="P7" s="22">
-        <v>0.964</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0.699</v>
-      </c>
-    </row>
-    <row r="8" ht="62.7" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="C8" s="76">
-        <v>0.741</v>
-      </c>
-      <c r="D8" s="56">
-        <v>0.526</v>
-      </c>
-      <c r="E8" s="103">
-        <v>0.615</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.743</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0.704</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="22">
-        <v>0.585</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0.706</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0.632</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0.667</v>
-      </c>
-      <c r="O8" s="22">
-        <v>0.441</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>0.536</v>
       </c>
     </row>
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="104">
-        <f>AVERAGE(C3,C4,C5,C6,C7,C8)</f>
+      <c r="C9" s="105">
+        <f>AVERAGE(C7,C6,C5,C8,C4,C3)</f>
         <v>0.7451666666666665</v>
       </c>
       <c r="D9" s="61">
-        <f>AVERAGE(D3,D4,D5,D6,D7,D8)</f>
+        <f>AVERAGE(D7,D6,D5,D8,D4,D3)</f>
         <v>0.638</v>
       </c>
-      <c r="E9" s="105">
-        <f>AVERAGE(E3,E4,E5,E6,E7,E8)</f>
+      <c r="E9" s="106">
+        <f>AVERAGE(E7,E6,E5,E8,E4,E3)</f>
         <v>0.6828333333333334</v>
       </c>
       <c r="F9" s="24">
-        <f>AVERAGE(F4,F3,F5,F6,F7,F8)</f>
+        <f>AVERAGE(F6,F7,F5,F8,F4,F3)</f>
         <v>0.7314999999999999</v>
       </c>
       <c r="G9" s="24">
-        <f>AVERAGE(G4,G3,G5,G6,G7,G8)</f>
+        <f>AVERAGE(G6,G7,G5,G8,G4,G3)</f>
         <v>0.4798333333333333</v>
       </c>
       <c r="H9" s="24">
-        <f>AVERAGE(H4,H3,H5,H6,H7,H8)</f>
+        <f>AVERAGE(H6,H7,H5,H8,H4,H3)</f>
         <v>0.5676666666666667</v>
       </c>
       <c r="I9" s="24">
-        <f>AVERAGE(I4,I3,I5,I6,I7,I8)</f>
+        <f>AVERAGE(I6,I7,I5,I8,I4,I3)</f>
         <v>0.6473333333333332</v>
       </c>
       <c r="J9" s="24">
-        <f>AVERAGE(J4,J3,J5,J6,J7,J8)</f>
+        <f>AVERAGE(J6,J7,J5,J8,J4,J3)</f>
         <v>0.5116666666666666</v>
       </c>
       <c r="K9" s="24">
-        <f>AVERAGE(K4,K3,K5,K6,K7,K8)</f>
+        <f>AVERAGE(K6,K7,K5,K8,K4,K3)</f>
         <v>0.5618333333333333</v>
       </c>
       <c r="L9" s="24">
-        <f>AVERAGE(L4,L3,L5,L6,L7,L8)</f>
+        <f>AVERAGE(L6,L7,L5,L8,L4,L3)</f>
         <v>0.6428333333333333</v>
       </c>
       <c r="M9" s="24">
-        <f>AVERAGE(M4,M3,M5,M6,M7,M8)</f>
+        <f>AVERAGE(M6,M7,M5,M8,M4,M3)</f>
         <v>0.5639999999999999</v>
       </c>
       <c r="N9" s="24">
-        <f>AVERAGE(N4,N3,N5,N6,N7,N8)</f>
+        <f>AVERAGE(N6,N7,N5,N8,N4,N3)</f>
         <v>0.5941666666666667</v>
       </c>
       <c r="O9" s="24">
-        <f>AVERAGE(O4,O3,O5,O6,O7,O8)</f>
+        <f>AVERAGE(O6,O7,O5,O8,O4,O3)</f>
         <v>0.4918333333333333</v>
       </c>
       <c r="P9" s="24">
-        <f>AVERAGE(P4,P3,P5,P6,P7,P8)</f>
+        <f>AVERAGE(P6,P7,P5,P8,P4,P3)</f>
         <v>0.8241666666666666</v>
       </c>
       <c r="Q9" s="24">
-        <f>AVERAGE(Q4,Q3,Q5,Q6,Q7,Q8)</f>
+        <f>AVERAGE(Q6,Q7,Q5,Q8,Q4,Q3)</f>
         <v>0.6146666666666666</v>
       </c>
     </row>
@@ -17570,57 +17573,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="108" customWidth="1"/>
-    <col min="2" max="2" width="12.8516" style="108" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="108" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="108" customWidth="1"/>
-    <col min="5" max="5" width="12.3516" style="108" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="108" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="108" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="108" customWidth="1"/>
-    <col min="9" max="9" width="12.1719" style="108" customWidth="1"/>
-    <col min="10" max="10" width="12.1719" style="108" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="108" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="108" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="108" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="108" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="109" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="109" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="109" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="109" customWidth="1"/>
+    <col min="5" max="5" width="12.3516" style="109" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="109" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="109" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="109" customWidth="1"/>
+    <col min="9" max="9" width="12.1719" style="109" customWidth="1"/>
+    <col min="10" max="10" width="12.1719" style="109" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="109" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="109" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="109" customWidth="1"/>
+    <col min="14" max="256" width="16.3516" style="109" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="109">
+      <c r="A1" t="s" s="110">
         <v>24</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" ht="32.05" customHeight="1">
       <c r="A2" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B2" t="s" s="112">
+      <c r="B2" t="s" s="113">
         <v>62</v>
       </c>
-      <c r="C2" t="s" s="113">
+      <c r="C2" t="s" s="114">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="113">
+      <c r="D2" t="s" s="114">
         <v>64</v>
       </c>
-      <c r="E2" s="114"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -17630,7 +17633,7 @@
       <c r="A3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>38</v>
       </c>
       <c r="C3" s="10">
@@ -17639,11 +17642,11 @@
       <c r="D3" s="10">
         <v>8</v>
       </c>
-      <c r="E3" s="114"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -17653,7 +17656,7 @@
       <c r="A4" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="116">
         <v>83</v>
       </c>
       <c r="C4" s="10">
@@ -17662,11 +17665,11 @@
       <c r="D4" s="10">
         <v>17</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -17676,7 +17679,7 @@
       <c r="A5" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="116">
         <v>31</v>
       </c>
       <c r="C5" s="10">
@@ -17685,11 +17688,11 @@
       <c r="D5" s="10">
         <v>7</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -17699,7 +17702,7 @@
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="116">
         <v>109</v>
       </c>
       <c r="C6" s="10">
@@ -17708,11 +17711,11 @@
       <c r="D6" s="10">
         <v>15</v>
       </c>
-      <c r="E6" s="114"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -17722,7 +17725,7 @@
       <c r="A7" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="116">
         <v>72</v>
       </c>
       <c r="C7" s="10">
@@ -17731,11 +17734,11 @@
       <c r="D7" s="10">
         <v>11</v>
       </c>
-      <c r="E7" s="114"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
@@ -17745,7 +17748,7 @@
       <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>59</v>
       </c>
       <c r="C8" s="10">
@@ -17754,11 +17757,11 @@
       <c r="D8" s="10">
         <v>13</v>
       </c>
-      <c r="E8" s="114"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -17768,7 +17771,7 @@
       <c r="A9" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="116">
         <f>SUM(B3,B4,B5,B6,B7,B8)</f>
         <v>392</v>
       </c>
@@ -17780,11 +17783,11 @@
         <f>SUM(D3,D4,D5,D6,D7,D8)</f>
         <v>71</v>
       </c>
-      <c r="E9" s="114"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -17794,7 +17797,7 @@
       <c r="A10" t="s" s="8">
         <v>66</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="116">
         <v>21</v>
       </c>
       <c r="C10" s="10">
@@ -17803,11 +17806,11 @@
       <c r="D10" s="10">
         <v>10</v>
       </c>
-      <c r="E10" s="114"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -17817,7 +17820,7 @@
       <c r="A11" t="s" s="8">
         <v>67</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="116">
         <v>17</v>
       </c>
       <c r="C11" s="10">
@@ -17826,11 +17829,11 @@
       <c r="D11" s="10">
         <v>10</v>
       </c>
-      <c r="E11" s="114"/>
+      <c r="E11" s="115"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -17840,7 +17843,7 @@
       <c r="A12" t="s" s="8">
         <v>68</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="116">
         <v>4</v>
       </c>
       <c r="C12" s="10">
@@ -17849,11 +17852,11 @@
       <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="114"/>
+      <c r="E12" s="115"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -17861,7 +17864,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="115">
+      <c r="B13" s="116">
         <f>B11/(B12+B11)</f>
         <v>0.8095238095238095</v>
       </c>
@@ -17872,11 +17875,11 @@
       <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
